--- a/VA_result_SYL.xlsx
+++ b/VA_result_SYL.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B9E1260-2CA1-4592-B4E8-FE01C9C542EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D24FB5C-000A-4816-B792-612DFE875DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{02D957A7-449D-4486-90BB-855E1378C753}"/>
   </bookViews>
   <sheets>
     <sheet name="VATRIM" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil4" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -61,9 +61,9 @@
     <definedName name="__123Graph_CTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_D" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_D" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_DCURRENT" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_E" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_E" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_ECURRENT" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_X" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XCAFCAC" hidden="1">[1]export!#REF!</definedName>
@@ -71,38 +71,38 @@
     <definedName name="__123Graph_XTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="_123graph_b" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="_123graph_b" hidden="1">[3]A!#REF!</definedName>
     <definedName name="_12no" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_Fill1" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" hidden="1">[5]C!$P$428:$T$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1">[4]C!$P$428:$T$428</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_new1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Int" hidden="1">1</definedName>
-    <definedName name="_Regression_Out" hidden="1">[5]C!$AK$18:$AK$18</definedName>
-    <definedName name="_Regression_X" hidden="1">[5]C!$AK$11:$AU$11</definedName>
-    <definedName name="_Regression_Y" hidden="1">[5]C!$AK$10:$AU$10</definedName>
+    <definedName name="_Regression_Out" hidden="1">[4]C!$AK$18:$AK$18</definedName>
+    <definedName name="_Regression_X" hidden="1">[4]C!$AK$11:$AU$11</definedName>
+    <definedName name="_Regression_Y" hidden="1">[4]C!$AK$10:$AU$10</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="ACwvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="ACwvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="awea" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="cashplan" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="CRES" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="CRISa" hidden="1">[7]A!#REF!</definedName>
+    <definedName name="CRISa" hidden="1">[6]A!#REF!</definedName>
     <definedName name="e" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferes1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferges" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="graphe" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="graphe" hidden="1">[2]E!#REF!</definedName>
     <definedName name="kol" hidden="1">#REF!</definedName>
     <definedName name="KONAN" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="kossi" hidden="1">#REF!</definedName>
     <definedName name="new" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="nnnnnnnnnnn" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="pol" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="pol" hidden="1">[3]A!#REF!</definedName>
     <definedName name="popl" hidden="1">#REF!</definedName>
     <definedName name="PROJA" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="q" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -110,7 +110,7 @@
     <definedName name="rtre" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="Rwvu.Print." hidden="1">#N/A</definedName>
     <definedName name="s" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="Swvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="Swvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="tenou" hidden="1">#REF!</definedName>
     <definedName name="tyi" hidden="1">#REF!</definedName>
     <definedName name="wrn.Main._.Economic._.Indicators." hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="118">
   <si>
     <t>VA_trim</t>
   </si>
@@ -451,25 +451,94 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -481,15 +550,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D75CA6FA-9CEA-4FB1-B0DB-4667536C7BBD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,270 +636,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
-      <sheetName val="Tables du Contenu"/>
-      <sheetName val="Indications"/>
-      <sheetName val="MAP"/>
-      <sheetName val="Data_Eviews"/>
-      <sheetName val="Ind_rel_Prod_CST (2)"/>
-      <sheetName val="Resultats _Reg_Coef"/>
-      <sheetName val="Resultats _Reg_Filted"/>
-      <sheetName val="Resultats _Reg_Resid"/>
-      <sheetName val="Resultats_Ind_Forecast"/>
-      <sheetName val="Data Indicateurs_Trim"/>
-      <sheetName val="AGV_CNA"/>
-      <sheetName val="Feuil1"/>
-      <sheetName val="Feuil2"/>
-      <sheetName val="AGV_IND"/>
-      <sheetName val="AGV_ETALONNAGE"/>
-      <sheetName val="AGV_RESIDUS"/>
-      <sheetName val="AGV_CALAGE"/>
-      <sheetName val="AVG_PREVISION"/>
-      <sheetName val="AEX_CNA"/>
-      <sheetName val="AEX_IND"/>
-      <sheetName val="AEX_ETALONNAGE"/>
-      <sheetName val="AEX_RESIDUS"/>
-      <sheetName val="AEX_CALAGE"/>
-      <sheetName val="AEX_PREVISION"/>
-      <sheetName val="ELE_CNA"/>
-      <sheetName val="ELE_CALAGE"/>
-      <sheetName val="ELE_PREVISION"/>
-      <sheetName val="VATRIM"/>
-      <sheetName val="SYL_CNA"/>
-      <sheetName val="SYL_CALAGE"/>
-      <sheetName val="SYL_PREVISION"/>
-      <sheetName val="EXT_CNA"/>
-      <sheetName val="EXT_IND"/>
-      <sheetName val="EXT_ETALONNAGE"/>
-      <sheetName val="EXT_RESIDUS"/>
-      <sheetName val="EXT_CALAGE"/>
-      <sheetName val="EXT_PREVISION"/>
-      <sheetName val="AUI_CNA"/>
-      <sheetName val="AUI_IND"/>
-      <sheetName val="AUI_ETALONNAGE"/>
-      <sheetName val="AUI_RESIDUS"/>
-      <sheetName val="AUI_CALAGE"/>
-      <sheetName val="AUI_PREVISION"/>
-      <sheetName val="RAF_CNA"/>
-      <sheetName val="RAF_IND"/>
-      <sheetName val="RAF_ETALONNAGE"/>
-      <sheetName val="RAF_RESIDUS"/>
-      <sheetName val="RAF_CALAGE"/>
-      <sheetName val="RAF_PREVISION"/>
-      <sheetName val="ENE_CNA"/>
-      <sheetName val="ENE_IND"/>
-      <sheetName val="ENE_ETALONNAGE"/>
-      <sheetName val="ENE_RESIDUS"/>
-      <sheetName val="ENE_CALAGE"/>
-      <sheetName val="ENE_PREVISION"/>
-      <sheetName val="IAA_CNA"/>
-      <sheetName val="IAA_IND"/>
-      <sheetName val="IAA_ETALONNAGE"/>
-      <sheetName val="IAA_RESIDUS"/>
-      <sheetName val="IAA_CALAGE"/>
-      <sheetName val="IAA_PREVISION"/>
-      <sheetName val="BFA_CNA"/>
-      <sheetName val="BFA_IND"/>
-      <sheetName val="BFA_ETALONNAGE"/>
-      <sheetName val="BFA_RESIDUS"/>
-      <sheetName val="BFA_CALAGE"/>
-      <sheetName val="BFA_PREVISION"/>
-      <sheetName val="BTP_CNA"/>
-      <sheetName val="BTP_IND"/>
-      <sheetName val="BTP_ETALONNAGE"/>
-      <sheetName val="BTP_RESIDUS"/>
-      <sheetName val="BTP_CALAGE"/>
-      <sheetName val="BTP_PREVISION"/>
-      <sheetName val="COM_CNA"/>
-      <sheetName val="COM_IND"/>
-      <sheetName val="COM_ETALONNAGE"/>
-      <sheetName val="COM_RESIDUS"/>
-      <sheetName val="COM_CALAGE"/>
-      <sheetName val="COM_PREVISION"/>
-      <sheetName val="HOT_CNA"/>
-      <sheetName val="HOT_IND"/>
-      <sheetName val="HOT_ETALONNAGE"/>
-      <sheetName val="HOT_RESIDUS"/>
-      <sheetName val="HOT_CALAGE"/>
-      <sheetName val="HOT_PREVISION"/>
-      <sheetName val="TEL_CNA"/>
-      <sheetName val="TEL_IND"/>
-      <sheetName val="TEL_ETALONNAGE"/>
-      <sheetName val="TEL_RESIDUS"/>
-      <sheetName val="TEL_CALAGE"/>
-      <sheetName val="TEL_PREVISION"/>
-      <sheetName val="TRA_CNA"/>
-      <sheetName val="TRA_IND"/>
-      <sheetName val="TRA_ETALONNAGE"/>
-      <sheetName val="TRA_RESIDUS"/>
-      <sheetName val="TRA_CALAGE"/>
-      <sheetName val="TRA_PREVISION"/>
-      <sheetName val="AUS_CNA"/>
-      <sheetName val="AUS_IND"/>
-      <sheetName val="AUS_ETALONNAGE"/>
-      <sheetName val="AUS_RESIDUS"/>
-      <sheetName val="AUS_CALAGE"/>
-      <sheetName val="AUS_PREVISION"/>
-      <sheetName val="APU_CNA"/>
-      <sheetName val="APU_IND"/>
-      <sheetName val="APU_ETALONNAGE"/>
-      <sheetName val="APU_RESIDUS"/>
-      <sheetName val="APU_CALAGE"/>
-      <sheetName val="APU_PREVISION"/>
-      <sheetName val="DTX_CNA"/>
-      <sheetName val="DTX_IND"/>
-      <sheetName val="DTX_ETALONNAGE"/>
-      <sheetName val="DTX_RESIDUS"/>
-      <sheetName val="DTX_CALAGE"/>
-      <sheetName val="DTX_PREVISION"/>
-      <sheetName val="FRANCS CST_2015_op1"/>
-      <sheetName val="FRANCS CST_2015_op2"/>
-      <sheetName val="Option"/>
-      <sheetName val="FRANCS CST_2015"/>
-      <sheetName val="FRANCS CST_2015_Croissance"/>
-      <sheetName val="FRANCS CST_2015_Contributions"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-      <sheetData sheetId="124"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1040,7 +848,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1161,7 +969,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1461,7 +1269,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1524,7 +1332,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1974,944 +1782,1549 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BF7BCB-34AC-4ABE-BA5E-BF0B5F6D7E4F}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection sqref="A1:A117"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>45198.567871543681</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>45885.528278136597</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>47259.449091322458</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>49320.330311101272</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>52068.12610954461</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>53661.102226560608</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>54099.215252740338</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>53382.465188083814</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>51510.831019534788</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>49789.374545976949</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>48218.073990858393</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>46796.929354179112</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>45525.790932148753</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>45068.595973698837</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>45425.19059562336</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>46595.574797922316</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>48579.843727721105</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>49291.442521161764</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>48730.462439214716</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>46896.903481879956</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>43790.862089307702</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>41968.006334184087</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>41428.439497288753</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>42172.161578621693</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>44199.18817920451</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>45823.680475628411</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>47045.653353439113</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>47865.106812636608</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>48282.161370740963</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>48809.268490450857</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>49446.547648571104</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>50193.998845101691</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>51051.763294287106</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>51645.222500003467</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>51974.515304217697</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>52039.641706929804</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>51840.512474372917</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
         <v>52534.800931594582</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
         <v>54122.417502218312</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
         <v>56603.362186244107</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>59977.632478138534</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>61806.388404084682</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
         <v>62089.627599507556</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
         <v>60827.350064407161</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>58019.592153882761</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>55933.388627660846</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
         <v>54568.777600206784</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
         <v>53925.759071520573</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
         <v>54004.417087576578</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
         <v>54575.651409389298</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>55639.545960649848</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>57196.100741358227</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>59245.314418900554</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>58912.08198125042</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>56196.402141887214</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
         <v>51098.274900810968</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>43617.551531650068</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
         <v>38203.433109826423</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
         <v>34855.745401921595</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
         <v>33574.488407935569</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
         <v>34359.606148791747</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>35092.489539751776</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
         <v>35773.083880951272</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
         <v>36401.389172390242</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>36977.328141469094</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>37312.5198457652</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
         <v>37406.888216394371</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
         <v>37260.433253356612</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>36873.203237340407</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>36951.438736644668</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>37495.188539049363</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>38504.452644554491</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>39979.192883878255</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>41076.926530564298</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>41797.616823342723</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>42141.263762213523</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>41242.453035357365</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>41531.487804706427</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80">
         <v>42142.26738467424</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81">
         <v>43074.791775260819</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>44194.302522823004</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83">
         <v>45005.904623786555</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84">
         <v>45378.652549354534</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85">
         <v>45312.546299526948</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>44871.427669222758</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87">
         <v>45264.393555029761</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>46556.005218878614</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89">
         <v>48746.262660769302</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>51835.165880701839</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91">
         <v>53495.455728338158</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92">
         <v>53727.132203678266</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93">
         <v>52530.195306722155</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94">
         <v>49904.64503746984</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95">
         <v>47935.4823355306</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96">
         <v>46622.70720090445</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>45966.319633591367</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B98">
         <v>54159.382790472875</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99">
         <v>52431.531667796633</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B100">
         <v>50818.222704131731</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>44470</v>
+    <row r="101" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B101">
         <v>49492.01846239825</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>44562</v>
+    <row r="102" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B102">
         <v>58776.868206208252</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>44652</v>
+    <row r="103" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B103">
         <v>57349.282391459463</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>44743</v>
+    <row r="104" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B104">
         <v>55391.287075595457</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>44835</v>
+    <row r="105" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B105">
         <v>53288.144689581532</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>44927</v>
+    <row r="106" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B106">
         <v>63788.028188860582</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>45017</v>
+    <row r="107" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B107">
         <v>62728.287467432965</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>45108</v>
+    <row r="108" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B108">
         <v>60375.875436540431</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>45200</v>
+    <row r="109" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B109">
         <v>57375.440579680406</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>45292</v>
+    <row r="110" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B110">
         <v>69226.426388486914</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>45383</v>
+    <row r="111" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B111">
         <v>68611.809677724741</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>45474</v>
+    <row r="112" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B112">
         <v>65809.020284251266</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>45566</v>
+    <row r="113" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B113">
         <v>61776.239365977606</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>45658</v>
+    <row r="114" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B114">
         <v>75128.48800298055</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>45748</v>
+    <row r="115" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B115">
         <v>75047.16958352142</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>45839</v>
+    <row r="116" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B116">
         <v>71731.086621261798</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>45931</v>
+    <row r="117" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B117">
         <v>66514.587280644089</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D386F8CD-2AAC-41BD-BC5A-317DAB79B246}">
+  <dimension ref="A1:A117"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection sqref="A1:A117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="10.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_SYL.xlsx
+++ b/VA_result_SYL.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t xml:space="preserve">ANNEE</t>
   </si>
@@ -485,34 +485,31 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.91038304567337e-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.82076609134674e-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.73114913702011e-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.16415321826935e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.3283064365387e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.03726813197136e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91038304567337e-11</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">5.82076609134674e-11</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.45519152283669e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.74622982740402e-10</t>
+    <t xml:space="preserve">2.3283064365387e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74622982740402e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16415321826935e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91038304567337e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49245965480804e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65661287307739e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07453626394272e-10</t>
   </si>
 </sst>
 </file>
@@ -2293,22 +2290,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="C2" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="D2" t="n">
-        <v>45198.5804189327</v>
+        <v>98145.6928822036</v>
       </c>
       <c r="E2" t="n">
-        <v>45198.5804189327</v>
+        <v>98145.6928822036</v>
       </c>
       <c r="F2" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="G2" t="n">
-        <v>45198.5804189327</v>
+        <v>98145.6928822036</v>
       </c>
       <c r="H2" t="s">
         <v>155</v>
@@ -2319,22 +2316,22 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="C3" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="D3" t="n">
-        <v>45885.53580657</v>
+        <v>98400.5117931836</v>
       </c>
       <c r="E3" t="n">
-        <v>45885.53580657</v>
+        <v>98400.5117931836</v>
       </c>
       <c r="F3" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="G3" t="n">
-        <v>45885.53580657</v>
+        <v>98400.5117931836</v>
       </c>
       <c r="H3" t="s">
         <v>156</v>
@@ -2345,22 +2342,22 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="C4" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="D4" t="n">
-        <v>47259.4465818447</v>
+        <v>98910.1496151438</v>
       </c>
       <c r="E4" t="n">
-        <v>47259.4465818447</v>
+        <v>98910.1496151438</v>
       </c>
       <c r="F4" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="G4" t="n">
-        <v>47259.4465818447</v>
+        <v>98910.1496151438</v>
       </c>
       <c r="H4" t="s">
         <v>157</v>
@@ -2371,25 +2368,25 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="C5" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="D5" t="n">
-        <v>49320.3127447567</v>
+        <v>99674.606348084</v>
       </c>
       <c r="E5" t="n">
-        <v>49320.3127447567</v>
+        <v>99674.606348084</v>
       </c>
       <c r="F5" t="n">
-        <v>187663.875552104</v>
+        <v>395130.960638615</v>
       </c>
       <c r="G5" t="n">
-        <v>49320.3127447567</v>
+        <v>99674.606348084</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -2397,25 +2394,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="C6" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="D6" t="n">
-        <v>52068.1342953061</v>
+        <v>100693.881992004</v>
       </c>
       <c r="E6" t="n">
-        <v>52068.1342953061</v>
+        <v>100693.881992004</v>
       </c>
       <c r="F6" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="G6" t="n">
-        <v>52068.1342953061</v>
+        <v>100693.881992004</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
@@ -2423,25 +2420,25 @@
         <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="C7" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="D7" t="n">
-        <v>53661.1000750963</v>
+        <v>102470.334617543</v>
       </c>
       <c r="E7" t="n">
-        <v>53661.1000750963</v>
+        <v>102470.334617543</v>
       </c>
       <c r="F7" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="G7" t="n">
-        <v>53661.1000750963</v>
+        <v>102470.334617543</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
@@ -2449,22 +2446,22 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="C8" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="D8" t="n">
-        <v>54099.2100841275</v>
+        <v>105003.964224699</v>
       </c>
       <c r="E8" t="n">
-        <v>54099.2100841275</v>
+        <v>105003.964224699</v>
       </c>
       <c r="F8" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="G8" t="n">
-        <v>54099.2100841275</v>
+        <v>105003.964224699</v>
       </c>
       <c r="H8" t="s">
         <v>158</v>
@@ -2475,25 +2472,25 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="C9" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="D9" t="n">
-        <v>53382.4643223996</v>
+        <v>108294.770813473</v>
       </c>
       <c r="E9" t="n">
-        <v>53382.4643223996</v>
+        <v>108294.770813473</v>
       </c>
       <c r="F9" t="n">
-        <v>213210.90877693</v>
+        <v>416462.951647719</v>
       </c>
       <c r="G9" t="n">
-        <v>53382.4643223996</v>
+        <v>108294.770813473</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
@@ -2501,25 +2498,25 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>196315.20891055</v>
+        <v>462504.590283298</v>
       </c>
       <c r="C10" t="n">
-        <v>196315.20891055</v>
+        <v>462504.590283298</v>
       </c>
       <c r="D10" t="n">
-        <v>51510.8627899126</v>
+        <v>112342.754383865</v>
       </c>
       <c r="E10" t="n">
-        <v>51510.8627899126</v>
+        <v>112342.754383865</v>
       </c>
       <c r="F10" t="n">
-        <v>196315.208910549</v>
+        <v>462504.590283298</v>
       </c>
       <c r="G10" t="n">
-        <v>51510.8627899126</v>
+        <v>112342.754383865</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -2527,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>196315.20891055</v>
+        <v>462504.590283298</v>
       </c>
       <c r="C11" t="n">
-        <v>196315.20891055</v>
+        <v>462504.590283298</v>
       </c>
       <c r="D11" t="n">
-        <v>49789.3979520077</v>
+        <v>115275.305086806</v>
       </c>
       <c r="E11" t="n">
-        <v>49789.3979520077</v>
+        <v>115275.305086806</v>
       </c>
       <c r="F11" t="n">
-        <v>196315.208910549</v>
+        <v>462504.590283298</v>
       </c>
       <c r="G11" t="n">
-        <v>49789.3979520077</v>
+        <v>115275.305086806</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -2553,25 +2550,25 @@
         <v>37</v>
       </c>
       <c r="B12" t="n">
-        <v>196315.20891055</v>
+        <v>462504.590283298</v>
       </c>
       <c r="C12" t="n">
-        <v>196315.20891055</v>
+        <v>462504.590283298</v>
       </c>
       <c r="D12" t="n">
-        <v>48218.0698086849</v>
+        <v>117092.422922295</v>
       </c>
       <c r="E12" t="n">
-        <v>48218.0698086849</v>
+        <v>117092.422922295</v>
       </c>
       <c r="F12" t="n">
-        <v>196315.208910549</v>
+        <v>462504.590283298</v>
       </c>
       <c r="G12" t="n">
-        <v>48218.0698086849</v>
+        <v>117092.422922295</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
@@ -2579,25 +2576,25 @@
         <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>196315.20891055</v>
+        <v>462504.590283298</v>
       </c>
       <c r="C13" t="n">
-        <v>196315.20891055</v>
+        <v>462504.590283298</v>
       </c>
       <c r="D13" t="n">
-        <v>46796.8783599443</v>
+        <v>117794.107890333</v>
       </c>
       <c r="E13" t="n">
-        <v>46796.8783599443</v>
+        <v>117794.107890333</v>
       </c>
       <c r="F13" t="n">
-        <v>196315.208910549</v>
+        <v>462504.590283298</v>
       </c>
       <c r="G13" t="n">
-        <v>46796.8783599443</v>
+        <v>117794.107890333</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
@@ -2605,25 +2602,25 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973532</v>
       </c>
       <c r="C14" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973532</v>
       </c>
       <c r="D14" t="n">
-        <v>45525.8236057858</v>
+        <v>117380.359990919</v>
       </c>
       <c r="E14" t="n">
-        <v>45525.8236057858</v>
+        <v>117380.359990919</v>
       </c>
       <c r="F14" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973533</v>
       </c>
       <c r="G14" t="n">
-        <v>45525.8236057858</v>
+        <v>117380.359990919</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -2631,25 +2628,25 @@
         <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973532</v>
       </c>
       <c r="C15" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973532</v>
       </c>
       <c r="D15" t="n">
-        <v>45068.5874917475</v>
+        <v>117384.915832139</v>
       </c>
       <c r="E15" t="n">
-        <v>45068.5874917475</v>
+        <v>117384.915832139</v>
       </c>
       <c r="F15" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973533</v>
       </c>
       <c r="G15" t="n">
-        <v>45068.5874917475</v>
+        <v>117384.915832139</v>
       </c>
       <c r="H15" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
@@ -2657,25 +2654,25 @@
         <v>40</v>
       </c>
       <c r="B16" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973532</v>
       </c>
       <c r="C16" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973532</v>
       </c>
       <c r="D16" t="n">
-        <v>45425.1700178292</v>
+        <v>117807.775413993</v>
       </c>
       <c r="E16" t="n">
-        <v>45425.1700178292</v>
+        <v>117807.775413993</v>
       </c>
       <c r="F16" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973533</v>
       </c>
       <c r="G16" t="n">
-        <v>45425.1700178292</v>
+        <v>117807.775413993</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -2683,25 +2680,25 @@
         <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973532</v>
       </c>
       <c r="C17" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973532</v>
       </c>
       <c r="D17" t="n">
-        <v>46595.571184031</v>
+        <v>118648.938736482</v>
       </c>
       <c r="E17" t="n">
-        <v>46595.571184031</v>
+        <v>118648.938736482</v>
       </c>
       <c r="F17" t="n">
-        <v>182615.152299394</v>
+        <v>471221.989973533</v>
       </c>
       <c r="G17" t="n">
-        <v>46595.571184031</v>
+        <v>118648.938736482</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
@@ -2709,25 +2706,25 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="C18" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="D18" t="n">
-        <v>48579.790990353</v>
+        <v>119908.405799604</v>
       </c>
       <c r="E18" t="n">
-        <v>48579.790990353</v>
+        <v>119908.405799604</v>
       </c>
       <c r="F18" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="G18" t="n">
-        <v>48579.790990353</v>
+        <v>119908.405799604</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -2735,25 +2732,25 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="C19" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="D19" t="n">
-        <v>49291.4277337384</v>
+        <v>122153.900851008</v>
       </c>
       <c r="E19" t="n">
-        <v>49291.4277337384</v>
+        <v>122153.900851008</v>
       </c>
       <c r="F19" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="G19" t="n">
-        <v>49291.4277337384</v>
+        <v>122153.900851008</v>
       </c>
       <c r="H19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -2761,25 +2758,25 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="C20" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="D20" t="n">
-        <v>48730.4814141871</v>
+        <v>125385.423890695</v>
       </c>
       <c r="E20" t="n">
-        <v>48730.4814141871</v>
+        <v>125385.423890695</v>
       </c>
       <c r="F20" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="G20" t="n">
-        <v>48730.4814141871</v>
+        <v>125385.423890695</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
@@ -2787,25 +2784,25 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="C21" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="D21" t="n">
-        <v>46896.9520316994</v>
+        <v>129602.974918664</v>
       </c>
       <c r="E21" t="n">
-        <v>46896.9520316994</v>
+        <v>129602.974918664</v>
       </c>
       <c r="F21" t="n">
-        <v>193498.652169978</v>
+        <v>497050.705459971</v>
       </c>
       <c r="G21" t="n">
-        <v>46896.9520316994</v>
+        <v>129602.974918664</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
@@ -2813,25 +2810,25 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660615</v>
       </c>
       <c r="C22" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660615</v>
       </c>
       <c r="D22" t="n">
-        <v>43790.839586275</v>
+        <v>134806.553934915</v>
       </c>
       <c r="E22" t="n">
-        <v>43790.839586275</v>
+        <v>134806.553934915</v>
       </c>
       <c r="F22" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660616</v>
       </c>
       <c r="G22" t="n">
-        <v>43790.839586275</v>
+        <v>134806.553934915</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
@@ -2839,25 +2836,25 @@
         <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660615</v>
       </c>
       <c r="C23" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660615</v>
       </c>
       <c r="D23" t="n">
-        <v>41968.0057235355</v>
+        <v>135942.489433511</v>
       </c>
       <c r="E23" t="n">
-        <v>41968.0057235355</v>
+        <v>135942.489433511</v>
       </c>
       <c r="F23" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660616</v>
       </c>
       <c r="G23" t="n">
-        <v>41968.0057235355</v>
+        <v>135942.489433511</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
@@ -2865,25 +2862,25 @@
         <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660615</v>
       </c>
       <c r="C24" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660615</v>
       </c>
       <c r="D24" t="n">
-        <v>41428.4504434809</v>
+        <v>133010.781414452</v>
       </c>
       <c r="E24" t="n">
-        <v>41428.4504434809</v>
+        <v>133010.781414452</v>
       </c>
       <c r="F24" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660616</v>
       </c>
       <c r="G24" t="n">
-        <v>41428.4504434809</v>
+        <v>133010.781414452</v>
       </c>
       <c r="H24" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25">
@@ -2891,25 +2888,25 @@
         <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660615</v>
       </c>
       <c r="C25" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660615</v>
       </c>
       <c r="D25" t="n">
-        <v>42172.1737461112</v>
+        <v>126011.429877738</v>
       </c>
       <c r="E25" t="n">
-        <v>42172.1737461112</v>
+        <v>126011.429877738</v>
       </c>
       <c r="F25" t="n">
-        <v>169359.469499403</v>
+        <v>529771.254660616</v>
       </c>
       <c r="G25" t="n">
-        <v>42172.1737461112</v>
+        <v>126011.429877738</v>
       </c>
       <c r="H25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -2917,22 +2914,22 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="C26" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="D26" t="n">
-        <v>44199.1756314263</v>
+        <v>114944.43482337</v>
       </c>
       <c r="E26" t="n">
-        <v>44199.1756314263</v>
+        <v>114944.43482337</v>
       </c>
       <c r="F26" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="G26" t="n">
-        <v>44199.1756314263</v>
+        <v>114944.43482337</v>
       </c>
       <c r="H26" t="s">
         <v>155</v>
@@ -2943,22 +2940,22 @@
         <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="C27" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="D27" t="n">
-        <v>45823.6690150728</v>
+        <v>106793.749969574</v>
       </c>
       <c r="E27" t="n">
-        <v>45823.6690150728</v>
+        <v>106793.749969574</v>
       </c>
       <c r="F27" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="G27" t="n">
-        <v>45823.6690150728</v>
+        <v>106793.749969574</v>
       </c>
       <c r="H27" t="s">
         <v>156</v>
@@ -2969,22 +2966,22 @@
         <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="C28" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="D28" t="n">
-        <v>47045.6538970505</v>
+        <v>101559.375316351</v>
       </c>
       <c r="E28" t="n">
-        <v>47045.6538970505</v>
+        <v>101559.375316351</v>
       </c>
       <c r="F28" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="G28" t="n">
-        <v>47045.6538970505</v>
+        <v>101559.375316351</v>
       </c>
       <c r="H28" t="s">
         <v>157</v>
@@ -2995,25 +2992,25 @@
         <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="C29" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="D29" t="n">
-        <v>47865.1302773596</v>
+        <v>99241.3108636997</v>
       </c>
       <c r="E29" t="n">
-        <v>47865.1302773596</v>
+        <v>99241.3108636997</v>
       </c>
       <c r="F29" t="n">
-        <v>184933.628820909</v>
+        <v>422538.870972995</v>
       </c>
       <c r="G29" t="n">
-        <v>47865.1302773596</v>
+        <v>99241.3108636997</v>
       </c>
       <c r="H29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30">
@@ -3021,25 +3018,25 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="C30" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="D30" t="n">
-        <v>48282.098156</v>
+        <v>99839.556611621</v>
       </c>
       <c r="E30" t="n">
-        <v>48282.098156</v>
+        <v>99839.556611621</v>
       </c>
       <c r="F30" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="G30" t="n">
-        <v>48282.098156</v>
+        <v>99839.556611621</v>
       </c>
       <c r="H30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31">
@@ -3047,25 +3044,25 @@
         <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="C31" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="D31" t="n">
-        <v>48809.2436805427</v>
+        <v>99997.1527601916</v>
       </c>
       <c r="E31" t="n">
-        <v>48809.2436805427</v>
+        <v>99997.1527601916</v>
       </c>
       <c r="F31" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="G31" t="n">
-        <v>48809.2436805427</v>
+        <v>99997.1527601916</v>
       </c>
       <c r="H31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32">
@@ -3073,22 +3070,22 @@
         <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="C32" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="D32" t="n">
-        <v>49446.5668509876</v>
+        <v>99714.0993094116</v>
       </c>
       <c r="E32" t="n">
-        <v>49446.5668509876</v>
+        <v>99714.0993094116</v>
       </c>
       <c r="F32" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="G32" t="n">
-        <v>49446.5668509876</v>
+        <v>99714.0993094116</v>
       </c>
       <c r="H32" t="s">
         <v>158</v>
@@ -3099,25 +3096,25 @@
         <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="C33" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="D33" t="n">
-        <v>50194.0676673349</v>
+        <v>98990.396259281</v>
       </c>
       <c r="E33" t="n">
-        <v>50194.0676673349</v>
+        <v>98990.396259281</v>
       </c>
       <c r="F33" t="n">
-        <v>196731.976354865</v>
+        <v>398541.204940505</v>
       </c>
       <c r="G33" t="n">
-        <v>50194.0676673349</v>
+        <v>98990.396259281</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34">
@@ -3125,25 +3122,25 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232863</v>
       </c>
       <c r="C34" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232863</v>
       </c>
       <c r="D34" t="n">
-        <v>51051.7461295843</v>
+        <v>97826.0436097996</v>
       </c>
       <c r="E34" t="n">
-        <v>51051.7461295843</v>
+        <v>97826.0436097996</v>
       </c>
       <c r="F34" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232864</v>
       </c>
       <c r="G34" t="n">
-        <v>51051.7461295843</v>
+        <v>97826.0436097996</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -3151,25 +3148,25 @@
         <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232863</v>
       </c>
       <c r="C35" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232863</v>
       </c>
       <c r="D35" t="n">
-        <v>51645.2333431943</v>
+        <v>97149.9699293736</v>
       </c>
       <c r="E35" t="n">
-        <v>51645.2333431943</v>
+        <v>97149.9699293736</v>
       </c>
       <c r="F35" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232864</v>
       </c>
       <c r="G35" t="n">
-        <v>51645.2333431943</v>
+        <v>97149.9699293736</v>
       </c>
       <c r="H35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
@@ -3177,25 +3174,25 @@
         <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232863</v>
       </c>
       <c r="C36" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232863</v>
       </c>
       <c r="D36" t="n">
-        <v>51974.5293081647</v>
+        <v>96962.1752180029</v>
       </c>
       <c r="E36" t="n">
-        <v>51974.5293081647</v>
+        <v>96962.1752180029</v>
       </c>
       <c r="F36" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232864</v>
       </c>
       <c r="G36" t="n">
-        <v>51974.5293081647</v>
+        <v>96962.1752180029</v>
       </c>
       <c r="H36" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37">
@@ -3203,25 +3200,25 @@
         <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232863</v>
       </c>
       <c r="C37" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232863</v>
       </c>
       <c r="D37" t="n">
-        <v>52039.6340244956</v>
+        <v>97262.6594756875</v>
       </c>
       <c r="E37" t="n">
-        <v>52039.6340244956</v>
+        <v>97262.6594756875</v>
       </c>
       <c r="F37" t="n">
-        <v>206711.142805439</v>
+        <v>389200.848232864</v>
       </c>
       <c r="G37" t="n">
-        <v>52039.6340244956</v>
+        <v>97262.6594756875</v>
       </c>
       <c r="H37" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38">
@@ -3229,25 +3226,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="C38" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="D38" t="n">
-        <v>51840.5474921869</v>
+        <v>98051.4227024274</v>
       </c>
       <c r="E38" t="n">
-        <v>51840.5474921869</v>
+        <v>98051.4227024274</v>
       </c>
       <c r="F38" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="G38" t="n">
-        <v>51840.5474921869</v>
+        <v>98051.4227024274</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39">
@@ -3255,25 +3252,25 @@
         <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="C39" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="D39" t="n">
-        <v>52534.8031918318</v>
+        <v>98200.4060429715</v>
       </c>
       <c r="E39" t="n">
-        <v>52534.8031918318</v>
+        <v>98200.4060429715</v>
       </c>
       <c r="F39" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="G39" t="n">
-        <v>52534.8031918318</v>
+        <v>98200.4060429715</v>
       </c>
       <c r="H39" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40">
@@ -3281,25 +3278,25 @@
         <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="C40" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="D40" t="n">
-        <v>54122.4011234301</v>
+        <v>97709.6094973197</v>
       </c>
       <c r="E40" t="n">
-        <v>54122.4011234301</v>
+        <v>97709.6094973197</v>
       </c>
       <c r="F40" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="G40" t="n">
-        <v>54122.4011234301</v>
+        <v>97709.6094973197</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41">
@@ -3307,25 +3304,25 @@
         <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="C41" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="D41" t="n">
-        <v>56603.341286982</v>
+        <v>96579.0330654722</v>
       </c>
       <c r="E41" t="n">
-        <v>56603.341286982</v>
+        <v>96579.0330654722</v>
       </c>
       <c r="F41" t="n">
-        <v>215101.093094431</v>
+        <v>390540.471308191</v>
       </c>
       <c r="G41" t="n">
-        <v>56603.341286982</v>
+        <v>96579.0330654722</v>
       </c>
       <c r="H41" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42">
@@ -3333,25 +3330,25 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="C42" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="D42" t="n">
-        <v>59977.6236824873</v>
+        <v>94808.6767474289</v>
       </c>
       <c r="E42" t="n">
-        <v>59977.6236824873</v>
+        <v>94808.6767474289</v>
       </c>
       <c r="F42" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="G42" t="n">
-        <v>59977.6236824873</v>
+        <v>94808.6767474289</v>
       </c>
       <c r="H42" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43">
@@ -3359,25 +3356,25 @@
         <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="C43" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="D43" t="n">
-        <v>61806.3870223084</v>
+        <v>93294.4985679922</v>
       </c>
       <c r="E43" t="n">
-        <v>61806.3870223084</v>
+        <v>93294.4985679922</v>
       </c>
       <c r="F43" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="G43" t="n">
-        <v>61806.3870223084</v>
+        <v>93294.4985679922</v>
       </c>
       <c r="H43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
@@ -3385,25 +3382,25 @@
         <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="C44" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="D44" t="n">
-        <v>62089.6313064452</v>
+        <v>92036.4985271622</v>
       </c>
       <c r="E44" t="n">
-        <v>62089.6313064452</v>
+        <v>92036.4985271622</v>
       </c>
       <c r="F44" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="G44" t="n">
-        <v>62089.6313064452</v>
+        <v>92036.4985271622</v>
       </c>
       <c r="H44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45">
@@ -3411,25 +3408,25 @@
         <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="C45" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="D45" t="n">
-        <v>60827.3565348979</v>
+        <v>91034.6766249387</v>
       </c>
       <c r="E45" t="n">
-        <v>60827.3565348979</v>
+        <v>91034.6766249387</v>
       </c>
       <c r="F45" t="n">
-        <v>244700.998546139</v>
+        <v>371174.350467522</v>
       </c>
       <c r="G45" t="n">
-        <v>60827.3565348979</v>
+        <v>91034.6766249387</v>
       </c>
       <c r="H45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46">
@@ -3437,25 +3434,25 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="C46" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="D46" t="n">
-        <v>58019.5627076662</v>
+        <v>90289.0328613219</v>
       </c>
       <c r="E46" t="n">
-        <v>58019.5627076662</v>
+        <v>90289.0328613219</v>
       </c>
       <c r="F46" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="G46" t="n">
-        <v>58019.5627076662</v>
+        <v>90289.0328613219</v>
       </c>
       <c r="H46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47">
@@ -3463,25 +3460,25 @@
         <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="C47" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="D47" t="n">
-        <v>55933.3718390343</v>
+        <v>89806.5588398544</v>
       </c>
       <c r="E47" t="n">
-        <v>55933.3718390343</v>
+        <v>89806.5588398544</v>
       </c>
       <c r="F47" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="G47" t="n">
-        <v>55933.3718390343</v>
+        <v>89806.5588398544</v>
       </c>
       <c r="H47" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48">
@@ -3489,25 +3486,25 @@
         <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="C48" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="D48" t="n">
-        <v>54568.783929002</v>
+        <v>89587.2545605363</v>
       </c>
       <c r="E48" t="n">
-        <v>54568.783929002</v>
+        <v>89587.2545605363</v>
       </c>
       <c r="F48" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="G48" t="n">
-        <v>54568.783929002</v>
+        <v>89587.2545605363</v>
       </c>
       <c r="H48" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49">
@@ -3515,25 +3512,25 @@
         <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="C49" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="D49" t="n">
-        <v>53925.7989775694</v>
+        <v>89631.1200233675</v>
       </c>
       <c r="E49" t="n">
-        <v>53925.7989775694</v>
+        <v>89631.1200233675</v>
       </c>
       <c r="F49" t="n">
-        <v>222447.517453272</v>
+        <v>359313.96628508</v>
       </c>
       <c r="G49" t="n">
-        <v>53925.7989775694</v>
+        <v>89631.1200233675</v>
       </c>
       <c r="H49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50">
@@ -3541,22 +3538,22 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208768</v>
       </c>
       <c r="C50" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208768</v>
       </c>
       <c r="D50" t="n">
-        <v>54004.4169847365</v>
+        <v>89938.1552283481</v>
       </c>
       <c r="E50" t="n">
-        <v>54004.4169847365</v>
+        <v>89938.1552283481</v>
       </c>
       <c r="F50" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208769</v>
       </c>
       <c r="G50" t="n">
-        <v>54004.4169847365</v>
+        <v>89938.1552283481</v>
       </c>
       <c r="H50" t="s">
         <v>155</v>
@@ -3567,22 +3564,22 @@
         <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208768</v>
       </c>
       <c r="C51" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208768</v>
       </c>
       <c r="D51" t="n">
-        <v>54575.6689136063</v>
+        <v>90203.696339878</v>
       </c>
       <c r="E51" t="n">
-        <v>54575.6689136063</v>
+        <v>90203.696339878</v>
       </c>
       <c r="F51" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208769</v>
       </c>
       <c r="G51" t="n">
-        <v>54575.6689136063</v>
+        <v>90203.696339878</v>
       </c>
       <c r="H51" t="s">
         <v>156</v>
@@ -3593,22 +3590,22 @@
         <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208768</v>
       </c>
       <c r="C52" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208768</v>
       </c>
       <c r="D52" t="n">
-        <v>55639.5547641786</v>
+        <v>90427.7433579571</v>
       </c>
       <c r="E52" t="n">
-        <v>55639.5547641786</v>
+        <v>90427.7433579571</v>
       </c>
       <c r="F52" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208769</v>
       </c>
       <c r="G52" t="n">
-        <v>55639.5547641786</v>
+        <v>90427.7433579571</v>
       </c>
       <c r="H52" t="s">
         <v>157</v>
@@ -3619,25 +3616,25 @@
         <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208768</v>
       </c>
       <c r="C53" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208768</v>
       </c>
       <c r="D53" t="n">
-        <v>57196.0745364535</v>
+        <v>90610.2962825856</v>
       </c>
       <c r="E53" t="n">
-        <v>57196.0745364535</v>
+        <v>90610.2962825856</v>
       </c>
       <c r="F53" t="n">
-        <v>221415.715198975</v>
+        <v>361179.891208769</v>
       </c>
       <c r="G53" t="n">
-        <v>57196.0745364535</v>
+        <v>90610.2962825856</v>
       </c>
       <c r="H53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54">
@@ -3645,25 +3642,25 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="C54" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="D54" t="n">
-        <v>59245.2282304311</v>
+        <v>90751.3551137633</v>
       </c>
       <c r="E54" t="n">
-        <v>59245.2282304311</v>
+        <v>90751.3551137633</v>
       </c>
       <c r="F54" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="G54" t="n">
-        <v>59245.2282304311</v>
+        <v>90751.3551137633</v>
       </c>
       <c r="H54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55">
@@ -3671,25 +3668,25 @@
         <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="C55" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="D55" t="n">
-        <v>58912.0057601347</v>
+        <v>90238.0371920501</v>
       </c>
       <c r="E55" t="n">
-        <v>58912.0057601347</v>
+        <v>90238.0371920501</v>
       </c>
       <c r="F55" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="G55" t="n">
-        <v>58912.0057601347</v>
+        <v>90238.0371920501</v>
       </c>
       <c r="H55" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56">
@@ -3697,22 +3694,22 @@
         <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="C56" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="D56" t="n">
-        <v>56196.4071255644</v>
+        <v>89070.342517446</v>
       </c>
       <c r="E56" t="n">
-        <v>56196.4071255644</v>
+        <v>89070.342517446</v>
       </c>
       <c r="F56" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="G56" t="n">
-        <v>56196.4071255644</v>
+        <v>89070.342517446</v>
       </c>
       <c r="H56" t="s">
         <v>158</v>
@@ -3723,25 +3720,25 @@
         <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="C57" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="D57" t="n">
-        <v>51098.4323267201</v>
+        <v>87248.2710899509</v>
       </c>
       <c r="E57" t="n">
-        <v>51098.4323267201</v>
+        <v>87248.2710899509</v>
       </c>
       <c r="F57" t="n">
-        <v>225452.07344285</v>
+        <v>357308.00591321</v>
       </c>
       <c r="G57" t="n">
-        <v>51098.4323267201</v>
+        <v>87248.2710899509</v>
       </c>
       <c r="H57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58">
@@ -3749,25 +3746,25 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000336</v>
       </c>
       <c r="C58" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000336</v>
       </c>
       <c r="D58" t="n">
-        <v>43618.0813636019</v>
+        <v>84771.822909565</v>
       </c>
       <c r="E58" t="n">
-        <v>43618.0813636019</v>
+        <v>84771.822909565</v>
       </c>
       <c r="F58" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000337</v>
       </c>
       <c r="G58" t="n">
-        <v>43618.0813636019</v>
+        <v>84771.822909565</v>
       </c>
       <c r="H58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59">
@@ -3775,25 +3772,25 @@
         <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000336</v>
       </c>
       <c r="C59" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000336</v>
       </c>
       <c r="D59" t="n">
-        <v>38203.8302780473</v>
+        <v>83194.7912736182</v>
       </c>
       <c r="E59" t="n">
-        <v>38203.8302780473</v>
+        <v>83194.7912736182</v>
       </c>
       <c r="F59" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000337</v>
       </c>
       <c r="G59" t="n">
-        <v>38203.8302780473</v>
+        <v>83194.7912736182</v>
       </c>
       <c r="H59" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60">
@@ -3801,25 +3798,25 @@
         <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000336</v>
       </c>
       <c r="C60" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000336</v>
       </c>
       <c r="D60" t="n">
-        <v>34855.6790700564</v>
+        <v>82517.1761821108</v>
       </c>
       <c r="E60" t="n">
-        <v>34855.6790700564</v>
+        <v>82517.1761821108</v>
       </c>
       <c r="F60" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000337</v>
       </c>
       <c r="G60" t="n">
-        <v>34855.6790700564</v>
+        <v>82517.1761821108</v>
       </c>
       <c r="H60" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61">
@@ -3827,25 +3824,25 @@
         <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000336</v>
       </c>
       <c r="C61" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000336</v>
       </c>
       <c r="D61" t="n">
-        <v>33573.6277396291</v>
+        <v>82738.9776350426</v>
       </c>
       <c r="E61" t="n">
-        <v>33573.6277396291</v>
+        <v>82738.9776350426</v>
       </c>
       <c r="F61" t="n">
-        <v>150251.218451335</v>
+        <v>333222.768000337</v>
       </c>
       <c r="G61" t="n">
-        <v>33573.6277396291</v>
+        <v>82738.9776350426</v>
       </c>
       <c r="H61" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62">
@@ -3853,25 +3850,25 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753935</v>
       </c>
       <c r="C62" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753935</v>
       </c>
       <c r="D62" t="n">
-        <v>34357.6762867654</v>
+        <v>83860.1956324137</v>
       </c>
       <c r="E62" t="n">
-        <v>34357.6762867654</v>
+        <v>83860.1956324137</v>
       </c>
       <c r="F62" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753936</v>
       </c>
       <c r="G62" t="n">
-        <v>34357.6762867654</v>
+        <v>83860.1956324137</v>
       </c>
       <c r="H62" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63">
@@ -3879,25 +3876,25 @@
         <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753935</v>
       </c>
       <c r="C63" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753935</v>
       </c>
       <c r="D63" t="n">
-        <v>35090.8820651024</v>
+        <v>84741.3525537902</v>
       </c>
       <c r="E63" t="n">
-        <v>35090.8820651024</v>
+        <v>84741.3525537902</v>
       </c>
       <c r="F63" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753936</v>
       </c>
       <c r="G63" t="n">
-        <v>35090.8820651024</v>
+        <v>84741.3525537902</v>
       </c>
       <c r="H63" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64">
@@ -3905,25 +3902,25 @@
         <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753935</v>
       </c>
       <c r="C64" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753935</v>
       </c>
       <c r="D64" t="n">
-        <v>35773.24507464</v>
+        <v>85382.4483991721</v>
       </c>
       <c r="E64" t="n">
-        <v>35773.24507464</v>
+        <v>85382.4483991721</v>
       </c>
       <c r="F64" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753936</v>
       </c>
       <c r="G64" t="n">
-        <v>35773.24507464</v>
+        <v>85382.4483991721</v>
       </c>
       <c r="H64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65">
@@ -3931,25 +3928,25 @@
         <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753935</v>
       </c>
       <c r="C65" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753935</v>
       </c>
       <c r="D65" t="n">
-        <v>36404.7653153784</v>
+        <v>85783.4831685595</v>
       </c>
       <c r="E65" t="n">
-        <v>36404.7653153784</v>
+        <v>85783.4831685595</v>
       </c>
       <c r="F65" t="n">
-        <v>141626.568741886</v>
+        <v>339767.479753936</v>
       </c>
       <c r="G65" t="n">
-        <v>36404.7653153784</v>
+        <v>85783.4831685595</v>
       </c>
       <c r="H65" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66">
@@ -3957,25 +3954,25 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="C66" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="D66" t="n">
-        <v>36985.4427873174</v>
+        <v>85944.4568619522</v>
       </c>
       <c r="E66" t="n">
-        <v>36985.4427873174</v>
+        <v>85944.4568619522</v>
       </c>
       <c r="F66" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="G66" t="n">
-        <v>36985.4427873174</v>
+        <v>85944.4568619522</v>
       </c>
       <c r="H66" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67">
@@ -3983,25 +3980,25 @@
         <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="C67" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="D67" t="n">
-        <v>37319.2536068647</v>
+        <v>87036.1652846053</v>
       </c>
       <c r="E67" t="n">
-        <v>37319.2536068647</v>
+        <v>87036.1652846053</v>
       </c>
       <c r="F67" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="G67" t="n">
-        <v>37319.2536068647</v>
+        <v>87036.1652846053</v>
       </c>
       <c r="H67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68">
@@ -4009,25 +4006,25 @@
         <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="C68" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="D68" t="n">
-        <v>37406.1977740202</v>
+        <v>89058.6084365188</v>
       </c>
       <c r="E68" t="n">
-        <v>37406.1977740202</v>
+        <v>89058.6084365188</v>
       </c>
       <c r="F68" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="G68" t="n">
-        <v>37406.1977740202</v>
+        <v>89058.6084365188</v>
       </c>
       <c r="H68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69">
@@ -4035,25 +4032,25 @@
         <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="C69" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="D69" t="n">
-        <v>37246.275288784</v>
+        <v>92011.7863176926</v>
       </c>
       <c r="E69" t="n">
-        <v>37246.275288784</v>
+        <v>92011.7863176926</v>
       </c>
       <c r="F69" t="n">
-        <v>148957.169456986</v>
+        <v>354051.016900769</v>
       </c>
       <c r="G69" t="n">
-        <v>37246.275288784</v>
+        <v>92011.7863176926</v>
       </c>
       <c r="H69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70">
@@ -4061,25 +4058,25 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155484</v>
       </c>
       <c r="C70" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155484</v>
       </c>
       <c r="D70" t="n">
-        <v>36839.4861511561</v>
+        <v>95895.6989281267</v>
       </c>
       <c r="E70" t="n">
-        <v>36839.4861511561</v>
+        <v>95895.6989281267</v>
       </c>
       <c r="F70" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155485</v>
       </c>
       <c r="G70" t="n">
-        <v>36839.4861511561</v>
+        <v>95895.6989281267</v>
       </c>
       <c r="H70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71">
@@ -4087,25 +4084,25 @@
         <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155484</v>
       </c>
       <c r="C71" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155484</v>
       </c>
       <c r="D71" t="n">
-        <v>36923.4043514015</v>
+        <v>96327.9144165981</v>
       </c>
       <c r="E71" t="n">
-        <v>36923.4043514015</v>
+        <v>96327.9144165981</v>
       </c>
       <c r="F71" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155485</v>
       </c>
       <c r="G71" t="n">
-        <v>36923.4043514015</v>
+        <v>96327.9144165981</v>
       </c>
       <c r="H71" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72">
@@ -4113,25 +4110,25 @@
         <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155484</v>
       </c>
       <c r="C72" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155484</v>
       </c>
       <c r="D72" t="n">
-        <v>37498.0298895202</v>
+        <v>93308.4327831069</v>
       </c>
       <c r="E72" t="n">
-        <v>37498.0298895202</v>
+        <v>93308.4327831069</v>
       </c>
       <c r="F72" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155485</v>
       </c>
       <c r="G72" t="n">
-        <v>37498.0298895202</v>
+        <v>93308.4327831069</v>
       </c>
       <c r="H72" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73">
@@ -4139,25 +4136,25 @@
         <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155484</v>
       </c>
       <c r="C73" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155484</v>
       </c>
       <c r="D73" t="n">
-        <v>38563.3627655123</v>
+        <v>86837.2540276528</v>
       </c>
       <c r="E73" t="n">
-        <v>38563.3627655123</v>
+        <v>86837.2540276528</v>
       </c>
       <c r="F73" t="n">
-        <v>149824.28315759</v>
+        <v>372369.300155485</v>
       </c>
       <c r="G73" t="n">
-        <v>38563.3627655123</v>
+        <v>86837.2540276528</v>
       </c>
       <c r="H73" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
@@ -4165,22 +4162,22 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="C74" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="D74" t="n">
-        <v>40119.4029793776</v>
+        <v>76914.3781502361</v>
       </c>
       <c r="E74" t="n">
-        <v>40119.4029793776</v>
+        <v>76914.3781502361</v>
       </c>
       <c r="F74" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="G74" t="n">
-        <v>40119.4029793776</v>
+        <v>76914.3781502361</v>
       </c>
       <c r="H74" t="s">
         <v>155</v>
@@ -4191,22 +4188,22 @@
         <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="C75" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="D75" t="n">
-        <v>41193.5578731727</v>
+        <v>69998.276539175</v>
       </c>
       <c r="E75" t="n">
-        <v>41193.5578731727</v>
+        <v>69998.276539175</v>
       </c>
       <c r="F75" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="G75" t="n">
-        <v>41193.5578731727</v>
+        <v>69998.276539175</v>
       </c>
       <c r="H75" t="s">
         <v>156</v>
@@ -4217,22 +4214,22 @@
         <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="C76" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="D76" t="n">
-        <v>41785.8274468975</v>
+        <v>66088.9491944695</v>
       </c>
       <c r="E76" t="n">
-        <v>41785.8274468975</v>
+        <v>66088.9491944695</v>
       </c>
       <c r="F76" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="G76" t="n">
-        <v>41785.8274468975</v>
+        <v>66088.9491944695</v>
       </c>
       <c r="H76" t="s">
         <v>157</v>
@@ -4243,25 +4240,25 @@
         <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="C77" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="D77" t="n">
-        <v>41896.2117005519</v>
+        <v>65186.3961161196</v>
       </c>
       <c r="E77" t="n">
-        <v>41896.2117005519</v>
+        <v>65186.3961161196</v>
       </c>
       <c r="F77" t="n">
-        <v>164995</v>
+        <v>278188</v>
       </c>
       <c r="G77" t="n">
-        <v>41896.2117005519</v>
+        <v>65186.3961161196</v>
       </c>
       <c r="H77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78">
@@ -4269,25 +4266,25 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="C78" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="D78" t="n">
-        <v>41524.7106341361</v>
+        <v>67290.6173041254</v>
       </c>
       <c r="E78" t="n">
-        <v>41524.7106341361</v>
+        <v>67290.6173041254</v>
       </c>
       <c r="F78" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="G78" t="n">
-        <v>41524.7106341361</v>
+        <v>67290.6173041254</v>
       </c>
       <c r="H78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79">
@@ -4295,25 +4292,25 @@
         <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="C79" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="D79" t="n">
-        <v>41565.3259539153</v>
+        <v>69948.1588576775</v>
       </c>
       <c r="E79" t="n">
-        <v>41565.3259539153</v>
+        <v>69948.1588576775</v>
       </c>
       <c r="F79" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="G79" t="n">
-        <v>41565.3259539153</v>
+        <v>69948.1588576775</v>
       </c>
       <c r="H79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80">
@@ -4321,22 +4318,22 @@
         <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="C80" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="D80" t="n">
-        <v>42018.0576598896</v>
+        <v>73159.0207767761</v>
       </c>
       <c r="E80" t="n">
-        <v>42018.0576598896</v>
+        <v>73159.0207767761</v>
       </c>
       <c r="F80" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="G80" t="n">
-        <v>42018.0576598896</v>
+        <v>73159.0207767761</v>
       </c>
       <c r="H80" t="s">
         <v>158</v>
@@ -4347,25 +4344,25 @@
         <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="C81" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="D81" t="n">
-        <v>42882.9057520589</v>
+        <v>76923.2030614211</v>
       </c>
       <c r="E81" t="n">
-        <v>42882.9057520589</v>
+        <v>76923.2030614211</v>
       </c>
       <c r="F81" t="n">
-        <v>167991</v>
+        <v>287321</v>
       </c>
       <c r="G81" t="n">
-        <v>42882.9057520589</v>
+        <v>76923.2030614211</v>
       </c>
       <c r="H81" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82">
@@ -4373,25 +4370,25 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237463</v>
       </c>
       <c r="C82" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237463</v>
       </c>
       <c r="D82" t="n">
-        <v>44159.8702304234</v>
+        <v>81240.7057116126</v>
       </c>
       <c r="E82" t="n">
-        <v>44159.8702304234</v>
+        <v>81240.7057116126</v>
       </c>
       <c r="F82" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237464</v>
       </c>
       <c r="G82" t="n">
-        <v>44159.8702304234</v>
+        <v>81240.7057116126</v>
       </c>
       <c r="H82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83">
@@ -4399,25 +4396,25 @@
         <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237463</v>
       </c>
       <c r="C83" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237463</v>
       </c>
       <c r="D83" t="n">
-        <v>44995.848529149</v>
+        <v>83469.5549107905</v>
       </c>
       <c r="E83" t="n">
-        <v>44995.848529149</v>
+        <v>83469.5549107905</v>
       </c>
       <c r="F83" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237464</v>
       </c>
       <c r="G83" t="n">
-        <v>44995.848529149</v>
+        <v>83469.5549107905</v>
       </c>
       <c r="H83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84">
@@ -4425,25 +4422,25 @@
         <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237463</v>
       </c>
       <c r="C84" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237463</v>
       </c>
       <c r="D84" t="n">
-        <v>45390.8406482358</v>
+        <v>83609.7506589548</v>
       </c>
       <c r="E84" t="n">
-        <v>45390.8406482358</v>
+        <v>83609.7506589548</v>
       </c>
       <c r="F84" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237464</v>
       </c>
       <c r="G84" t="n">
-        <v>45390.8406482358</v>
+        <v>83609.7506589548</v>
       </c>
       <c r="H84" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85">
@@ -4451,25 +4448,25 @@
         <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237463</v>
       </c>
       <c r="C85" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237463</v>
       </c>
       <c r="D85" t="n">
-        <v>45344.8465876838</v>
+        <v>81661.2929561057</v>
       </c>
       <c r="E85" t="n">
-        <v>45344.8465876838</v>
+        <v>81661.2929561057</v>
       </c>
       <c r="F85" t="n">
-        <v>179891.405995492</v>
+        <v>329981.304237464</v>
       </c>
       <c r="G85" t="n">
-        <v>45344.8465876838</v>
+        <v>81661.2929561057</v>
       </c>
       <c r="H85" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86">
@@ -4477,25 +4474,25 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>185438.089103902</v>
+        <v>304042.666641919</v>
       </c>
       <c r="C86" t="n">
-        <v>185438.089103902</v>
+        <v>304042.666641919</v>
       </c>
       <c r="D86" t="n">
-        <v>44857.8663474929</v>
+        <v>77624.181802243</v>
       </c>
       <c r="E86" t="n">
-        <v>44857.8663474929</v>
+        <v>77624.181802243</v>
       </c>
       <c r="F86" t="n">
-        <v>185438.089103901</v>
+        <v>304042.666641919</v>
       </c>
       <c r="G86" t="n">
-        <v>44857.8663474929</v>
+        <v>77624.181802243</v>
       </c>
       <c r="H86" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87">
@@ -4503,25 +4500,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>185438.089103902</v>
+        <v>304042.666641919</v>
       </c>
       <c r="C87" t="n">
-        <v>185438.089103902</v>
+        <v>304042.666641919</v>
       </c>
       <c r="D87" t="n">
-        <v>45263.7366228095</v>
+        <v>75363.9312839926</v>
       </c>
       <c r="E87" t="n">
-        <v>45263.7366228095</v>
+        <v>75363.9312839926</v>
       </c>
       <c r="F87" t="n">
-        <v>185438.089103901</v>
+        <v>304042.666641919</v>
       </c>
       <c r="G87" t="n">
-        <v>45263.7366228095</v>
+        <v>75363.9312839926</v>
       </c>
       <c r="H87" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88">
@@ -4529,25 +4526,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>185438.089103902</v>
+        <v>304042.666641919</v>
       </c>
       <c r="C88" t="n">
-        <v>185438.089103902</v>
+        <v>304042.666641919</v>
       </c>
       <c r="D88" t="n">
-        <v>46562.4574136337</v>
+        <v>74880.5414013546</v>
       </c>
       <c r="E88" t="n">
-        <v>46562.4574136337</v>
+        <v>74880.5414013546</v>
       </c>
       <c r="F88" t="n">
-        <v>185438.089103901</v>
+        <v>304042.666641919</v>
       </c>
       <c r="G88" t="n">
-        <v>46562.4574136337</v>
+        <v>74880.5414013546</v>
       </c>
       <c r="H88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89">
@@ -4555,25 +4552,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>185438.089103902</v>
+        <v>304042.666641919</v>
       </c>
       <c r="C89" t="n">
-        <v>185438.089103902</v>
+        <v>304042.666641919</v>
       </c>
       <c r="D89" t="n">
-        <v>48754.0287199654</v>
+        <v>76174.012154329</v>
       </c>
       <c r="E89" t="n">
-        <v>48754.0287199654</v>
+        <v>76174.012154329</v>
       </c>
       <c r="F89" t="n">
-        <v>185438.089103901</v>
+        <v>304042.666641919</v>
       </c>
       <c r="G89" t="n">
-        <v>48754.0287199654</v>
+        <v>76174.012154329</v>
       </c>
       <c r="H89" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90">
@@ -4581,25 +4578,25 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>211587.949119442</v>
+        <v>325830.922596112</v>
       </c>
       <c r="C90" t="n">
-        <v>211587.949119442</v>
+        <v>325830.922596112</v>
       </c>
       <c r="D90" t="n">
-        <v>51838.4505418046</v>
+        <v>79244.3435429157</v>
       </c>
       <c r="E90" t="n">
-        <v>51838.4505418046</v>
+        <v>79244.3435429157</v>
       </c>
       <c r="F90" t="n">
-        <v>211587.949119441</v>
+        <v>325830.922596112</v>
       </c>
       <c r="G90" t="n">
-        <v>51838.4505418046</v>
+        <v>79244.3435429157</v>
       </c>
       <c r="H90" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91">
@@ -4607,25 +4604,25 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>211587.949119442</v>
+        <v>325830.922596112</v>
       </c>
       <c r="C91" t="n">
-        <v>211587.949119442</v>
+        <v>325830.922596112</v>
       </c>
       <c r="D91" t="n">
-        <v>53495.6339657626</v>
+        <v>81357.8309407953</v>
       </c>
       <c r="E91" t="n">
-        <v>53495.6339657626</v>
+        <v>81357.8309407953</v>
       </c>
       <c r="F91" t="n">
-        <v>211587.949119441</v>
+        <v>325830.922596112</v>
       </c>
       <c r="G91" t="n">
-        <v>53495.6339657626</v>
+        <v>81357.8309407953</v>
       </c>
       <c r="H91" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92">
@@ -4633,25 +4630,25 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>211587.949119442</v>
+        <v>325830.922596112</v>
       </c>
       <c r="C92" t="n">
-        <v>211587.949119442</v>
+        <v>325830.922596112</v>
       </c>
       <c r="D92" t="n">
-        <v>53725.5789918394</v>
+        <v>82514.4743479678</v>
       </c>
       <c r="E92" t="n">
-        <v>53725.5789918394</v>
+        <v>82514.4743479678</v>
       </c>
       <c r="F92" t="n">
-        <v>211587.949119441</v>
+        <v>325830.922596112</v>
       </c>
       <c r="G92" t="n">
-        <v>53725.5789918394</v>
+        <v>82514.4743479678</v>
       </c>
       <c r="H92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93">
@@ -4659,25 +4656,25 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>211587.949119442</v>
+        <v>325830.922596112</v>
       </c>
       <c r="C93" t="n">
-        <v>211587.949119442</v>
+        <v>325830.922596112</v>
       </c>
       <c r="D93" t="n">
-        <v>52528.2856200349</v>
+        <v>82714.2737644332</v>
       </c>
       <c r="E93" t="n">
-        <v>52528.2856200349</v>
+        <v>82714.2737644332</v>
       </c>
       <c r="F93" t="n">
-        <v>211587.949119441</v>
+        <v>325830.922596112</v>
       </c>
       <c r="G93" t="n">
-        <v>52528.2856200349</v>
+        <v>82714.2737644332</v>
       </c>
       <c r="H93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94">
@@ -4685,25 +4682,25 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>190429.154207498</v>
+        <v>325179.26075092</v>
       </c>
       <c r="C94" t="n">
-        <v>190429.154207498</v>
+        <v>325179.26075092</v>
       </c>
       <c r="D94" t="n">
-        <v>49903.7538503493</v>
+        <v>81957.2291901916</v>
       </c>
       <c r="E94" t="n">
-        <v>49903.7538503493</v>
+        <v>81957.2291901916</v>
       </c>
       <c r="F94" t="n">
-        <v>190429.154207497</v>
+        <v>325179.26075092</v>
       </c>
       <c r="G94" t="n">
-        <v>49903.7538503493</v>
+        <v>81957.2291901916</v>
       </c>
       <c r="H94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95">
@@ -4711,25 +4708,25 @@
         <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>190429.154207498</v>
+        <v>325179.26075092</v>
       </c>
       <c r="C95" t="n">
-        <v>190429.154207498</v>
+        <v>325179.26075092</v>
       </c>
       <c r="D95" t="n">
-        <v>47935.355023085</v>
+        <v>81389.4457595103</v>
       </c>
       <c r="E95" t="n">
-        <v>47935.355023085</v>
+        <v>81389.4457595103</v>
       </c>
       <c r="F95" t="n">
-        <v>190429.154207497</v>
+        <v>325179.26075092</v>
       </c>
       <c r="G95" t="n">
-        <v>47935.355023085</v>
+        <v>81389.4457595103</v>
       </c>
       <c r="H95" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
@@ -4737,25 +4734,25 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>190429.154207498</v>
+        <v>325179.26075092</v>
       </c>
       <c r="C96" t="n">
-        <v>190429.154207498</v>
+        <v>325179.26075092</v>
       </c>
       <c r="D96" t="n">
-        <v>46623.0891382422</v>
+        <v>81010.9234723895</v>
       </c>
       <c r="E96" t="n">
-        <v>46623.0891382422</v>
+        <v>81010.9234723895</v>
       </c>
       <c r="F96" t="n">
-        <v>190429.154207497</v>
+        <v>325179.26075092</v>
       </c>
       <c r="G96" t="n">
-        <v>46623.0891382422</v>
+        <v>81010.9234723895</v>
       </c>
       <c r="H96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
@@ -4763,25 +4760,25 @@
         <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>190429.154207498</v>
+        <v>325179.26075092</v>
       </c>
       <c r="C97" t="n">
-        <v>190429.154207498</v>
+        <v>325179.26075092</v>
       </c>
       <c r="D97" t="n">
-        <v>45966.9561958208</v>
+        <v>80821.662328829</v>
       </c>
       <c r="E97" t="n">
-        <v>45966.9561958208</v>
+        <v>80821.662328829</v>
       </c>
       <c r="F97" t="n">
-        <v>190429.154207497</v>
+        <v>325179.26075092</v>
       </c>
       <c r="G97" t="n">
-        <v>45966.9561958208</v>
+        <v>80821.662328829</v>
       </c>
       <c r="H97" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4811,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>45198.5804189327</v>
+        <v>98145.6928822036</v>
       </c>
     </row>
     <row r="3">
@@ -4819,7 +4816,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>45885.53580657</v>
+        <v>98400.5117931836</v>
       </c>
     </row>
     <row r="4">
@@ -4827,7 +4824,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>47259.4465818447</v>
+        <v>98910.1496151438</v>
       </c>
     </row>
     <row r="5">
@@ -4835,7 +4832,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>49320.3127447567</v>
+        <v>99674.606348084</v>
       </c>
     </row>
     <row r="6">
@@ -4843,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>52068.1342953061</v>
+        <v>100693.881992004</v>
       </c>
     </row>
     <row r="7">
@@ -4851,7 +4848,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>53661.1000750963</v>
+        <v>102470.334617543</v>
       </c>
     </row>
     <row r="8">
@@ -4859,7 +4856,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>54099.2100841275</v>
+        <v>105003.964224699</v>
       </c>
     </row>
     <row r="9">
@@ -4867,7 +4864,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>53382.4643223996</v>
+        <v>108294.770813473</v>
       </c>
     </row>
     <row r="10">
@@ -4875,7 +4872,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>51510.8627899126</v>
+        <v>112342.754383865</v>
       </c>
     </row>
     <row r="11">
@@ -4883,7 +4880,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>49789.3979520077</v>
+        <v>115275.305086806</v>
       </c>
     </row>
     <row r="12">
@@ -4891,7 +4888,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="n">
-        <v>48218.0698086849</v>
+        <v>117092.422922295</v>
       </c>
     </row>
     <row r="13">
@@ -4899,7 +4896,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>46796.8783599443</v>
+        <v>117794.107890333</v>
       </c>
     </row>
     <row r="14">
@@ -4907,7 +4904,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>45525.8236057858</v>
+        <v>117380.359990919</v>
       </c>
     </row>
     <row r="15">
@@ -4915,7 +4912,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>45068.5874917475</v>
+        <v>117384.915832139</v>
       </c>
     </row>
     <row r="16">
@@ -4923,7 +4920,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="n">
-        <v>45425.1700178292</v>
+        <v>117807.775413993</v>
       </c>
     </row>
     <row r="17">
@@ -4931,7 +4928,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>46595.571184031</v>
+        <v>118648.938736482</v>
       </c>
     </row>
     <row r="18">
@@ -4939,7 +4936,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>48579.790990353</v>
+        <v>119908.405799604</v>
       </c>
     </row>
     <row r="19">
@@ -4947,7 +4944,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>49291.4277337384</v>
+        <v>122153.900851008</v>
       </c>
     </row>
     <row r="20">
@@ -4955,7 +4952,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>48730.4814141871</v>
+        <v>125385.423890695</v>
       </c>
     </row>
     <row r="21">
@@ -4963,7 +4960,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>46896.9520316994</v>
+        <v>129602.974918664</v>
       </c>
     </row>
     <row r="22">
@@ -4971,7 +4968,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>43790.839586275</v>
+        <v>134806.553934915</v>
       </c>
     </row>
     <row r="23">
@@ -4979,7 +4976,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>41968.0057235355</v>
+        <v>135942.489433511</v>
       </c>
     </row>
     <row r="24">
@@ -4987,7 +4984,7 @@
         <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>41428.4504434809</v>
+        <v>133010.781414452</v>
       </c>
     </row>
     <row r="25">
@@ -4995,7 +4992,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>42172.1737461112</v>
+        <v>126011.429877738</v>
       </c>
     </row>
     <row r="26">
@@ -5003,7 +5000,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>44199.1756314263</v>
+        <v>114944.43482337</v>
       </c>
     </row>
     <row r="27">
@@ -5011,7 +5008,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>45823.6690150728</v>
+        <v>106793.749969574</v>
       </c>
     </row>
     <row r="28">
@@ -5019,7 +5016,7 @@
         <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>47045.6538970505</v>
+        <v>101559.375316351</v>
       </c>
     </row>
     <row r="29">
@@ -5027,7 +5024,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>47865.1302773596</v>
+        <v>99241.3108636997</v>
       </c>
     </row>
     <row r="30">
@@ -5035,7 +5032,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>48282.098156</v>
+        <v>99839.556611621</v>
       </c>
     </row>
     <row r="31">
@@ -5043,7 +5040,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>48809.2436805427</v>
+        <v>99997.1527601916</v>
       </c>
     </row>
     <row r="32">
@@ -5051,7 +5048,7 @@
         <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>49446.5668509876</v>
+        <v>99714.0993094116</v>
       </c>
     </row>
     <row r="33">
@@ -5059,7 +5056,7 @@
         <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>50194.0676673349</v>
+        <v>98990.396259281</v>
       </c>
     </row>
     <row r="34">
@@ -5067,7 +5064,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>51051.7461295843</v>
+        <v>97826.0436097996</v>
       </c>
     </row>
     <row r="35">
@@ -5075,7 +5072,7 @@
         <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>51645.2333431943</v>
+        <v>97149.9699293736</v>
       </c>
     </row>
     <row r="36">
@@ -5083,7 +5080,7 @@
         <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>51974.5293081647</v>
+        <v>96962.1752180029</v>
       </c>
     </row>
     <row r="37">
@@ -5091,7 +5088,7 @@
         <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>52039.6340244956</v>
+        <v>97262.6594756875</v>
       </c>
     </row>
     <row r="38">
@@ -5099,7 +5096,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>51840.5474921869</v>
+        <v>98051.4227024274</v>
       </c>
     </row>
     <row r="39">
@@ -5107,7 +5104,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>52534.8031918318</v>
+        <v>98200.4060429715</v>
       </c>
     </row>
     <row r="40">
@@ -5115,7 +5112,7 @@
         <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>54122.4011234301</v>
+        <v>97709.6094973197</v>
       </c>
     </row>
     <row r="41">
@@ -5123,7 +5120,7 @@
         <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>56603.341286982</v>
+        <v>96579.0330654722</v>
       </c>
     </row>
     <row r="42">
@@ -5131,7 +5128,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>59977.6236824873</v>
+        <v>94808.6767474289</v>
       </c>
     </row>
     <row r="43">
@@ -5139,7 +5136,7 @@
         <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>61806.3870223084</v>
+        <v>93294.4985679922</v>
       </c>
     </row>
     <row r="44">
@@ -5147,7 +5144,7 @@
         <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>62089.6313064452</v>
+        <v>92036.4985271622</v>
       </c>
     </row>
     <row r="45">
@@ -5155,7 +5152,7 @@
         <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>60827.3565348979</v>
+        <v>91034.6766249387</v>
       </c>
     </row>
     <row r="46">
@@ -5163,7 +5160,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>58019.5627076662</v>
+        <v>90289.0328613219</v>
       </c>
     </row>
     <row r="47">
@@ -5171,7 +5168,7 @@
         <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>55933.3718390343</v>
+        <v>89806.5588398544</v>
       </c>
     </row>
     <row r="48">
@@ -5179,7 +5176,7 @@
         <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>54568.783929002</v>
+        <v>89587.2545605363</v>
       </c>
     </row>
     <row r="49">
@@ -5187,7 +5184,7 @@
         <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>53925.7989775694</v>
+        <v>89631.1200233675</v>
       </c>
     </row>
     <row r="50">
@@ -5195,7 +5192,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>54004.4169847365</v>
+        <v>89938.1552283481</v>
       </c>
     </row>
     <row r="51">
@@ -5203,7 +5200,7 @@
         <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>54575.6689136063</v>
+        <v>90203.696339878</v>
       </c>
     </row>
     <row r="52">
@@ -5211,7 +5208,7 @@
         <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>55639.5547641786</v>
+        <v>90427.7433579571</v>
       </c>
     </row>
     <row r="53">
@@ -5219,7 +5216,7 @@
         <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>57196.0745364535</v>
+        <v>90610.2962825856</v>
       </c>
     </row>
     <row r="54">
@@ -5227,7 +5224,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>59245.2282304311</v>
+        <v>90751.3551137633</v>
       </c>
     </row>
     <row r="55">
@@ -5235,7 +5232,7 @@
         <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>58912.0057601347</v>
+        <v>90238.0371920501</v>
       </c>
     </row>
     <row r="56">
@@ -5243,7 +5240,7 @@
         <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>56196.4071255644</v>
+        <v>89070.342517446</v>
       </c>
     </row>
     <row r="57">
@@ -5251,7 +5248,7 @@
         <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>51098.4323267201</v>
+        <v>87248.2710899509</v>
       </c>
     </row>
     <row r="58">
@@ -5259,7 +5256,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>43618.0813636019</v>
+        <v>84771.822909565</v>
       </c>
     </row>
     <row r="59">
@@ -5267,7 +5264,7 @@
         <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>38203.8302780473</v>
+        <v>83194.7912736182</v>
       </c>
     </row>
     <row r="60">
@@ -5275,7 +5272,7 @@
         <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>34855.6790700564</v>
+        <v>82517.1761821108</v>
       </c>
     </row>
     <row r="61">
@@ -5283,7 +5280,7 @@
         <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>33573.6277396291</v>
+        <v>82738.9776350426</v>
       </c>
     </row>
     <row r="62">
@@ -5291,7 +5288,7 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>34357.6762867654</v>
+        <v>83860.1956324137</v>
       </c>
     </row>
     <row r="63">
@@ -5299,7 +5296,7 @@
         <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>35090.8820651024</v>
+        <v>84741.3525537902</v>
       </c>
     </row>
     <row r="64">
@@ -5307,7 +5304,7 @@
         <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>35773.24507464</v>
+        <v>85382.4483991721</v>
       </c>
     </row>
     <row r="65">
@@ -5315,7 +5312,7 @@
         <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>36404.7653153784</v>
+        <v>85783.4831685595</v>
       </c>
     </row>
     <row r="66">
@@ -5323,7 +5320,7 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>36985.4427873174</v>
+        <v>85944.4568619522</v>
       </c>
     </row>
     <row r="67">
@@ -5331,7 +5328,7 @@
         <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>37319.2536068647</v>
+        <v>87036.1652846053</v>
       </c>
     </row>
     <row r="68">
@@ -5339,7 +5336,7 @@
         <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>37406.1977740202</v>
+        <v>89058.6084365188</v>
       </c>
     </row>
     <row r="69">
@@ -5347,7 +5344,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>37246.275288784</v>
+        <v>92011.7863176926</v>
       </c>
     </row>
     <row r="70">
@@ -5355,7 +5352,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>36839.4861511561</v>
+        <v>95895.6989281267</v>
       </c>
     </row>
     <row r="71">
@@ -5363,7 +5360,7 @@
         <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>36923.4043514015</v>
+        <v>96327.9144165981</v>
       </c>
     </row>
     <row r="72">
@@ -5371,7 +5368,7 @@
         <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>37498.0298895202</v>
+        <v>93308.4327831069</v>
       </c>
     </row>
     <row r="73">
@@ -5379,7 +5376,7 @@
         <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>38563.3627655123</v>
+        <v>86837.2540276528</v>
       </c>
     </row>
     <row r="74">
@@ -5387,7 +5384,7 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>40119.4029793776</v>
+        <v>76914.3781502361</v>
       </c>
     </row>
     <row r="75">
@@ -5395,7 +5392,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>41193.5578731727</v>
+        <v>69998.276539175</v>
       </c>
     </row>
     <row r="76">
@@ -5403,7 +5400,7 @@
         <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>41785.8274468975</v>
+        <v>66088.9491944695</v>
       </c>
     </row>
     <row r="77">
@@ -5411,7 +5408,7 @@
         <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>41896.2117005519</v>
+        <v>65186.3961161196</v>
       </c>
     </row>
     <row r="78">
@@ -5419,7 +5416,7 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>41524.7106341361</v>
+        <v>67290.6173041254</v>
       </c>
     </row>
     <row r="79">
@@ -5427,7 +5424,7 @@
         <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>41565.3259539153</v>
+        <v>69948.1588576775</v>
       </c>
     </row>
     <row r="80">
@@ -5435,7 +5432,7 @@
         <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>42018.0576598896</v>
+        <v>73159.0207767761</v>
       </c>
     </row>
     <row r="81">
@@ -5443,7 +5440,7 @@
         <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>42882.9057520589</v>
+        <v>76923.2030614211</v>
       </c>
     </row>
     <row r="82">
@@ -5451,7 +5448,7 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>44159.8702304234</v>
+        <v>81240.7057116126</v>
       </c>
     </row>
     <row r="83">
@@ -5459,7 +5456,7 @@
         <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>44995.848529149</v>
+        <v>83469.5549107905</v>
       </c>
     </row>
     <row r="84">
@@ -5467,7 +5464,7 @@
         <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>45390.8406482358</v>
+        <v>83609.7506589548</v>
       </c>
     </row>
     <row r="85">
@@ -5475,7 +5472,7 @@
         <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>45344.8465876838</v>
+        <v>81661.2929561057</v>
       </c>
     </row>
     <row r="86">
@@ -5483,7 +5480,7 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>44857.8663474929</v>
+        <v>77624.181802243</v>
       </c>
     </row>
     <row r="87">
@@ -5491,7 +5488,7 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>45263.7366228095</v>
+        <v>75363.9312839926</v>
       </c>
     </row>
     <row r="88">
@@ -5499,7 +5496,7 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>46562.4574136337</v>
+        <v>74880.5414013546</v>
       </c>
     </row>
     <row r="89">
@@ -5507,7 +5504,7 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>48754.0287199654</v>
+        <v>76174.012154329</v>
       </c>
     </row>
     <row r="90">
@@ -5515,7 +5512,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>51838.4505418046</v>
+        <v>79244.3435429157</v>
       </c>
     </row>
     <row r="91">
@@ -5523,7 +5520,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>53495.6339657626</v>
+        <v>81357.8309407953</v>
       </c>
     </row>
     <row r="92">
@@ -5531,7 +5528,7 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>53725.5789918394</v>
+        <v>82514.4743479678</v>
       </c>
     </row>
     <row r="93">
@@ -5539,7 +5536,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>52528.2856200349</v>
+        <v>82714.2737644332</v>
       </c>
     </row>
     <row r="94">
@@ -5547,7 +5544,7 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>49903.7538503493</v>
+        <v>81957.2291901916</v>
       </c>
     </row>
     <row r="95">
@@ -5555,7 +5552,7 @@
         <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>47935.355023085</v>
+        <v>81389.4457595103</v>
       </c>
     </row>
     <row r="96">
@@ -5563,7 +5560,7 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>46623.0891382422</v>
+        <v>81010.9234723895</v>
       </c>
     </row>
     <row r="97">
@@ -5571,7 +5568,7 @@
         <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>45966.9561958208</v>
+        <v>80821.662328829</v>
       </c>
     </row>
     <row r="98">
@@ -5579,7 +5576,7 @@
         <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>46101.4885061655</v>
+        <v>80713.8125477876</v>
       </c>
     </row>
     <row r="99">
@@ -5587,7 +5584,7 @@
         <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>46233.7683055243</v>
+        <v>80973.3485493497</v>
       </c>
     </row>
     <row r="100">
@@ -5595,7 +5592,7 @@
         <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>46471.4900433298</v>
+        <v>81532.5684648005</v>
       </c>
     </row>
     <row r="101">
@@ -5603,7 +5600,7 @@
         <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>46904.8177181663</v>
+        <v>82344.993531538</v>
       </c>
     </row>
     <row r="102">
@@ -5611,7 +5608,7 @@
         <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>47436.3069697193</v>
+        <v>83504.667117714</v>
       </c>
     </row>
     <row r="103">
@@ -5619,7 +5616,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>47586.0528654072</v>
+        <v>83985.8556416673</v>
       </c>
     </row>
     <row r="104">
@@ -5627,7 +5624,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>47255.5044622436</v>
+        <v>83868.3677022675</v>
       </c>
     </row>
     <row r="105">
@@ -5635,7 +5632,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>46353.1074922232</v>
+        <v>83218.4057538818</v>
       </c>
     </row>
     <row r="106">
@@ -5643,7 +5640,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>44911.5837625603</v>
+        <v>82016.8747844662</v>
       </c>
     </row>
     <row r="107">
@@ -5651,7 +5648,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>44116.0497360791</v>
+        <v>81263.8998912108</v>
       </c>
     </row>
     <row r="108">
@@ -5659,7 +5656,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>44001.685828423</v>
+        <v>80936.3999808225</v>
       </c>
     </row>
     <row r="109">
@@ -5667,7 +5664,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>44601.9020712238</v>
+        <v>81012.4346150471</v>
       </c>
     </row>
     <row r="110">
@@ -5675,7 +5672,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>45927.8756602889</v>
+        <v>81477.619403895</v>
       </c>
     </row>
     <row r="111">
@@ -5683,7 +5680,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>46820.020592251</v>
+        <v>81851.4423254337</v>
       </c>
     </row>
     <row r="112">
@@ -5691,7 +5688,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>47284.8655798284</v>
+        <v>82124.8026399312</v>
       </c>
     </row>
     <row r="113">
@@ -5699,7 +5696,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>47326.8117282661</v>
+        <v>82291.4134655213</v>
       </c>
     </row>
     <row r="114">
@@ -5707,7 +5704,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>46888.5781696175</v>
+        <v>82384.4098698798</v>
       </c>
     </row>
     <row r="115">
@@ -5715,7 +5712,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>46541.1951061858</v>
+        <v>82337.3071747549</v>
       </c>
     </row>
     <row r="116">
@@ -5723,7 +5720,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>46236.4076187305</v>
+        <v>82173.6523184357</v>
       </c>
     </row>
     <row r="117">
@@ -5731,7 +5728,7 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>45932.7586384832</v>
+        <v>81911.1196712192</v>
       </c>
     </row>
   </sheetData>
@@ -5761,7 +5758,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>45198.5804189327</v>
+        <v>98145.6928822036</v>
       </c>
     </row>
     <row r="3">
@@ -5769,7 +5766,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>45885.53580657</v>
+        <v>98400.5117931836</v>
       </c>
     </row>
     <row r="4">
@@ -5777,7 +5774,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>47259.4465818447</v>
+        <v>98910.1496151438</v>
       </c>
     </row>
     <row r="5">
@@ -5785,7 +5782,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>49320.3127447567</v>
+        <v>99674.606348084</v>
       </c>
     </row>
     <row r="6">
@@ -5793,7 +5790,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>52068.1342953061</v>
+        <v>100693.881992004</v>
       </c>
     </row>
     <row r="7">
@@ -5801,7 +5798,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>53661.1000750963</v>
+        <v>102470.334617543</v>
       </c>
     </row>
     <row r="8">
@@ -5809,7 +5806,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>54099.2100841275</v>
+        <v>105003.964224699</v>
       </c>
     </row>
     <row r="9">
@@ -5817,7 +5814,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>53382.4643223996</v>
+        <v>108294.770813473</v>
       </c>
     </row>
     <row r="10">
@@ -5825,7 +5822,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>51510.8627899126</v>
+        <v>112342.754383865</v>
       </c>
     </row>
     <row r="11">
@@ -5833,7 +5830,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>49789.3979520077</v>
+        <v>115275.305086806</v>
       </c>
     </row>
     <row r="12">
@@ -5841,7 +5838,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="n">
-        <v>48218.0698086849</v>
+        <v>117092.422922295</v>
       </c>
     </row>
     <row r="13">
@@ -5849,7 +5846,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>46796.8783599443</v>
+        <v>117794.107890333</v>
       </c>
     </row>
     <row r="14">
@@ -5857,7 +5854,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>45525.8236057858</v>
+        <v>117380.359990919</v>
       </c>
     </row>
     <row r="15">
@@ -5865,7 +5862,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>45068.5874917475</v>
+        <v>117384.915832139</v>
       </c>
     </row>
     <row r="16">
@@ -5873,7 +5870,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="n">
-        <v>45425.1700178292</v>
+        <v>117807.775413993</v>
       </c>
     </row>
     <row r="17">
@@ -5881,7 +5878,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>46595.571184031</v>
+        <v>118648.938736482</v>
       </c>
     </row>
     <row r="18">
@@ -5889,7 +5886,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>48579.790990353</v>
+        <v>119908.405799604</v>
       </c>
     </row>
     <row r="19">
@@ -5897,7 +5894,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>49291.4277337384</v>
+        <v>122153.900851008</v>
       </c>
     </row>
     <row r="20">
@@ -5905,7 +5902,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>48730.4814141871</v>
+        <v>125385.423890695</v>
       </c>
     </row>
     <row r="21">
@@ -5913,7 +5910,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>46896.9520316994</v>
+        <v>129602.974918664</v>
       </c>
     </row>
     <row r="22">
@@ -5921,7 +5918,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>43790.839586275</v>
+        <v>134806.553934915</v>
       </c>
     </row>
     <row r="23">
@@ -5929,7 +5926,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>41968.0057235355</v>
+        <v>135942.489433511</v>
       </c>
     </row>
     <row r="24">
@@ -5937,7 +5934,7 @@
         <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>41428.4504434809</v>
+        <v>133010.781414452</v>
       </c>
     </row>
     <row r="25">
@@ -5945,7 +5942,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>42172.1737461112</v>
+        <v>126011.429877738</v>
       </c>
     </row>
     <row r="26">
@@ -5953,7 +5950,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>44199.1756314263</v>
+        <v>114944.43482337</v>
       </c>
     </row>
     <row r="27">
@@ -5961,7 +5958,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>45823.6690150728</v>
+        <v>106793.749969574</v>
       </c>
     </row>
     <row r="28">
@@ -5969,7 +5966,7 @@
         <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>47045.6538970505</v>
+        <v>101559.375316351</v>
       </c>
     </row>
     <row r="29">
@@ -5977,7 +5974,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>47865.1302773596</v>
+        <v>99241.3108636997</v>
       </c>
     </row>
     <row r="30">
@@ -5985,7 +5982,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>48282.098156</v>
+        <v>99839.556611621</v>
       </c>
     </row>
     <row r="31">
@@ -5993,7 +5990,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>48809.2436805427</v>
+        <v>99997.1527601916</v>
       </c>
     </row>
     <row r="32">
@@ -6001,7 +5998,7 @@
         <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>49446.5668509876</v>
+        <v>99714.0993094116</v>
       </c>
     </row>
     <row r="33">
@@ -6009,7 +6006,7 @@
         <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>50194.0676673349</v>
+        <v>98990.396259281</v>
       </c>
     </row>
     <row r="34">
@@ -6017,7 +6014,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>51051.7461295843</v>
+        <v>97826.0436097996</v>
       </c>
     </row>
     <row r="35">
@@ -6025,7 +6022,7 @@
         <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>51645.2333431943</v>
+        <v>97149.9699293736</v>
       </c>
     </row>
     <row r="36">
@@ -6033,7 +6030,7 @@
         <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>51974.5293081647</v>
+        <v>96962.1752180029</v>
       </c>
     </row>
     <row r="37">
@@ -6041,7 +6038,7 @@
         <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>52039.6340244956</v>
+        <v>97262.6594756875</v>
       </c>
     </row>
     <row r="38">
@@ -6049,7 +6046,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>51840.5474921869</v>
+        <v>98051.4227024274</v>
       </c>
     </row>
     <row r="39">
@@ -6057,7 +6054,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>52534.8031918318</v>
+        <v>98200.4060429715</v>
       </c>
     </row>
     <row r="40">
@@ -6065,7 +6062,7 @@
         <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>54122.4011234301</v>
+        <v>97709.6094973197</v>
       </c>
     </row>
     <row r="41">
@@ -6073,7 +6070,7 @@
         <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>56603.341286982</v>
+        <v>96579.0330654722</v>
       </c>
     </row>
     <row r="42">
@@ -6081,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>59977.6236824873</v>
+        <v>94808.6767474289</v>
       </c>
     </row>
     <row r="43">
@@ -6089,7 +6086,7 @@
         <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>61806.3870223084</v>
+        <v>93294.4985679922</v>
       </c>
     </row>
     <row r="44">
@@ -6097,7 +6094,7 @@
         <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>62089.6313064452</v>
+        <v>92036.4985271622</v>
       </c>
     </row>
     <row r="45">
@@ -6105,7 +6102,7 @@
         <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>60827.3565348979</v>
+        <v>91034.6766249387</v>
       </c>
     </row>
     <row r="46">
@@ -6113,7 +6110,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>58019.5627076662</v>
+        <v>90289.0328613219</v>
       </c>
     </row>
     <row r="47">
@@ -6121,7 +6118,7 @@
         <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>55933.3718390343</v>
+        <v>89806.5588398544</v>
       </c>
     </row>
     <row r="48">
@@ -6129,7 +6126,7 @@
         <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>54568.783929002</v>
+        <v>89587.2545605363</v>
       </c>
     </row>
     <row r="49">
@@ -6137,7 +6134,7 @@
         <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>53925.7989775694</v>
+        <v>89631.1200233675</v>
       </c>
     </row>
     <row r="50">
@@ -6145,7 +6142,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>54004.4169847365</v>
+        <v>89938.1552283481</v>
       </c>
     </row>
     <row r="51">
@@ -6153,7 +6150,7 @@
         <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>54575.6689136063</v>
+        <v>90203.696339878</v>
       </c>
     </row>
     <row r="52">
@@ -6161,7 +6158,7 @@
         <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>55639.5547641786</v>
+        <v>90427.7433579571</v>
       </c>
     </row>
     <row r="53">
@@ -6169,7 +6166,7 @@
         <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>57196.0745364535</v>
+        <v>90610.2962825856</v>
       </c>
     </row>
     <row r="54">
@@ -6177,7 +6174,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>59245.2282304311</v>
+        <v>90751.3551137633</v>
       </c>
     </row>
     <row r="55">
@@ -6185,7 +6182,7 @@
         <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>58912.0057601347</v>
+        <v>90238.0371920501</v>
       </c>
     </row>
     <row r="56">
@@ -6193,7 +6190,7 @@
         <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>56196.4071255644</v>
+        <v>89070.342517446</v>
       </c>
     </row>
     <row r="57">
@@ -6201,7 +6198,7 @@
         <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>51098.4323267201</v>
+        <v>87248.2710899509</v>
       </c>
     </row>
     <row r="58">
@@ -6209,7 +6206,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>43618.0813636019</v>
+        <v>84771.822909565</v>
       </c>
     </row>
     <row r="59">
@@ -6217,7 +6214,7 @@
         <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>38203.8302780473</v>
+        <v>83194.7912736182</v>
       </c>
     </row>
     <row r="60">
@@ -6225,7 +6222,7 @@
         <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>34855.6790700564</v>
+        <v>82517.1761821108</v>
       </c>
     </row>
     <row r="61">
@@ -6233,7 +6230,7 @@
         <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>33573.6277396291</v>
+        <v>82738.9776350426</v>
       </c>
     </row>
     <row r="62">
@@ -6241,7 +6238,7 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>34357.6762867654</v>
+        <v>83860.1956324137</v>
       </c>
     </row>
     <row r="63">
@@ -6249,7 +6246,7 @@
         <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>35090.8820651024</v>
+        <v>84741.3525537902</v>
       </c>
     </row>
     <row r="64">
@@ -6257,7 +6254,7 @@
         <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>35773.24507464</v>
+        <v>85382.4483991721</v>
       </c>
     </row>
     <row r="65">
@@ -6265,7 +6262,7 @@
         <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>36404.7653153784</v>
+        <v>85783.4831685595</v>
       </c>
     </row>
     <row r="66">
@@ -6273,7 +6270,7 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>36985.4427873174</v>
+        <v>85944.4568619522</v>
       </c>
     </row>
     <row r="67">
@@ -6281,7 +6278,7 @@
         <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>37319.2536068647</v>
+        <v>87036.1652846053</v>
       </c>
     </row>
     <row r="68">
@@ -6289,7 +6286,7 @@
         <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>37406.1977740202</v>
+        <v>89058.6084365188</v>
       </c>
     </row>
     <row r="69">
@@ -6297,7 +6294,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>37246.275288784</v>
+        <v>92011.7863176926</v>
       </c>
     </row>
     <row r="70">
@@ -6305,7 +6302,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>36839.4861511561</v>
+        <v>95895.6989281267</v>
       </c>
     </row>
     <row r="71">
@@ -6313,7 +6310,7 @@
         <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>36923.4043514015</v>
+        <v>96327.9144165981</v>
       </c>
     </row>
     <row r="72">
@@ -6321,7 +6318,7 @@
         <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>37498.0298895202</v>
+        <v>93308.4327831069</v>
       </c>
     </row>
     <row r="73">
@@ -6329,7 +6326,7 @@
         <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>38563.3627655123</v>
+        <v>86837.2540276528</v>
       </c>
     </row>
     <row r="74">
@@ -6337,7 +6334,7 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>40119.4029793776</v>
+        <v>76914.3781502361</v>
       </c>
     </row>
     <row r="75">
@@ -6345,7 +6342,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>41193.5578731727</v>
+        <v>69998.276539175</v>
       </c>
     </row>
     <row r="76">
@@ -6353,7 +6350,7 @@
         <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>41785.8274468975</v>
+        <v>66088.9491944695</v>
       </c>
     </row>
     <row r="77">
@@ -6361,7 +6358,7 @@
         <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>41896.2117005519</v>
+        <v>65186.3961161196</v>
       </c>
     </row>
     <row r="78">
@@ -6369,7 +6366,7 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>41524.7106341361</v>
+        <v>67290.6173041254</v>
       </c>
     </row>
     <row r="79">
@@ -6377,7 +6374,7 @@
         <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>41565.3259539153</v>
+        <v>69948.1588576775</v>
       </c>
     </row>
     <row r="80">
@@ -6385,7 +6382,7 @@
         <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>42018.0576598896</v>
+        <v>73159.0207767761</v>
       </c>
     </row>
     <row r="81">
@@ -6393,7 +6390,7 @@
         <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>42882.9057520589</v>
+        <v>76923.2030614211</v>
       </c>
     </row>
     <row r="82">
@@ -6401,7 +6398,7 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>44159.8702304234</v>
+        <v>81240.7057116126</v>
       </c>
     </row>
     <row r="83">
@@ -6409,7 +6406,7 @@
         <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>44995.848529149</v>
+        <v>83469.5549107905</v>
       </c>
     </row>
     <row r="84">
@@ -6417,7 +6414,7 @@
         <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>45390.8406482358</v>
+        <v>83609.7506589548</v>
       </c>
     </row>
     <row r="85">
@@ -6425,7 +6422,7 @@
         <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>45344.8465876838</v>
+        <v>81661.2929561057</v>
       </c>
     </row>
     <row r="86">
@@ -6433,7 +6430,7 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>44857.8663474929</v>
+        <v>77624.181802243</v>
       </c>
     </row>
     <row r="87">
@@ -6441,7 +6438,7 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>45263.7366228095</v>
+        <v>75363.9312839926</v>
       </c>
     </row>
     <row r="88">
@@ -6449,7 +6446,7 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>46562.4574136337</v>
+        <v>74880.5414013546</v>
       </c>
     </row>
     <row r="89">
@@ -6457,7 +6454,7 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>48754.0287199654</v>
+        <v>76174.012154329</v>
       </c>
     </row>
     <row r="90">
@@ -6465,7 +6462,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>51838.4505418046</v>
+        <v>79244.3435429157</v>
       </c>
     </row>
     <row r="91">
@@ -6473,7 +6470,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>53495.6339657626</v>
+        <v>81357.8309407953</v>
       </c>
     </row>
     <row r="92">
@@ -6481,7 +6478,7 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>53725.5789918394</v>
+        <v>82514.4743479678</v>
       </c>
     </row>
     <row r="93">
@@ -6489,7 +6486,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>52528.2856200349</v>
+        <v>82714.2737644332</v>
       </c>
     </row>
     <row r="94">
@@ -6497,7 +6494,7 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>49903.7538503493</v>
+        <v>81957.2291901916</v>
       </c>
     </row>
     <row r="95">
@@ -6505,7 +6502,7 @@
         <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>47935.355023085</v>
+        <v>81389.4457595103</v>
       </c>
     </row>
     <row r="96">
@@ -6513,7 +6510,7 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>46623.0891382422</v>
+        <v>81010.9234723895</v>
       </c>
     </row>
     <row r="97">
@@ -6521,7 +6518,7 @@
         <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>45966.9561958208</v>
+        <v>80821.662328829</v>
       </c>
     </row>
     <row r="98">
@@ -6529,7 +6526,7 @@
         <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>46101.4885061655</v>
+        <v>80713.8125477876</v>
       </c>
     </row>
     <row r="99">
@@ -6537,7 +6534,7 @@
         <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>46233.7683055243</v>
+        <v>80973.3485493497</v>
       </c>
     </row>
     <row r="100">
@@ -6545,7 +6542,7 @@
         <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>46471.4900433298</v>
+        <v>81532.5684648005</v>
       </c>
     </row>
     <row r="101">
@@ -6553,7 +6550,7 @@
         <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>46904.8177181663</v>
+        <v>82344.993531538</v>
       </c>
     </row>
     <row r="102">
@@ -6561,7 +6558,7 @@
         <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>47436.3069697193</v>
+        <v>83504.667117714</v>
       </c>
     </row>
     <row r="103">
@@ -6569,7 +6566,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>47586.0528654072</v>
+        <v>83985.8556416673</v>
       </c>
     </row>
     <row r="104">
@@ -6577,7 +6574,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>47255.5044622436</v>
+        <v>83868.3677022675</v>
       </c>
     </row>
     <row r="105">
@@ -6585,7 +6582,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>46353.1074922232</v>
+        <v>83218.4057538818</v>
       </c>
     </row>
     <row r="106">
@@ -6593,7 +6590,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>44911.5837625603</v>
+        <v>82016.8747844662</v>
       </c>
     </row>
     <row r="107">
@@ -6601,7 +6598,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>44116.0497360791</v>
+        <v>81263.8998912108</v>
       </c>
     </row>
     <row r="108">
@@ -6609,7 +6606,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>44001.685828423</v>
+        <v>80936.3999808225</v>
       </c>
     </row>
     <row r="109">
@@ -6617,7 +6614,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>44601.9020712238</v>
+        <v>81012.4346150471</v>
       </c>
     </row>
     <row r="110">
@@ -6625,7 +6622,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>45927.8756602889</v>
+        <v>81477.619403895</v>
       </c>
     </row>
     <row r="111">
@@ -6633,7 +6630,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>46820.020592251</v>
+        <v>81851.4423254337</v>
       </c>
     </row>
     <row r="112">
@@ -6641,7 +6638,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>47284.8655798284</v>
+        <v>82124.8026399312</v>
       </c>
     </row>
     <row r="113">
@@ -6649,7 +6646,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>47326.8117282661</v>
+        <v>82291.4134655213</v>
       </c>
     </row>
     <row r="114">
@@ -6657,7 +6654,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>46888.5781696175</v>
+        <v>82384.4098698798</v>
       </c>
     </row>
     <row r="115">
@@ -6665,7 +6662,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>46541.1951061858</v>
+        <v>82337.3071747549</v>
       </c>
     </row>
     <row r="116">
@@ -6673,7 +6670,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>46236.4076187305</v>
+        <v>82173.6523184357</v>
       </c>
     </row>
     <row r="117">
@@ -6681,7 +6678,7 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>45932.7586384832</v>
+        <v>81911.1196712192</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_SYL.xlsx
+++ b/VA_result_SYL.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t xml:space="preserve">ANNEE</t>
   </si>
@@ -386,6 +386,54 @@
     <t xml:space="preserve">2025-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">1996</t>
   </si>
   <si>
@@ -485,31 +533,34 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">-2.91038304567337e-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.82076609134674e-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.73114913702011e-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.16415321826935e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.3283064365387e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.03726813197136e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91038304567337e-11</t>
   </si>
   <si>
     <t xml:space="preserve">5.82076609134674e-11</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3283064365387e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74622982740402e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16415321826935e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91038304567337e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49245965480804e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65661287307739e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07453626394272e-10</t>
+    <t xml:space="preserve">-1.45519152283669e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.74622982740402e-10</t>
   </si>
 </sst>
 </file>
@@ -541,7 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1602,6 +1653,86 @@
         <v>121</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1623,127 +1754,127 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1893,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -2261,28 +2392,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
@@ -2290,25 +2421,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="C2" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="D2" t="n">
-        <v>98145.6928822036</v>
+        <v>45198.5804189327</v>
       </c>
       <c r="E2" t="n">
-        <v>98145.6928822036</v>
+        <v>45198.5804189327</v>
       </c>
       <c r="F2" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="G2" t="n">
-        <v>98145.6928822036</v>
+        <v>45198.5804189327</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
@@ -2316,25 +2447,25 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="C3" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="D3" t="n">
-        <v>98400.5117931836</v>
+        <v>45885.53580657</v>
       </c>
       <c r="E3" t="n">
-        <v>98400.5117931836</v>
+        <v>45885.53580657</v>
       </c>
       <c r="F3" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="G3" t="n">
-        <v>98400.5117931836</v>
+        <v>45885.53580657</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -2342,25 +2473,25 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="C4" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="D4" t="n">
-        <v>98910.1496151438</v>
+        <v>47259.4465818447</v>
       </c>
       <c r="E4" t="n">
-        <v>98910.1496151438</v>
+        <v>47259.4465818447</v>
       </c>
       <c r="F4" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="G4" t="n">
-        <v>98910.1496151438</v>
+        <v>47259.4465818447</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -2368,25 +2499,25 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="C5" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="D5" t="n">
-        <v>99674.606348084</v>
+        <v>49320.3127447567</v>
       </c>
       <c r="E5" t="n">
-        <v>99674.606348084</v>
+        <v>49320.3127447567</v>
       </c>
       <c r="F5" t="n">
-        <v>395130.960638615</v>
+        <v>187663.875552104</v>
       </c>
       <c r="G5" t="n">
-        <v>99674.606348084</v>
+        <v>49320.3127447567</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
@@ -2394,25 +2525,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="C6" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="D6" t="n">
-        <v>100693.881992004</v>
+        <v>52068.1342953061</v>
       </c>
       <c r="E6" t="n">
-        <v>100693.881992004</v>
+        <v>52068.1342953061</v>
       </c>
       <c r="F6" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="G6" t="n">
-        <v>100693.881992004</v>
+        <v>52068.1342953061</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
@@ -2420,25 +2551,25 @@
         <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="C7" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="D7" t="n">
-        <v>102470.334617543</v>
+        <v>53661.1000750963</v>
       </c>
       <c r="E7" t="n">
-        <v>102470.334617543</v>
+        <v>53661.1000750963</v>
       </c>
       <c r="F7" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="G7" t="n">
-        <v>102470.334617543</v>
+        <v>53661.1000750963</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
@@ -2446,25 +2577,25 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="C8" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="D8" t="n">
-        <v>105003.964224699</v>
+        <v>54099.2100841275</v>
       </c>
       <c r="E8" t="n">
-        <v>105003.964224699</v>
+        <v>54099.2100841275</v>
       </c>
       <c r="F8" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="G8" t="n">
-        <v>105003.964224699</v>
+        <v>54099.2100841275</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9">
@@ -2472,25 +2603,25 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="C9" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="D9" t="n">
-        <v>108294.770813473</v>
+        <v>53382.4643223996</v>
       </c>
       <c r="E9" t="n">
-        <v>108294.770813473</v>
+        <v>53382.4643223996</v>
       </c>
       <c r="F9" t="n">
-        <v>416462.951647719</v>
+        <v>213210.90877693</v>
       </c>
       <c r="G9" t="n">
-        <v>108294.770813473</v>
+        <v>53382.4643223996</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -2498,25 +2629,25 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>462504.590283298</v>
+        <v>196315.20891055</v>
       </c>
       <c r="C10" t="n">
-        <v>462504.590283298</v>
+        <v>196315.20891055</v>
       </c>
       <c r="D10" t="n">
-        <v>112342.754383865</v>
+        <v>51510.8627899126</v>
       </c>
       <c r="E10" t="n">
-        <v>112342.754383865</v>
+        <v>51510.8627899126</v>
       </c>
       <c r="F10" t="n">
-        <v>462504.590283298</v>
+        <v>196315.208910549</v>
       </c>
       <c r="G10" t="n">
-        <v>112342.754383865</v>
+        <v>51510.8627899126</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
@@ -2524,25 +2655,25 @@
         <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>462504.590283298</v>
+        <v>196315.20891055</v>
       </c>
       <c r="C11" t="n">
-        <v>462504.590283298</v>
+        <v>196315.20891055</v>
       </c>
       <c r="D11" t="n">
-        <v>115275.305086806</v>
+        <v>49789.3979520077</v>
       </c>
       <c r="E11" t="n">
-        <v>115275.305086806</v>
+        <v>49789.3979520077</v>
       </c>
       <c r="F11" t="n">
-        <v>462504.590283298</v>
+        <v>196315.208910549</v>
       </c>
       <c r="G11" t="n">
-        <v>115275.305086806</v>
+        <v>49789.3979520077</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12">
@@ -2550,25 +2681,25 @@
         <v>37</v>
       </c>
       <c r="B12" t="n">
-        <v>462504.590283298</v>
+        <v>196315.20891055</v>
       </c>
       <c r="C12" t="n">
-        <v>462504.590283298</v>
+        <v>196315.20891055</v>
       </c>
       <c r="D12" t="n">
-        <v>117092.422922295</v>
+        <v>48218.0698086849</v>
       </c>
       <c r="E12" t="n">
-        <v>117092.422922295</v>
+        <v>48218.0698086849</v>
       </c>
       <c r="F12" t="n">
-        <v>462504.590283298</v>
+        <v>196315.208910549</v>
       </c>
       <c r="G12" t="n">
-        <v>117092.422922295</v>
+        <v>48218.0698086849</v>
       </c>
       <c r="H12" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -2576,25 +2707,25 @@
         <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>462504.590283298</v>
+        <v>196315.20891055</v>
       </c>
       <c r="C13" t="n">
-        <v>462504.590283298</v>
+        <v>196315.20891055</v>
       </c>
       <c r="D13" t="n">
-        <v>117794.107890333</v>
+        <v>46796.8783599443</v>
       </c>
       <c r="E13" t="n">
-        <v>117794.107890333</v>
+        <v>46796.8783599443</v>
       </c>
       <c r="F13" t="n">
-        <v>462504.590283298</v>
+        <v>196315.208910549</v>
       </c>
       <c r="G13" t="n">
-        <v>117794.107890333</v>
+        <v>46796.8783599443</v>
       </c>
       <c r="H13" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
@@ -2602,25 +2733,25 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>471221.989973532</v>
+        <v>182615.152299394</v>
       </c>
       <c r="C14" t="n">
-        <v>471221.989973532</v>
+        <v>182615.152299394</v>
       </c>
       <c r="D14" t="n">
-        <v>117380.359990919</v>
+        <v>45525.8236057858</v>
       </c>
       <c r="E14" t="n">
-        <v>117380.359990919</v>
+        <v>45525.8236057858</v>
       </c>
       <c r="F14" t="n">
-        <v>471221.989973533</v>
+        <v>182615.152299394</v>
       </c>
       <c r="G14" t="n">
-        <v>117380.359990919</v>
+        <v>45525.8236057858</v>
       </c>
       <c r="H14" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
@@ -2628,25 +2759,25 @@
         <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>471221.989973532</v>
+        <v>182615.152299394</v>
       </c>
       <c r="C15" t="n">
-        <v>471221.989973532</v>
+        <v>182615.152299394</v>
       </c>
       <c r="D15" t="n">
-        <v>117384.915832139</v>
+        <v>45068.5874917475</v>
       </c>
       <c r="E15" t="n">
-        <v>117384.915832139</v>
+        <v>45068.5874917475</v>
       </c>
       <c r="F15" t="n">
-        <v>471221.989973533</v>
+        <v>182615.152299394</v>
       </c>
       <c r="G15" t="n">
-        <v>117384.915832139</v>
+        <v>45068.5874917475</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
@@ -2654,25 +2785,25 @@
         <v>40</v>
       </c>
       <c r="B16" t="n">
-        <v>471221.989973532</v>
+        <v>182615.152299394</v>
       </c>
       <c r="C16" t="n">
-        <v>471221.989973532</v>
+        <v>182615.152299394</v>
       </c>
       <c r="D16" t="n">
-        <v>117807.775413993</v>
+        <v>45425.1700178292</v>
       </c>
       <c r="E16" t="n">
-        <v>117807.775413993</v>
+        <v>45425.1700178292</v>
       </c>
       <c r="F16" t="n">
-        <v>471221.989973533</v>
+        <v>182615.152299394</v>
       </c>
       <c r="G16" t="n">
-        <v>117807.775413993</v>
+        <v>45425.1700178292</v>
       </c>
       <c r="H16" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
@@ -2680,25 +2811,25 @@
         <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>471221.989973532</v>
+        <v>182615.152299394</v>
       </c>
       <c r="C17" t="n">
-        <v>471221.989973532</v>
+        <v>182615.152299394</v>
       </c>
       <c r="D17" t="n">
-        <v>118648.938736482</v>
+        <v>46595.571184031</v>
       </c>
       <c r="E17" t="n">
-        <v>118648.938736482</v>
+        <v>46595.571184031</v>
       </c>
       <c r="F17" t="n">
-        <v>471221.989973533</v>
+        <v>182615.152299394</v>
       </c>
       <c r="G17" t="n">
-        <v>118648.938736482</v>
+        <v>46595.571184031</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
@@ -2706,25 +2837,25 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="C18" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="D18" t="n">
-        <v>119908.405799604</v>
+        <v>48579.790990353</v>
       </c>
       <c r="E18" t="n">
-        <v>119908.405799604</v>
+        <v>48579.790990353</v>
       </c>
       <c r="F18" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="G18" t="n">
-        <v>119908.405799604</v>
+        <v>48579.790990353</v>
       </c>
       <c r="H18" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2732,25 +2863,25 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="C19" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="D19" t="n">
-        <v>122153.900851008</v>
+        <v>49291.4277337384</v>
       </c>
       <c r="E19" t="n">
-        <v>122153.900851008</v>
+        <v>49291.4277337384</v>
       </c>
       <c r="F19" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="G19" t="n">
-        <v>122153.900851008</v>
+        <v>49291.4277337384</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -2758,25 +2889,25 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="C20" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="D20" t="n">
-        <v>125385.423890695</v>
+        <v>48730.4814141871</v>
       </c>
       <c r="E20" t="n">
-        <v>125385.423890695</v>
+        <v>48730.4814141871</v>
       </c>
       <c r="F20" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="G20" t="n">
-        <v>125385.423890695</v>
+        <v>48730.4814141871</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
@@ -2784,25 +2915,25 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="C21" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="D21" t="n">
-        <v>129602.974918664</v>
+        <v>46896.9520316994</v>
       </c>
       <c r="E21" t="n">
-        <v>129602.974918664</v>
+        <v>46896.9520316994</v>
       </c>
       <c r="F21" t="n">
-        <v>497050.705459971</v>
+        <v>193498.652169978</v>
       </c>
       <c r="G21" t="n">
-        <v>129602.974918664</v>
+        <v>46896.9520316994</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
@@ -2810,25 +2941,25 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>529771.254660615</v>
+        <v>169359.469499403</v>
       </c>
       <c r="C22" t="n">
-        <v>529771.254660615</v>
+        <v>169359.469499403</v>
       </c>
       <c r="D22" t="n">
-        <v>134806.553934915</v>
+        <v>43790.839586275</v>
       </c>
       <c r="E22" t="n">
-        <v>134806.553934915</v>
+        <v>43790.839586275</v>
       </c>
       <c r="F22" t="n">
-        <v>529771.254660616</v>
+        <v>169359.469499403</v>
       </c>
       <c r="G22" t="n">
-        <v>134806.553934915</v>
+        <v>43790.839586275</v>
       </c>
       <c r="H22" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
@@ -2836,25 +2967,25 @@
         <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>529771.254660615</v>
+        <v>169359.469499403</v>
       </c>
       <c r="C23" t="n">
-        <v>529771.254660615</v>
+        <v>169359.469499403</v>
       </c>
       <c r="D23" t="n">
-        <v>135942.489433511</v>
+        <v>41968.0057235355</v>
       </c>
       <c r="E23" t="n">
-        <v>135942.489433511</v>
+        <v>41968.0057235355</v>
       </c>
       <c r="F23" t="n">
-        <v>529771.254660616</v>
+        <v>169359.469499403</v>
       </c>
       <c r="G23" t="n">
-        <v>135942.489433511</v>
+        <v>41968.0057235355</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
@@ -2862,25 +2993,25 @@
         <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>529771.254660615</v>
+        <v>169359.469499403</v>
       </c>
       <c r="C24" t="n">
-        <v>529771.254660615</v>
+        <v>169359.469499403</v>
       </c>
       <c r="D24" t="n">
-        <v>133010.781414452</v>
+        <v>41428.4504434809</v>
       </c>
       <c r="E24" t="n">
-        <v>133010.781414452</v>
+        <v>41428.4504434809</v>
       </c>
       <c r="F24" t="n">
-        <v>529771.254660616</v>
+        <v>169359.469499403</v>
       </c>
       <c r="G24" t="n">
-        <v>133010.781414452</v>
+        <v>41428.4504434809</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
@@ -2888,25 +3019,25 @@
         <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>529771.254660615</v>
+        <v>169359.469499403</v>
       </c>
       <c r="C25" t="n">
-        <v>529771.254660615</v>
+        <v>169359.469499403</v>
       </c>
       <c r="D25" t="n">
-        <v>126011.429877738</v>
+        <v>42172.1737461112</v>
       </c>
       <c r="E25" t="n">
-        <v>126011.429877738</v>
+        <v>42172.1737461112</v>
       </c>
       <c r="F25" t="n">
-        <v>529771.254660616</v>
+        <v>169359.469499403</v>
       </c>
       <c r="G25" t="n">
-        <v>126011.429877738</v>
+        <v>42172.1737461112</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
@@ -2914,25 +3045,25 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="C26" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="D26" t="n">
-        <v>114944.43482337</v>
+        <v>44199.1756314263</v>
       </c>
       <c r="E26" t="n">
-        <v>114944.43482337</v>
+        <v>44199.1756314263</v>
       </c>
       <c r="F26" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="G26" t="n">
-        <v>114944.43482337</v>
+        <v>44199.1756314263</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
@@ -2940,25 +3071,25 @@
         <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="C27" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="D27" t="n">
-        <v>106793.749969574</v>
+        <v>45823.6690150728</v>
       </c>
       <c r="E27" t="n">
-        <v>106793.749969574</v>
+        <v>45823.6690150728</v>
       </c>
       <c r="F27" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="G27" t="n">
-        <v>106793.749969574</v>
+        <v>45823.6690150728</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28">
@@ -2966,25 +3097,25 @@
         <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="C28" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="D28" t="n">
-        <v>101559.375316351</v>
+        <v>47045.6538970505</v>
       </c>
       <c r="E28" t="n">
-        <v>101559.375316351</v>
+        <v>47045.6538970505</v>
       </c>
       <c r="F28" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="G28" t="n">
-        <v>101559.375316351</v>
+        <v>47045.6538970505</v>
       </c>
       <c r="H28" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -2992,25 +3123,25 @@
         <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="C29" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="D29" t="n">
-        <v>99241.3108636997</v>
+        <v>47865.1302773596</v>
       </c>
       <c r="E29" t="n">
-        <v>99241.3108636997</v>
+        <v>47865.1302773596</v>
       </c>
       <c r="F29" t="n">
-        <v>422538.870972995</v>
+        <v>184933.628820909</v>
       </c>
       <c r="G29" t="n">
-        <v>99241.3108636997</v>
+        <v>47865.1302773596</v>
       </c>
       <c r="H29" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30">
@@ -3018,25 +3149,25 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="C30" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="D30" t="n">
-        <v>99839.556611621</v>
+        <v>48282.098156</v>
       </c>
       <c r="E30" t="n">
-        <v>99839.556611621</v>
+        <v>48282.098156</v>
       </c>
       <c r="F30" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="G30" t="n">
-        <v>99839.556611621</v>
+        <v>48282.098156</v>
       </c>
       <c r="H30" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31">
@@ -3044,25 +3175,25 @@
         <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="C31" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="D31" t="n">
-        <v>99997.1527601916</v>
+        <v>48809.2436805427</v>
       </c>
       <c r="E31" t="n">
-        <v>99997.1527601916</v>
+        <v>48809.2436805427</v>
       </c>
       <c r="F31" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="G31" t="n">
-        <v>99997.1527601916</v>
+        <v>48809.2436805427</v>
       </c>
       <c r="H31" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
@@ -3070,25 +3201,25 @@
         <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="C32" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="D32" t="n">
-        <v>99714.0993094116</v>
+        <v>49446.5668509876</v>
       </c>
       <c r="E32" t="n">
-        <v>99714.0993094116</v>
+        <v>49446.5668509876</v>
       </c>
       <c r="F32" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="G32" t="n">
-        <v>99714.0993094116</v>
+        <v>49446.5668509876</v>
       </c>
       <c r="H32" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
@@ -3096,25 +3227,25 @@
         <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="C33" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="D33" t="n">
-        <v>98990.396259281</v>
+        <v>50194.0676673349</v>
       </c>
       <c r="E33" t="n">
-        <v>98990.396259281</v>
+        <v>50194.0676673349</v>
       </c>
       <c r="F33" t="n">
-        <v>398541.204940505</v>
+        <v>196731.976354865</v>
       </c>
       <c r="G33" t="n">
-        <v>98990.396259281</v>
+        <v>50194.0676673349</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
@@ -3122,25 +3253,25 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>389200.848232863</v>
+        <v>206711.142805439</v>
       </c>
       <c r="C34" t="n">
-        <v>389200.848232863</v>
+        <v>206711.142805439</v>
       </c>
       <c r="D34" t="n">
-        <v>97826.0436097996</v>
+        <v>51051.7461295843</v>
       </c>
       <c r="E34" t="n">
-        <v>97826.0436097996</v>
+        <v>51051.7461295843</v>
       </c>
       <c r="F34" t="n">
-        <v>389200.848232864</v>
+        <v>206711.142805439</v>
       </c>
       <c r="G34" t="n">
-        <v>97826.0436097996</v>
+        <v>51051.7461295843</v>
       </c>
       <c r="H34" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35">
@@ -3148,25 +3279,25 @@
         <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>389200.848232863</v>
+        <v>206711.142805439</v>
       </c>
       <c r="C35" t="n">
-        <v>389200.848232863</v>
+        <v>206711.142805439</v>
       </c>
       <c r="D35" t="n">
-        <v>97149.9699293736</v>
+        <v>51645.2333431943</v>
       </c>
       <c r="E35" t="n">
-        <v>97149.9699293736</v>
+        <v>51645.2333431943</v>
       </c>
       <c r="F35" t="n">
-        <v>389200.848232864</v>
+        <v>206711.142805439</v>
       </c>
       <c r="G35" t="n">
-        <v>97149.9699293736</v>
+        <v>51645.2333431943</v>
       </c>
       <c r="H35" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36">
@@ -3174,25 +3305,25 @@
         <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>389200.848232863</v>
+        <v>206711.142805439</v>
       </c>
       <c r="C36" t="n">
-        <v>389200.848232863</v>
+        <v>206711.142805439</v>
       </c>
       <c r="D36" t="n">
-        <v>96962.1752180029</v>
+        <v>51974.5293081647</v>
       </c>
       <c r="E36" t="n">
-        <v>96962.1752180029</v>
+        <v>51974.5293081647</v>
       </c>
       <c r="F36" t="n">
-        <v>389200.848232864</v>
+        <v>206711.142805439</v>
       </c>
       <c r="G36" t="n">
-        <v>96962.1752180029</v>
+        <v>51974.5293081647</v>
       </c>
       <c r="H36" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -3200,25 +3331,25 @@
         <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>389200.848232863</v>
+        <v>206711.142805439</v>
       </c>
       <c r="C37" t="n">
-        <v>389200.848232863</v>
+        <v>206711.142805439</v>
       </c>
       <c r="D37" t="n">
-        <v>97262.6594756875</v>
+        <v>52039.6340244956</v>
       </c>
       <c r="E37" t="n">
-        <v>97262.6594756875</v>
+        <v>52039.6340244956</v>
       </c>
       <c r="F37" t="n">
-        <v>389200.848232864</v>
+        <v>206711.142805439</v>
       </c>
       <c r="G37" t="n">
-        <v>97262.6594756875</v>
+        <v>52039.6340244956</v>
       </c>
       <c r="H37" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38">
@@ -3226,25 +3357,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="C38" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="D38" t="n">
-        <v>98051.4227024274</v>
+        <v>51840.5474921869</v>
       </c>
       <c r="E38" t="n">
-        <v>98051.4227024274</v>
+        <v>51840.5474921869</v>
       </c>
       <c r="F38" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="G38" t="n">
-        <v>98051.4227024274</v>
+        <v>51840.5474921869</v>
       </c>
       <c r="H38" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39">
@@ -3252,25 +3383,25 @@
         <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="C39" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="D39" t="n">
-        <v>98200.4060429715</v>
+        <v>52534.8031918318</v>
       </c>
       <c r="E39" t="n">
-        <v>98200.4060429715</v>
+        <v>52534.8031918318</v>
       </c>
       <c r="F39" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="G39" t="n">
-        <v>98200.4060429715</v>
+        <v>52534.8031918318</v>
       </c>
       <c r="H39" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -3278,25 +3409,25 @@
         <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="C40" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="D40" t="n">
-        <v>97709.6094973197</v>
+        <v>54122.4011234301</v>
       </c>
       <c r="E40" t="n">
-        <v>97709.6094973197</v>
+        <v>54122.4011234301</v>
       </c>
       <c r="F40" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="G40" t="n">
-        <v>97709.6094973197</v>
+        <v>54122.4011234301</v>
       </c>
       <c r="H40" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41">
@@ -3304,25 +3435,25 @@
         <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="C41" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="D41" t="n">
-        <v>96579.0330654722</v>
+        <v>56603.341286982</v>
       </c>
       <c r="E41" t="n">
-        <v>96579.0330654722</v>
+        <v>56603.341286982</v>
       </c>
       <c r="F41" t="n">
-        <v>390540.471308191</v>
+        <v>215101.093094431</v>
       </c>
       <c r="G41" t="n">
-        <v>96579.0330654722</v>
+        <v>56603.341286982</v>
       </c>
       <c r="H41" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42">
@@ -3330,25 +3461,25 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="C42" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="D42" t="n">
-        <v>94808.6767474289</v>
+        <v>59977.6236824873</v>
       </c>
       <c r="E42" t="n">
-        <v>94808.6767474289</v>
+        <v>59977.6236824873</v>
       </c>
       <c r="F42" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="G42" t="n">
-        <v>94808.6767474289</v>
+        <v>59977.6236824873</v>
       </c>
       <c r="H42" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43">
@@ -3356,25 +3487,25 @@
         <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="C43" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="D43" t="n">
-        <v>93294.4985679922</v>
+        <v>61806.3870223084</v>
       </c>
       <c r="E43" t="n">
-        <v>93294.4985679922</v>
+        <v>61806.3870223084</v>
       </c>
       <c r="F43" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="G43" t="n">
-        <v>93294.4985679922</v>
+        <v>61806.3870223084</v>
       </c>
       <c r="H43" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44">
@@ -3382,25 +3513,25 @@
         <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="C44" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="D44" t="n">
-        <v>92036.4985271622</v>
+        <v>62089.6313064452</v>
       </c>
       <c r="E44" t="n">
-        <v>92036.4985271622</v>
+        <v>62089.6313064452</v>
       </c>
       <c r="F44" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="G44" t="n">
-        <v>92036.4985271622</v>
+        <v>62089.6313064452</v>
       </c>
       <c r="H44" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45">
@@ -3408,25 +3539,25 @@
         <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="C45" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="D45" t="n">
-        <v>91034.6766249387</v>
+        <v>60827.3565348979</v>
       </c>
       <c r="E45" t="n">
-        <v>91034.6766249387</v>
+        <v>60827.3565348979</v>
       </c>
       <c r="F45" t="n">
-        <v>371174.350467522</v>
+        <v>244700.998546139</v>
       </c>
       <c r="G45" t="n">
-        <v>91034.6766249387</v>
+        <v>60827.3565348979</v>
       </c>
       <c r="H45" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46">
@@ -3434,25 +3565,25 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="C46" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="D46" t="n">
-        <v>90289.0328613219</v>
+        <v>58019.5627076662</v>
       </c>
       <c r="E46" t="n">
-        <v>90289.0328613219</v>
+        <v>58019.5627076662</v>
       </c>
       <c r="F46" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="G46" t="n">
-        <v>90289.0328613219</v>
+        <v>58019.5627076662</v>
       </c>
       <c r="H46" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47">
@@ -3460,25 +3591,25 @@
         <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="C47" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="D47" t="n">
-        <v>89806.5588398544</v>
+        <v>55933.3718390343</v>
       </c>
       <c r="E47" t="n">
-        <v>89806.5588398544</v>
+        <v>55933.3718390343</v>
       </c>
       <c r="F47" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="G47" t="n">
-        <v>89806.5588398544</v>
+        <v>55933.3718390343</v>
       </c>
       <c r="H47" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48">
@@ -3486,25 +3617,25 @@
         <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="C48" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="D48" t="n">
-        <v>89587.2545605363</v>
+        <v>54568.783929002</v>
       </c>
       <c r="E48" t="n">
-        <v>89587.2545605363</v>
+        <v>54568.783929002</v>
       </c>
       <c r="F48" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="G48" t="n">
-        <v>89587.2545605363</v>
+        <v>54568.783929002</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49">
@@ -3512,25 +3643,25 @@
         <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="C49" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="D49" t="n">
-        <v>89631.1200233675</v>
+        <v>53925.7989775694</v>
       </c>
       <c r="E49" t="n">
-        <v>89631.1200233675</v>
+        <v>53925.7989775694</v>
       </c>
       <c r="F49" t="n">
-        <v>359313.96628508</v>
+        <v>222447.517453272</v>
       </c>
       <c r="G49" t="n">
-        <v>89631.1200233675</v>
+        <v>53925.7989775694</v>
       </c>
       <c r="H49" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50">
@@ -3538,25 +3669,25 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>361179.891208768</v>
+        <v>221415.715198975</v>
       </c>
       <c r="C50" t="n">
-        <v>361179.891208768</v>
+        <v>221415.715198975</v>
       </c>
       <c r="D50" t="n">
-        <v>89938.1552283481</v>
+        <v>54004.4169847365</v>
       </c>
       <c r="E50" t="n">
-        <v>89938.1552283481</v>
+        <v>54004.4169847365</v>
       </c>
       <c r="F50" t="n">
-        <v>361179.891208769</v>
+        <v>221415.715198975</v>
       </c>
       <c r="G50" t="n">
-        <v>89938.1552283481</v>
+        <v>54004.4169847365</v>
       </c>
       <c r="H50" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51">
@@ -3564,25 +3695,25 @@
         <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>361179.891208768</v>
+        <v>221415.715198975</v>
       </c>
       <c r="C51" t="n">
-        <v>361179.891208768</v>
+        <v>221415.715198975</v>
       </c>
       <c r="D51" t="n">
-        <v>90203.696339878</v>
+        <v>54575.6689136063</v>
       </c>
       <c r="E51" t="n">
-        <v>90203.696339878</v>
+        <v>54575.6689136063</v>
       </c>
       <c r="F51" t="n">
-        <v>361179.891208769</v>
+        <v>221415.715198975</v>
       </c>
       <c r="G51" t="n">
-        <v>90203.696339878</v>
+        <v>54575.6689136063</v>
       </c>
       <c r="H51" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52">
@@ -3590,25 +3721,25 @@
         <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>361179.891208768</v>
+        <v>221415.715198975</v>
       </c>
       <c r="C52" t="n">
-        <v>361179.891208768</v>
+        <v>221415.715198975</v>
       </c>
       <c r="D52" t="n">
-        <v>90427.7433579571</v>
+        <v>55639.5547641786</v>
       </c>
       <c r="E52" t="n">
-        <v>90427.7433579571</v>
+        <v>55639.5547641786</v>
       </c>
       <c r="F52" t="n">
-        <v>361179.891208769</v>
+        <v>221415.715198975</v>
       </c>
       <c r="G52" t="n">
-        <v>90427.7433579571</v>
+        <v>55639.5547641786</v>
       </c>
       <c r="H52" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53">
@@ -3616,25 +3747,25 @@
         <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>361179.891208768</v>
+        <v>221415.715198975</v>
       </c>
       <c r="C53" t="n">
-        <v>361179.891208768</v>
+        <v>221415.715198975</v>
       </c>
       <c r="D53" t="n">
-        <v>90610.2962825856</v>
+        <v>57196.0745364535</v>
       </c>
       <c r="E53" t="n">
-        <v>90610.2962825856</v>
+        <v>57196.0745364535</v>
       </c>
       <c r="F53" t="n">
-        <v>361179.891208769</v>
+        <v>221415.715198975</v>
       </c>
       <c r="G53" t="n">
-        <v>90610.2962825856</v>
+        <v>57196.0745364535</v>
       </c>
       <c r="H53" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54">
@@ -3642,25 +3773,25 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="C54" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="D54" t="n">
-        <v>90751.3551137633</v>
+        <v>59245.2282304311</v>
       </c>
       <c r="E54" t="n">
-        <v>90751.3551137633</v>
+        <v>59245.2282304311</v>
       </c>
       <c r="F54" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="G54" t="n">
-        <v>90751.3551137633</v>
+        <v>59245.2282304311</v>
       </c>
       <c r="H54" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55">
@@ -3668,25 +3799,25 @@
         <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="C55" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="D55" t="n">
-        <v>90238.0371920501</v>
+        <v>58912.0057601347</v>
       </c>
       <c r="E55" t="n">
-        <v>90238.0371920501</v>
+        <v>58912.0057601347</v>
       </c>
       <c r="F55" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="G55" t="n">
-        <v>90238.0371920501</v>
+        <v>58912.0057601347</v>
       </c>
       <c r="H55" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56">
@@ -3694,25 +3825,25 @@
         <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="C56" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="D56" t="n">
-        <v>89070.342517446</v>
+        <v>56196.4071255644</v>
       </c>
       <c r="E56" t="n">
-        <v>89070.342517446</v>
+        <v>56196.4071255644</v>
       </c>
       <c r="F56" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="G56" t="n">
-        <v>89070.342517446</v>
+        <v>56196.4071255644</v>
       </c>
       <c r="H56" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57">
@@ -3720,25 +3851,25 @@
         <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="C57" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="D57" t="n">
-        <v>87248.2710899509</v>
+        <v>51098.4323267201</v>
       </c>
       <c r="E57" t="n">
-        <v>87248.2710899509</v>
+        <v>51098.4323267201</v>
       </c>
       <c r="F57" t="n">
-        <v>357308.00591321</v>
+        <v>225452.07344285</v>
       </c>
       <c r="G57" t="n">
-        <v>87248.2710899509</v>
+        <v>51098.4323267201</v>
       </c>
       <c r="H57" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58">
@@ -3746,25 +3877,25 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>333222.768000336</v>
+        <v>150251.218451335</v>
       </c>
       <c r="C58" t="n">
-        <v>333222.768000336</v>
+        <v>150251.218451335</v>
       </c>
       <c r="D58" t="n">
-        <v>84771.822909565</v>
+        <v>43618.0813636019</v>
       </c>
       <c r="E58" t="n">
-        <v>84771.822909565</v>
+        <v>43618.0813636019</v>
       </c>
       <c r="F58" t="n">
-        <v>333222.768000337</v>
+        <v>150251.218451335</v>
       </c>
       <c r="G58" t="n">
-        <v>84771.822909565</v>
+        <v>43618.0813636019</v>
       </c>
       <c r="H58" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59">
@@ -3772,25 +3903,25 @@
         <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>333222.768000336</v>
+        <v>150251.218451335</v>
       </c>
       <c r="C59" t="n">
-        <v>333222.768000336</v>
+        <v>150251.218451335</v>
       </c>
       <c r="D59" t="n">
-        <v>83194.7912736182</v>
+        <v>38203.8302780473</v>
       </c>
       <c r="E59" t="n">
-        <v>83194.7912736182</v>
+        <v>38203.8302780473</v>
       </c>
       <c r="F59" t="n">
-        <v>333222.768000337</v>
+        <v>150251.218451335</v>
       </c>
       <c r="G59" t="n">
-        <v>83194.7912736182</v>
+        <v>38203.8302780473</v>
       </c>
       <c r="H59" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60">
@@ -3798,25 +3929,25 @@
         <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>333222.768000336</v>
+        <v>150251.218451335</v>
       </c>
       <c r="C60" t="n">
-        <v>333222.768000336</v>
+        <v>150251.218451335</v>
       </c>
       <c r="D60" t="n">
-        <v>82517.1761821108</v>
+        <v>34855.6790700564</v>
       </c>
       <c r="E60" t="n">
-        <v>82517.1761821108</v>
+        <v>34855.6790700564</v>
       </c>
       <c r="F60" t="n">
-        <v>333222.768000337</v>
+        <v>150251.218451335</v>
       </c>
       <c r="G60" t="n">
-        <v>82517.1761821108</v>
+        <v>34855.6790700564</v>
       </c>
       <c r="H60" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -3824,25 +3955,25 @@
         <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>333222.768000336</v>
+        <v>150251.218451335</v>
       </c>
       <c r="C61" t="n">
-        <v>333222.768000336</v>
+        <v>150251.218451335</v>
       </c>
       <c r="D61" t="n">
-        <v>82738.9776350426</v>
+        <v>33573.6277396291</v>
       </c>
       <c r="E61" t="n">
-        <v>82738.9776350426</v>
+        <v>33573.6277396291</v>
       </c>
       <c r="F61" t="n">
-        <v>333222.768000337</v>
+        <v>150251.218451335</v>
       </c>
       <c r="G61" t="n">
-        <v>82738.9776350426</v>
+        <v>33573.6277396291</v>
       </c>
       <c r="H61" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62">
@@ -3850,25 +3981,25 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>339767.479753935</v>
+        <v>141626.568741886</v>
       </c>
       <c r="C62" t="n">
-        <v>339767.479753935</v>
+        <v>141626.568741886</v>
       </c>
       <c r="D62" t="n">
-        <v>83860.1956324137</v>
+        <v>34357.6762867654</v>
       </c>
       <c r="E62" t="n">
-        <v>83860.1956324137</v>
+        <v>34357.6762867654</v>
       </c>
       <c r="F62" t="n">
-        <v>339767.479753936</v>
+        <v>141626.568741886</v>
       </c>
       <c r="G62" t="n">
-        <v>83860.1956324137</v>
+        <v>34357.6762867654</v>
       </c>
       <c r="H62" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63">
@@ -3876,25 +4007,25 @@
         <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>339767.479753935</v>
+        <v>141626.568741886</v>
       </c>
       <c r="C63" t="n">
-        <v>339767.479753935</v>
+        <v>141626.568741886</v>
       </c>
       <c r="D63" t="n">
-        <v>84741.3525537902</v>
+        <v>35090.8820651024</v>
       </c>
       <c r="E63" t="n">
-        <v>84741.3525537902</v>
+        <v>35090.8820651024</v>
       </c>
       <c r="F63" t="n">
-        <v>339767.479753936</v>
+        <v>141626.568741886</v>
       </c>
       <c r="G63" t="n">
-        <v>84741.3525537902</v>
+        <v>35090.8820651024</v>
       </c>
       <c r="H63" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64">
@@ -3902,25 +4033,25 @@
         <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>339767.479753935</v>
+        <v>141626.568741886</v>
       </c>
       <c r="C64" t="n">
-        <v>339767.479753935</v>
+        <v>141626.568741886</v>
       </c>
       <c r="D64" t="n">
-        <v>85382.4483991721</v>
+        <v>35773.24507464</v>
       </c>
       <c r="E64" t="n">
-        <v>85382.4483991721</v>
+        <v>35773.24507464</v>
       </c>
       <c r="F64" t="n">
-        <v>339767.479753936</v>
+        <v>141626.568741886</v>
       </c>
       <c r="G64" t="n">
-        <v>85382.4483991721</v>
+        <v>35773.24507464</v>
       </c>
       <c r="H64" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65">
@@ -3928,25 +4059,25 @@
         <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>339767.479753935</v>
+        <v>141626.568741886</v>
       </c>
       <c r="C65" t="n">
-        <v>339767.479753935</v>
+        <v>141626.568741886</v>
       </c>
       <c r="D65" t="n">
-        <v>85783.4831685595</v>
+        <v>36404.7653153784</v>
       </c>
       <c r="E65" t="n">
-        <v>85783.4831685595</v>
+        <v>36404.7653153784</v>
       </c>
       <c r="F65" t="n">
-        <v>339767.479753936</v>
+        <v>141626.568741886</v>
       </c>
       <c r="G65" t="n">
-        <v>85783.4831685595</v>
+        <v>36404.7653153784</v>
       </c>
       <c r="H65" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66">
@@ -3954,25 +4085,25 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="C66" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="D66" t="n">
-        <v>85944.4568619522</v>
+        <v>36985.4427873174</v>
       </c>
       <c r="E66" t="n">
-        <v>85944.4568619522</v>
+        <v>36985.4427873174</v>
       </c>
       <c r="F66" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="G66" t="n">
-        <v>85944.4568619522</v>
+        <v>36985.4427873174</v>
       </c>
       <c r="H66" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67">
@@ -3980,25 +4111,25 @@
         <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="C67" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="D67" t="n">
-        <v>87036.1652846053</v>
+        <v>37319.2536068647</v>
       </c>
       <c r="E67" t="n">
-        <v>87036.1652846053</v>
+        <v>37319.2536068647</v>
       </c>
       <c r="F67" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="G67" t="n">
-        <v>87036.1652846053</v>
+        <v>37319.2536068647</v>
       </c>
       <c r="H67" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68">
@@ -4006,25 +4137,25 @@
         <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="C68" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="D68" t="n">
-        <v>89058.6084365188</v>
+        <v>37406.1977740202</v>
       </c>
       <c r="E68" t="n">
-        <v>89058.6084365188</v>
+        <v>37406.1977740202</v>
       </c>
       <c r="F68" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="G68" t="n">
-        <v>89058.6084365188</v>
+        <v>37406.1977740202</v>
       </c>
       <c r="H68" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69">
@@ -4032,25 +4163,25 @@
         <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="C69" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="D69" t="n">
-        <v>92011.7863176926</v>
+        <v>37246.275288784</v>
       </c>
       <c r="E69" t="n">
-        <v>92011.7863176926</v>
+        <v>37246.275288784</v>
       </c>
       <c r="F69" t="n">
-        <v>354051.016900769</v>
+        <v>148957.169456986</v>
       </c>
       <c r="G69" t="n">
-        <v>92011.7863176926</v>
+        <v>37246.275288784</v>
       </c>
       <c r="H69" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70">
@@ -4058,25 +4189,25 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>372369.300155484</v>
+        <v>149824.28315759</v>
       </c>
       <c r="C70" t="n">
-        <v>372369.300155484</v>
+        <v>149824.28315759</v>
       </c>
       <c r="D70" t="n">
-        <v>95895.6989281267</v>
+        <v>36839.4861511561</v>
       </c>
       <c r="E70" t="n">
-        <v>95895.6989281267</v>
+        <v>36839.4861511561</v>
       </c>
       <c r="F70" t="n">
-        <v>372369.300155485</v>
+        <v>149824.28315759</v>
       </c>
       <c r="G70" t="n">
-        <v>95895.6989281267</v>
+        <v>36839.4861511561</v>
       </c>
       <c r="H70" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71">
@@ -4084,25 +4215,25 @@
         <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>372369.300155484</v>
+        <v>149824.28315759</v>
       </c>
       <c r="C71" t="n">
-        <v>372369.300155484</v>
+        <v>149824.28315759</v>
       </c>
       <c r="D71" t="n">
-        <v>96327.9144165981</v>
+        <v>36923.4043514015</v>
       </c>
       <c r="E71" t="n">
-        <v>96327.9144165981</v>
+        <v>36923.4043514015</v>
       </c>
       <c r="F71" t="n">
-        <v>372369.300155485</v>
+        <v>149824.28315759</v>
       </c>
       <c r="G71" t="n">
-        <v>96327.9144165981</v>
+        <v>36923.4043514015</v>
       </c>
       <c r="H71" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72">
@@ -4110,25 +4241,25 @@
         <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>372369.300155484</v>
+        <v>149824.28315759</v>
       </c>
       <c r="C72" t="n">
-        <v>372369.300155484</v>
+        <v>149824.28315759</v>
       </c>
       <c r="D72" t="n">
-        <v>93308.4327831069</v>
+        <v>37498.0298895202</v>
       </c>
       <c r="E72" t="n">
-        <v>93308.4327831069</v>
+        <v>37498.0298895202</v>
       </c>
       <c r="F72" t="n">
-        <v>372369.300155485</v>
+        <v>149824.28315759</v>
       </c>
       <c r="G72" t="n">
-        <v>93308.4327831069</v>
+        <v>37498.0298895202</v>
       </c>
       <c r="H72" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73">
@@ -4136,25 +4267,25 @@
         <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>372369.300155484</v>
+        <v>149824.28315759</v>
       </c>
       <c r="C73" t="n">
-        <v>372369.300155484</v>
+        <v>149824.28315759</v>
       </c>
       <c r="D73" t="n">
-        <v>86837.2540276528</v>
+        <v>38563.3627655123</v>
       </c>
       <c r="E73" t="n">
-        <v>86837.2540276528</v>
+        <v>38563.3627655123</v>
       </c>
       <c r="F73" t="n">
-        <v>372369.300155485</v>
+        <v>149824.28315759</v>
       </c>
       <c r="G73" t="n">
-        <v>86837.2540276528</v>
+        <v>38563.3627655123</v>
       </c>
       <c r="H73" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74">
@@ -4162,25 +4293,25 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="C74" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="D74" t="n">
-        <v>76914.3781502361</v>
+        <v>40119.4029793776</v>
       </c>
       <c r="E74" t="n">
-        <v>76914.3781502361</v>
+        <v>40119.4029793776</v>
       </c>
       <c r="F74" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="G74" t="n">
-        <v>76914.3781502361</v>
+        <v>40119.4029793776</v>
       </c>
       <c r="H74" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75">
@@ -4188,25 +4319,25 @@
         <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="C75" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="D75" t="n">
-        <v>69998.276539175</v>
+        <v>41193.5578731727</v>
       </c>
       <c r="E75" t="n">
-        <v>69998.276539175</v>
+        <v>41193.5578731727</v>
       </c>
       <c r="F75" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="G75" t="n">
-        <v>69998.276539175</v>
+        <v>41193.5578731727</v>
       </c>
       <c r="H75" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76">
@@ -4214,25 +4345,25 @@
         <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="C76" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="D76" t="n">
-        <v>66088.9491944695</v>
+        <v>41785.8274468975</v>
       </c>
       <c r="E76" t="n">
-        <v>66088.9491944695</v>
+        <v>41785.8274468975</v>
       </c>
       <c r="F76" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="G76" t="n">
-        <v>66088.9491944695</v>
+        <v>41785.8274468975</v>
       </c>
       <c r="H76" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77">
@@ -4240,25 +4371,25 @@
         <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="C77" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="D77" t="n">
-        <v>65186.3961161196</v>
+        <v>41896.2117005519</v>
       </c>
       <c r="E77" t="n">
-        <v>65186.3961161196</v>
+        <v>41896.2117005519</v>
       </c>
       <c r="F77" t="n">
-        <v>278188</v>
+        <v>164995</v>
       </c>
       <c r="G77" t="n">
-        <v>65186.3961161196</v>
+        <v>41896.2117005519</v>
       </c>
       <c r="H77" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4397,25 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="C78" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="D78" t="n">
-        <v>67290.6173041254</v>
+        <v>41524.7106341361</v>
       </c>
       <c r="E78" t="n">
-        <v>67290.6173041254</v>
+        <v>41524.7106341361</v>
       </c>
       <c r="F78" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="G78" t="n">
-        <v>67290.6173041254</v>
+        <v>41524.7106341361</v>
       </c>
       <c r="H78" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79">
@@ -4292,25 +4423,25 @@
         <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="C79" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="D79" t="n">
-        <v>69948.1588576775</v>
+        <v>41565.3259539153</v>
       </c>
       <c r="E79" t="n">
-        <v>69948.1588576775</v>
+        <v>41565.3259539153</v>
       </c>
       <c r="F79" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="G79" t="n">
-        <v>69948.1588576775</v>
+        <v>41565.3259539153</v>
       </c>
       <c r="H79" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80">
@@ -4318,25 +4449,25 @@
         <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="C80" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="D80" t="n">
-        <v>73159.0207767761</v>
+        <v>42018.0576598896</v>
       </c>
       <c r="E80" t="n">
-        <v>73159.0207767761</v>
+        <v>42018.0576598896</v>
       </c>
       <c r="F80" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="G80" t="n">
-        <v>73159.0207767761</v>
+        <v>42018.0576598896</v>
       </c>
       <c r="H80" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81">
@@ -4344,25 +4475,25 @@
         <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="C81" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="D81" t="n">
-        <v>76923.2030614211</v>
+        <v>42882.9057520589</v>
       </c>
       <c r="E81" t="n">
-        <v>76923.2030614211</v>
+        <v>42882.9057520589</v>
       </c>
       <c r="F81" t="n">
-        <v>287321</v>
+        <v>167991</v>
       </c>
       <c r="G81" t="n">
-        <v>76923.2030614211</v>
+        <v>42882.9057520589</v>
       </c>
       <c r="H81" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82">
@@ -4370,25 +4501,25 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>329981.304237463</v>
+        <v>179891.405995492</v>
       </c>
       <c r="C82" t="n">
-        <v>329981.304237463</v>
+        <v>179891.405995492</v>
       </c>
       <c r="D82" t="n">
-        <v>81240.7057116126</v>
+        <v>44159.8702304234</v>
       </c>
       <c r="E82" t="n">
-        <v>81240.7057116126</v>
+        <v>44159.8702304234</v>
       </c>
       <c r="F82" t="n">
-        <v>329981.304237464</v>
+        <v>179891.405995492</v>
       </c>
       <c r="G82" t="n">
-        <v>81240.7057116126</v>
+        <v>44159.8702304234</v>
       </c>
       <c r="H82" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83">
@@ -4396,25 +4527,25 @@
         <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>329981.304237463</v>
+        <v>179891.405995492</v>
       </c>
       <c r="C83" t="n">
-        <v>329981.304237463</v>
+        <v>179891.405995492</v>
       </c>
       <c r="D83" t="n">
-        <v>83469.5549107905</v>
+        <v>44995.848529149</v>
       </c>
       <c r="E83" t="n">
-        <v>83469.5549107905</v>
+        <v>44995.848529149</v>
       </c>
       <c r="F83" t="n">
-        <v>329981.304237464</v>
+        <v>179891.405995492</v>
       </c>
       <c r="G83" t="n">
-        <v>83469.5549107905</v>
+        <v>44995.848529149</v>
       </c>
       <c r="H83" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84">
@@ -4422,25 +4553,25 @@
         <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>329981.304237463</v>
+        <v>179891.405995492</v>
       </c>
       <c r="C84" t="n">
-        <v>329981.304237463</v>
+        <v>179891.405995492</v>
       </c>
       <c r="D84" t="n">
-        <v>83609.7506589548</v>
+        <v>45390.8406482358</v>
       </c>
       <c r="E84" t="n">
-        <v>83609.7506589548</v>
+        <v>45390.8406482358</v>
       </c>
       <c r="F84" t="n">
-        <v>329981.304237464</v>
+        <v>179891.405995492</v>
       </c>
       <c r="G84" t="n">
-        <v>83609.7506589548</v>
+        <v>45390.8406482358</v>
       </c>
       <c r="H84" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -4448,25 +4579,25 @@
         <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>329981.304237463</v>
+        <v>179891.405995492</v>
       </c>
       <c r="C85" t="n">
-        <v>329981.304237463</v>
+        <v>179891.405995492</v>
       </c>
       <c r="D85" t="n">
-        <v>81661.2929561057</v>
+        <v>45344.8465876838</v>
       </c>
       <c r="E85" t="n">
-        <v>81661.2929561057</v>
+        <v>45344.8465876838</v>
       </c>
       <c r="F85" t="n">
-        <v>329981.304237464</v>
+        <v>179891.405995492</v>
       </c>
       <c r="G85" t="n">
-        <v>81661.2929561057</v>
+        <v>45344.8465876838</v>
       </c>
       <c r="H85" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86">
@@ -4474,25 +4605,25 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103902</v>
       </c>
       <c r="C86" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103902</v>
       </c>
       <c r="D86" t="n">
-        <v>77624.181802243</v>
+        <v>44857.8663474929</v>
       </c>
       <c r="E86" t="n">
-        <v>77624.181802243</v>
+        <v>44857.8663474929</v>
       </c>
       <c r="F86" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103901</v>
       </c>
       <c r="G86" t="n">
-        <v>77624.181802243</v>
+        <v>44857.8663474929</v>
       </c>
       <c r="H86" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87">
@@ -4500,25 +4631,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103902</v>
       </c>
       <c r="C87" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103902</v>
       </c>
       <c r="D87" t="n">
-        <v>75363.9312839926</v>
+        <v>45263.7366228095</v>
       </c>
       <c r="E87" t="n">
-        <v>75363.9312839926</v>
+        <v>45263.7366228095</v>
       </c>
       <c r="F87" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103901</v>
       </c>
       <c r="G87" t="n">
-        <v>75363.9312839926</v>
+        <v>45263.7366228095</v>
       </c>
       <c r="H87" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88">
@@ -4526,25 +4657,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103902</v>
       </c>
       <c r="C88" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103902</v>
       </c>
       <c r="D88" t="n">
-        <v>74880.5414013546</v>
+        <v>46562.4574136337</v>
       </c>
       <c r="E88" t="n">
-        <v>74880.5414013546</v>
+        <v>46562.4574136337</v>
       </c>
       <c r="F88" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103901</v>
       </c>
       <c r="G88" t="n">
-        <v>74880.5414013546</v>
+        <v>46562.4574136337</v>
       </c>
       <c r="H88" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89">
@@ -4552,25 +4683,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103902</v>
       </c>
       <c r="C89" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103902</v>
       </c>
       <c r="D89" t="n">
-        <v>76174.012154329</v>
+        <v>48754.0287199654</v>
       </c>
       <c r="E89" t="n">
-        <v>76174.012154329</v>
+        <v>48754.0287199654</v>
       </c>
       <c r="F89" t="n">
-        <v>304042.666641919</v>
+        <v>185438.089103901</v>
       </c>
       <c r="G89" t="n">
-        <v>76174.012154329</v>
+        <v>48754.0287199654</v>
       </c>
       <c r="H89" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90">
@@ -4578,25 +4709,25 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119442</v>
       </c>
       <c r="C90" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119442</v>
       </c>
       <c r="D90" t="n">
-        <v>79244.3435429157</v>
+        <v>51838.4505418046</v>
       </c>
       <c r="E90" t="n">
-        <v>79244.3435429157</v>
+        <v>51838.4505418046</v>
       </c>
       <c r="F90" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119441</v>
       </c>
       <c r="G90" t="n">
-        <v>79244.3435429157</v>
+        <v>51838.4505418046</v>
       </c>
       <c r="H90" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91">
@@ -4604,25 +4735,25 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119442</v>
       </c>
       <c r="C91" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119442</v>
       </c>
       <c r="D91" t="n">
-        <v>81357.8309407953</v>
+        <v>53495.6339657626</v>
       </c>
       <c r="E91" t="n">
-        <v>81357.8309407953</v>
+        <v>53495.6339657626</v>
       </c>
       <c r="F91" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119441</v>
       </c>
       <c r="G91" t="n">
-        <v>81357.8309407953</v>
+        <v>53495.6339657626</v>
       </c>
       <c r="H91" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92">
@@ -4630,25 +4761,25 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119442</v>
       </c>
       <c r="C92" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119442</v>
       </c>
       <c r="D92" t="n">
-        <v>82514.4743479678</v>
+        <v>53725.5789918394</v>
       </c>
       <c r="E92" t="n">
-        <v>82514.4743479678</v>
+        <v>53725.5789918394</v>
       </c>
       <c r="F92" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119441</v>
       </c>
       <c r="G92" t="n">
-        <v>82514.4743479678</v>
+        <v>53725.5789918394</v>
       </c>
       <c r="H92" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93">
@@ -4656,25 +4787,25 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119442</v>
       </c>
       <c r="C93" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119442</v>
       </c>
       <c r="D93" t="n">
-        <v>82714.2737644332</v>
+        <v>52528.2856200349</v>
       </c>
       <c r="E93" t="n">
-        <v>82714.2737644332</v>
+        <v>52528.2856200349</v>
       </c>
       <c r="F93" t="n">
-        <v>325830.922596112</v>
+        <v>211587.949119441</v>
       </c>
       <c r="G93" t="n">
-        <v>82714.2737644332</v>
+        <v>52528.2856200349</v>
       </c>
       <c r="H93" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94">
@@ -4682,25 +4813,25 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207498</v>
       </c>
       <c r="C94" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207498</v>
       </c>
       <c r="D94" t="n">
-        <v>81957.2291901916</v>
+        <v>49903.7538503493</v>
       </c>
       <c r="E94" t="n">
-        <v>81957.2291901916</v>
+        <v>49903.7538503493</v>
       </c>
       <c r="F94" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207497</v>
       </c>
       <c r="G94" t="n">
-        <v>81957.2291901916</v>
+        <v>49903.7538503493</v>
       </c>
       <c r="H94" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95">
@@ -4708,25 +4839,25 @@
         <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207498</v>
       </c>
       <c r="C95" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207498</v>
       </c>
       <c r="D95" t="n">
-        <v>81389.4457595103</v>
+        <v>47935.355023085</v>
       </c>
       <c r="E95" t="n">
-        <v>81389.4457595103</v>
+        <v>47935.355023085</v>
       </c>
       <c r="F95" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207497</v>
       </c>
       <c r="G95" t="n">
-        <v>81389.4457595103</v>
+        <v>47935.355023085</v>
       </c>
       <c r="H95" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96">
@@ -4734,25 +4865,25 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207498</v>
       </c>
       <c r="C96" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207498</v>
       </c>
       <c r="D96" t="n">
-        <v>81010.9234723895</v>
+        <v>46623.0891382422</v>
       </c>
       <c r="E96" t="n">
-        <v>81010.9234723895</v>
+        <v>46623.0891382422</v>
       </c>
       <c r="F96" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207497</v>
       </c>
       <c r="G96" t="n">
-        <v>81010.9234723895</v>
+        <v>46623.0891382422</v>
       </c>
       <c r="H96" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97">
@@ -4760,25 +4891,25 @@
         <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207498</v>
       </c>
       <c r="C97" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207498</v>
       </c>
       <c r="D97" t="n">
-        <v>80821.662328829</v>
+        <v>45966.9561958208</v>
       </c>
       <c r="E97" t="n">
-        <v>80821.662328829</v>
+        <v>45966.9561958208</v>
       </c>
       <c r="F97" t="n">
-        <v>325179.26075092</v>
+        <v>190429.154207497</v>
       </c>
       <c r="G97" t="n">
-        <v>80821.662328829</v>
+        <v>45966.9561958208</v>
       </c>
       <c r="H97" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4797,10 +4928,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -4808,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>98145.6928822036</v>
+        <v>45198.5804189327</v>
       </c>
     </row>
     <row r="3">
@@ -4816,7 +4947,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>98400.5117931836</v>
+        <v>45885.53580657</v>
       </c>
     </row>
     <row r="4">
@@ -4824,7 +4955,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>98910.1496151438</v>
+        <v>47259.4465818447</v>
       </c>
     </row>
     <row r="5">
@@ -4832,7 +4963,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>99674.606348084</v>
+        <v>49320.3127447567</v>
       </c>
     </row>
     <row r="6">
@@ -4840,7 +4971,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>100693.881992004</v>
+        <v>52068.1342953061</v>
       </c>
     </row>
     <row r="7">
@@ -4848,7 +4979,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>102470.334617543</v>
+        <v>53661.1000750963</v>
       </c>
     </row>
     <row r="8">
@@ -4856,7 +4987,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>105003.964224699</v>
+        <v>54099.2100841275</v>
       </c>
     </row>
     <row r="9">
@@ -4864,7 +4995,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>108294.770813473</v>
+        <v>53382.4643223996</v>
       </c>
     </row>
     <row r="10">
@@ -4872,7 +5003,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>112342.754383865</v>
+        <v>51510.8627899126</v>
       </c>
     </row>
     <row r="11">
@@ -4880,7 +5011,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>115275.305086806</v>
+        <v>49789.3979520077</v>
       </c>
     </row>
     <row r="12">
@@ -4888,7 +5019,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="n">
-        <v>117092.422922295</v>
+        <v>48218.0698086849</v>
       </c>
     </row>
     <row r="13">
@@ -4896,7 +5027,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>117794.107890333</v>
+        <v>46796.8783599443</v>
       </c>
     </row>
     <row r="14">
@@ -4904,7 +5035,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>117380.359990919</v>
+        <v>45525.8236057858</v>
       </c>
     </row>
     <row r="15">
@@ -4912,7 +5043,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>117384.915832139</v>
+        <v>45068.5874917475</v>
       </c>
     </row>
     <row r="16">
@@ -4920,7 +5051,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="n">
-        <v>117807.775413993</v>
+        <v>45425.1700178292</v>
       </c>
     </row>
     <row r="17">
@@ -4928,7 +5059,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>118648.938736482</v>
+        <v>46595.571184031</v>
       </c>
     </row>
     <row r="18">
@@ -4936,7 +5067,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>119908.405799604</v>
+        <v>48579.790990353</v>
       </c>
     </row>
     <row r="19">
@@ -4944,7 +5075,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>122153.900851008</v>
+        <v>49291.4277337384</v>
       </c>
     </row>
     <row r="20">
@@ -4952,7 +5083,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>125385.423890695</v>
+        <v>48730.4814141871</v>
       </c>
     </row>
     <row r="21">
@@ -4960,7 +5091,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>129602.974918664</v>
+        <v>46896.9520316994</v>
       </c>
     </row>
     <row r="22">
@@ -4968,7 +5099,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>134806.553934915</v>
+        <v>43790.839586275</v>
       </c>
     </row>
     <row r="23">
@@ -4976,7 +5107,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>135942.489433511</v>
+        <v>41968.0057235355</v>
       </c>
     </row>
     <row r="24">
@@ -4984,7 +5115,7 @@
         <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>133010.781414452</v>
+        <v>41428.4504434809</v>
       </c>
     </row>
     <row r="25">
@@ -4992,7 +5123,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>126011.429877738</v>
+        <v>42172.1737461112</v>
       </c>
     </row>
     <row r="26">
@@ -5000,7 +5131,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>114944.43482337</v>
+        <v>44199.1756314263</v>
       </c>
     </row>
     <row r="27">
@@ -5008,7 +5139,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>106793.749969574</v>
+        <v>45823.6690150728</v>
       </c>
     </row>
     <row r="28">
@@ -5016,7 +5147,7 @@
         <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>101559.375316351</v>
+        <v>47045.6538970505</v>
       </c>
     </row>
     <row r="29">
@@ -5024,7 +5155,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>99241.3108636997</v>
+        <v>47865.1302773596</v>
       </c>
     </row>
     <row r="30">
@@ -5032,7 +5163,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>99839.556611621</v>
+        <v>48282.098156</v>
       </c>
     </row>
     <row r="31">
@@ -5040,7 +5171,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>99997.1527601916</v>
+        <v>48809.2436805427</v>
       </c>
     </row>
     <row r="32">
@@ -5048,7 +5179,7 @@
         <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>99714.0993094116</v>
+        <v>49446.5668509876</v>
       </c>
     </row>
     <row r="33">
@@ -5056,7 +5187,7 @@
         <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>98990.396259281</v>
+        <v>50194.0676673349</v>
       </c>
     </row>
     <row r="34">
@@ -5064,7 +5195,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>97826.0436097996</v>
+        <v>51051.7461295843</v>
       </c>
     </row>
     <row r="35">
@@ -5072,7 +5203,7 @@
         <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>97149.9699293736</v>
+        <v>51645.2333431943</v>
       </c>
     </row>
     <row r="36">
@@ -5080,7 +5211,7 @@
         <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>96962.1752180029</v>
+        <v>51974.5293081647</v>
       </c>
     </row>
     <row r="37">
@@ -5088,7 +5219,7 @@
         <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>97262.6594756875</v>
+        <v>52039.6340244956</v>
       </c>
     </row>
     <row r="38">
@@ -5096,7 +5227,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>98051.4227024274</v>
+        <v>51840.5474921869</v>
       </c>
     </row>
     <row r="39">
@@ -5104,7 +5235,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>98200.4060429715</v>
+        <v>52534.8031918318</v>
       </c>
     </row>
     <row r="40">
@@ -5112,7 +5243,7 @@
         <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>97709.6094973197</v>
+        <v>54122.4011234301</v>
       </c>
     </row>
     <row r="41">
@@ -5120,7 +5251,7 @@
         <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>96579.0330654722</v>
+        <v>56603.341286982</v>
       </c>
     </row>
     <row r="42">
@@ -5128,7 +5259,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>94808.6767474289</v>
+        <v>59977.6236824873</v>
       </c>
     </row>
     <row r="43">
@@ -5136,7 +5267,7 @@
         <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>93294.4985679922</v>
+        <v>61806.3870223084</v>
       </c>
     </row>
     <row r="44">
@@ -5144,7 +5275,7 @@
         <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>92036.4985271622</v>
+        <v>62089.6313064452</v>
       </c>
     </row>
     <row r="45">
@@ -5152,7 +5283,7 @@
         <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>91034.6766249387</v>
+        <v>60827.3565348979</v>
       </c>
     </row>
     <row r="46">
@@ -5160,7 +5291,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>90289.0328613219</v>
+        <v>58019.5627076662</v>
       </c>
     </row>
     <row r="47">
@@ -5168,7 +5299,7 @@
         <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>89806.5588398544</v>
+        <v>55933.3718390343</v>
       </c>
     </row>
     <row r="48">
@@ -5176,7 +5307,7 @@
         <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>89587.2545605363</v>
+        <v>54568.783929002</v>
       </c>
     </row>
     <row r="49">
@@ -5184,7 +5315,7 @@
         <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>89631.1200233675</v>
+        <v>53925.7989775694</v>
       </c>
     </row>
     <row r="50">
@@ -5192,7 +5323,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>89938.1552283481</v>
+        <v>54004.4169847365</v>
       </c>
     </row>
     <row r="51">
@@ -5200,7 +5331,7 @@
         <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>90203.696339878</v>
+        <v>54575.6689136063</v>
       </c>
     </row>
     <row r="52">
@@ -5208,7 +5339,7 @@
         <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>90427.7433579571</v>
+        <v>55639.5547641786</v>
       </c>
     </row>
     <row r="53">
@@ -5216,7 +5347,7 @@
         <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>90610.2962825856</v>
+        <v>57196.0745364535</v>
       </c>
     </row>
     <row r="54">
@@ -5224,7 +5355,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>90751.3551137633</v>
+        <v>59245.2282304311</v>
       </c>
     </row>
     <row r="55">
@@ -5232,7 +5363,7 @@
         <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>90238.0371920501</v>
+        <v>58912.0057601347</v>
       </c>
     </row>
     <row r="56">
@@ -5240,7 +5371,7 @@
         <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>89070.342517446</v>
+        <v>56196.4071255644</v>
       </c>
     </row>
     <row r="57">
@@ -5248,7 +5379,7 @@
         <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>87248.2710899509</v>
+        <v>51098.4323267201</v>
       </c>
     </row>
     <row r="58">
@@ -5256,7 +5387,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>84771.822909565</v>
+        <v>43618.0813636019</v>
       </c>
     </row>
     <row r="59">
@@ -5264,7 +5395,7 @@
         <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>83194.7912736182</v>
+        <v>38203.8302780473</v>
       </c>
     </row>
     <row r="60">
@@ -5272,7 +5403,7 @@
         <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>82517.1761821108</v>
+        <v>34855.6790700564</v>
       </c>
     </row>
     <row r="61">
@@ -5280,7 +5411,7 @@
         <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>82738.9776350426</v>
+        <v>33573.6277396291</v>
       </c>
     </row>
     <row r="62">
@@ -5288,7 +5419,7 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>83860.1956324137</v>
+        <v>34357.6762867654</v>
       </c>
     </row>
     <row r="63">
@@ -5296,7 +5427,7 @@
         <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>84741.3525537902</v>
+        <v>35090.8820651024</v>
       </c>
     </row>
     <row r="64">
@@ -5304,7 +5435,7 @@
         <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>85382.4483991721</v>
+        <v>35773.24507464</v>
       </c>
     </row>
     <row r="65">
@@ -5312,7 +5443,7 @@
         <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>85783.4831685595</v>
+        <v>36404.7653153784</v>
       </c>
     </row>
     <row r="66">
@@ -5320,7 +5451,7 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>85944.4568619522</v>
+        <v>36985.4427873174</v>
       </c>
     </row>
     <row r="67">
@@ -5328,7 +5459,7 @@
         <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>87036.1652846053</v>
+        <v>37319.2536068647</v>
       </c>
     </row>
     <row r="68">
@@ -5336,7 +5467,7 @@
         <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>89058.6084365188</v>
+        <v>37406.1977740202</v>
       </c>
     </row>
     <row r="69">
@@ -5344,7 +5475,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>92011.7863176926</v>
+        <v>37246.275288784</v>
       </c>
     </row>
     <row r="70">
@@ -5352,7 +5483,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>95895.6989281267</v>
+        <v>36839.4861511561</v>
       </c>
     </row>
     <row r="71">
@@ -5360,7 +5491,7 @@
         <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>96327.9144165981</v>
+        <v>36923.4043514015</v>
       </c>
     </row>
     <row r="72">
@@ -5368,7 +5499,7 @@
         <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>93308.4327831069</v>
+        <v>37498.0298895202</v>
       </c>
     </row>
     <row r="73">
@@ -5376,7 +5507,7 @@
         <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>86837.2540276528</v>
+        <v>38563.3627655123</v>
       </c>
     </row>
     <row r="74">
@@ -5384,7 +5515,7 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>76914.3781502361</v>
+        <v>40119.4029793776</v>
       </c>
     </row>
     <row r="75">
@@ -5392,7 +5523,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>69998.276539175</v>
+        <v>41193.5578731727</v>
       </c>
     </row>
     <row r="76">
@@ -5400,7 +5531,7 @@
         <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>66088.9491944695</v>
+        <v>41785.8274468975</v>
       </c>
     </row>
     <row r="77">
@@ -5408,7 +5539,7 @@
         <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>65186.3961161196</v>
+        <v>41896.2117005519</v>
       </c>
     </row>
     <row r="78">
@@ -5416,7 +5547,7 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>67290.6173041254</v>
+        <v>41524.7106341361</v>
       </c>
     </row>
     <row r="79">
@@ -5424,7 +5555,7 @@
         <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>69948.1588576775</v>
+        <v>41565.3259539153</v>
       </c>
     </row>
     <row r="80">
@@ -5432,7 +5563,7 @@
         <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>73159.0207767761</v>
+        <v>42018.0576598896</v>
       </c>
     </row>
     <row r="81">
@@ -5440,7 +5571,7 @@
         <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>76923.2030614211</v>
+        <v>42882.9057520589</v>
       </c>
     </row>
     <row r="82">
@@ -5448,7 +5579,7 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>81240.7057116126</v>
+        <v>44159.8702304234</v>
       </c>
     </row>
     <row r="83">
@@ -5456,7 +5587,7 @@
         <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>83469.5549107905</v>
+        <v>44995.848529149</v>
       </c>
     </row>
     <row r="84">
@@ -5464,7 +5595,7 @@
         <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>83609.7506589548</v>
+        <v>45390.8406482358</v>
       </c>
     </row>
     <row r="85">
@@ -5472,7 +5603,7 @@
         <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>81661.2929561057</v>
+        <v>45344.8465876838</v>
       </c>
     </row>
     <row r="86">
@@ -5480,7 +5611,7 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>77624.181802243</v>
+        <v>44857.8663474929</v>
       </c>
     </row>
     <row r="87">
@@ -5488,7 +5619,7 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>75363.9312839926</v>
+        <v>45263.7366228095</v>
       </c>
     </row>
     <row r="88">
@@ -5496,7 +5627,7 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>74880.5414013546</v>
+        <v>46562.4574136337</v>
       </c>
     </row>
     <row r="89">
@@ -5504,7 +5635,7 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>76174.012154329</v>
+        <v>48754.0287199654</v>
       </c>
     </row>
     <row r="90">
@@ -5512,7 +5643,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>79244.3435429157</v>
+        <v>51838.4505418046</v>
       </c>
     </row>
     <row r="91">
@@ -5520,7 +5651,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>81357.8309407953</v>
+        <v>53495.6339657626</v>
       </c>
     </row>
     <row r="92">
@@ -5528,7 +5659,7 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>82514.4743479678</v>
+        <v>53725.5789918394</v>
       </c>
     </row>
     <row r="93">
@@ -5536,7 +5667,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>82714.2737644332</v>
+        <v>52528.2856200349</v>
       </c>
     </row>
     <row r="94">
@@ -5544,7 +5675,7 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>81957.2291901916</v>
+        <v>49903.7538503493</v>
       </c>
     </row>
     <row r="95">
@@ -5552,7 +5683,7 @@
         <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>81389.4457595103</v>
+        <v>47935.355023085</v>
       </c>
     </row>
     <row r="96">
@@ -5560,7 +5691,7 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>81010.9234723895</v>
+        <v>46623.0891382422</v>
       </c>
     </row>
     <row r="97">
@@ -5568,7 +5699,7 @@
         <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>80821.662328829</v>
+        <v>45966.9561958208</v>
       </c>
     </row>
     <row r="98">
@@ -5576,7 +5707,7 @@
         <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>80713.8125477876</v>
+        <v>46101.4885061655</v>
       </c>
     </row>
     <row r="99">
@@ -5584,7 +5715,7 @@
         <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>80973.3485493497</v>
+        <v>46233.7683055243</v>
       </c>
     </row>
     <row r="100">
@@ -5592,7 +5723,7 @@
         <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>81532.5684648005</v>
+        <v>46471.4900433298</v>
       </c>
     </row>
     <row r="101">
@@ -5600,7 +5731,7 @@
         <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>82344.993531538</v>
+        <v>46904.8177181663</v>
       </c>
     </row>
     <row r="102">
@@ -5608,7 +5739,7 @@
         <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>83504.667117714</v>
+        <v>47436.3069697193</v>
       </c>
     </row>
     <row r="103">
@@ -5616,7 +5747,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>83985.8556416673</v>
+        <v>47586.0528654072</v>
       </c>
     </row>
     <row r="104">
@@ -5624,7 +5755,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>83868.3677022675</v>
+        <v>47255.5044622436</v>
       </c>
     </row>
     <row r="105">
@@ -5632,7 +5763,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>83218.4057538818</v>
+        <v>46353.1074922232</v>
       </c>
     </row>
     <row r="106">
@@ -5640,7 +5771,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>82016.8747844662</v>
+        <v>44911.5837625603</v>
       </c>
     </row>
     <row r="107">
@@ -5648,7 +5779,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>81263.8998912108</v>
+        <v>44116.0497360791</v>
       </c>
     </row>
     <row r="108">
@@ -5656,7 +5787,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>80936.3999808225</v>
+        <v>44001.685828423</v>
       </c>
     </row>
     <row r="109">
@@ -5664,7 +5795,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>81012.4346150471</v>
+        <v>44601.9020712238</v>
       </c>
     </row>
     <row r="110">
@@ -5672,7 +5803,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>81477.619403895</v>
+        <v>45927.8756602889</v>
       </c>
     </row>
     <row r="111">
@@ -5680,7 +5811,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>81851.4423254337</v>
+        <v>46820.020592251</v>
       </c>
     </row>
     <row r="112">
@@ -5688,7 +5819,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>82124.8026399312</v>
+        <v>47284.8655798284</v>
       </c>
     </row>
     <row r="113">
@@ -5696,7 +5827,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>82291.4134655213</v>
+        <v>47326.8117282661</v>
       </c>
     </row>
     <row r="114">
@@ -5704,7 +5835,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>82384.4098698798</v>
+        <v>46888.5781696175</v>
       </c>
     </row>
     <row r="115">
@@ -5712,7 +5843,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>82337.3071747549</v>
+        <v>46541.1951061858</v>
       </c>
     </row>
     <row r="116">
@@ -5720,7 +5851,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>82173.6523184357</v>
+        <v>46236.4076187305</v>
       </c>
     </row>
     <row r="117">
@@ -5728,7 +5859,135 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>81911.1196712192</v>
+        <v>45932.7586384832</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="n">
+        <v>45685.52877624</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="n">
+        <v>45622.6299707403</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="n">
+        <v>45796.3738811596</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="n">
+        <v>46254.1049163556</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="n">
+        <v>46968.4508176913</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="n">
+        <v>47360.1161762543</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="n">
+        <v>47401.059224284</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="n">
+        <v>47065.104047785</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" t="n">
+        <v>46349.3049631242</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" t="n">
+        <v>45891.8456566784</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="n">
+        <v>45692.7894229164</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" t="n">
+        <v>45753.2552646808</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" t="n">
+        <v>46099.7057945203</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" t="n">
+        <v>46357.2118481965</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" t="n">
+        <v>46548.101655736</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" t="n">
+        <v>46691.5728060987</v>
       </c>
     </row>
   </sheetData>
@@ -5747,10 +6006,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -5758,7 +6017,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>98145.6928822036</v>
+        <v>45198.5804189327</v>
       </c>
     </row>
     <row r="3">
@@ -5766,7 +6025,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>98400.5117931836</v>
+        <v>45885.53580657</v>
       </c>
     </row>
     <row r="4">
@@ -5774,7 +6033,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>98910.1496151438</v>
+        <v>47259.4465818447</v>
       </c>
     </row>
     <row r="5">
@@ -5782,7 +6041,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>99674.606348084</v>
+        <v>49320.3127447567</v>
       </c>
     </row>
     <row r="6">
@@ -5790,7 +6049,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>100693.881992004</v>
+        <v>52068.1342953061</v>
       </c>
     </row>
     <row r="7">
@@ -5798,7 +6057,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>102470.334617543</v>
+        <v>53661.1000750963</v>
       </c>
     </row>
     <row r="8">
@@ -5806,7 +6065,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>105003.964224699</v>
+        <v>54099.2100841275</v>
       </c>
     </row>
     <row r="9">
@@ -5814,7 +6073,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>108294.770813473</v>
+        <v>53382.4643223996</v>
       </c>
     </row>
     <row r="10">
@@ -5822,7 +6081,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>112342.754383865</v>
+        <v>51510.8627899126</v>
       </c>
     </row>
     <row r="11">
@@ -5830,7 +6089,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>115275.305086806</v>
+        <v>49789.3979520077</v>
       </c>
     </row>
     <row r="12">
@@ -5838,7 +6097,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="n">
-        <v>117092.422922295</v>
+        <v>48218.0698086849</v>
       </c>
     </row>
     <row r="13">
@@ -5846,7 +6105,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>117794.107890333</v>
+        <v>46796.8783599443</v>
       </c>
     </row>
     <row r="14">
@@ -5854,7 +6113,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>117380.359990919</v>
+        <v>45525.8236057858</v>
       </c>
     </row>
     <row r="15">
@@ -5862,7 +6121,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>117384.915832139</v>
+        <v>45068.5874917475</v>
       </c>
     </row>
     <row r="16">
@@ -5870,7 +6129,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="n">
-        <v>117807.775413993</v>
+        <v>45425.1700178292</v>
       </c>
     </row>
     <row r="17">
@@ -5878,7 +6137,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>118648.938736482</v>
+        <v>46595.571184031</v>
       </c>
     </row>
     <row r="18">
@@ -5886,7 +6145,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>119908.405799604</v>
+        <v>48579.790990353</v>
       </c>
     </row>
     <row r="19">
@@ -5894,7 +6153,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>122153.900851008</v>
+        <v>49291.4277337384</v>
       </c>
     </row>
     <row r="20">
@@ -5902,7 +6161,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>125385.423890695</v>
+        <v>48730.4814141871</v>
       </c>
     </row>
     <row r="21">
@@ -5910,7 +6169,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>129602.974918664</v>
+        <v>46896.9520316994</v>
       </c>
     </row>
     <row r="22">
@@ -5918,7 +6177,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>134806.553934915</v>
+        <v>43790.839586275</v>
       </c>
     </row>
     <row r="23">
@@ -5926,7 +6185,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>135942.489433511</v>
+        <v>41968.0057235355</v>
       </c>
     </row>
     <row r="24">
@@ -5934,7 +6193,7 @@
         <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>133010.781414452</v>
+        <v>41428.4504434809</v>
       </c>
     </row>
     <row r="25">
@@ -5942,7 +6201,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>126011.429877738</v>
+        <v>42172.1737461112</v>
       </c>
     </row>
     <row r="26">
@@ -5950,7 +6209,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>114944.43482337</v>
+        <v>44199.1756314263</v>
       </c>
     </row>
     <row r="27">
@@ -5958,7 +6217,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>106793.749969574</v>
+        <v>45823.6690150728</v>
       </c>
     </row>
     <row r="28">
@@ -5966,7 +6225,7 @@
         <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>101559.375316351</v>
+        <v>47045.6538970505</v>
       </c>
     </row>
     <row r="29">
@@ -5974,7 +6233,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>99241.3108636997</v>
+        <v>47865.1302773596</v>
       </c>
     </row>
     <row r="30">
@@ -5982,7 +6241,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>99839.556611621</v>
+        <v>48282.098156</v>
       </c>
     </row>
     <row r="31">
@@ -5990,7 +6249,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>99997.1527601916</v>
+        <v>48809.2436805427</v>
       </c>
     </row>
     <row r="32">
@@ -5998,7 +6257,7 @@
         <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>99714.0993094116</v>
+        <v>49446.5668509876</v>
       </c>
     </row>
     <row r="33">
@@ -6006,7 +6265,7 @@
         <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>98990.396259281</v>
+        <v>50194.0676673349</v>
       </c>
     </row>
     <row r="34">
@@ -6014,7 +6273,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>97826.0436097996</v>
+        <v>51051.7461295843</v>
       </c>
     </row>
     <row r="35">
@@ -6022,7 +6281,7 @@
         <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>97149.9699293736</v>
+        <v>51645.2333431943</v>
       </c>
     </row>
     <row r="36">
@@ -6030,7 +6289,7 @@
         <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>96962.1752180029</v>
+        <v>51974.5293081647</v>
       </c>
     </row>
     <row r="37">
@@ -6038,7 +6297,7 @@
         <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>97262.6594756875</v>
+        <v>52039.6340244956</v>
       </c>
     </row>
     <row r="38">
@@ -6046,7 +6305,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>98051.4227024274</v>
+        <v>51840.5474921869</v>
       </c>
     </row>
     <row r="39">
@@ -6054,7 +6313,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>98200.4060429715</v>
+        <v>52534.8031918318</v>
       </c>
     </row>
     <row r="40">
@@ -6062,7 +6321,7 @@
         <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>97709.6094973197</v>
+        <v>54122.4011234301</v>
       </c>
     </row>
     <row r="41">
@@ -6070,7 +6329,7 @@
         <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>96579.0330654722</v>
+        <v>56603.341286982</v>
       </c>
     </row>
     <row r="42">
@@ -6078,7 +6337,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>94808.6767474289</v>
+        <v>59977.6236824873</v>
       </c>
     </row>
     <row r="43">
@@ -6086,7 +6345,7 @@
         <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>93294.4985679922</v>
+        <v>61806.3870223084</v>
       </c>
     </row>
     <row r="44">
@@ -6094,7 +6353,7 @@
         <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>92036.4985271622</v>
+        <v>62089.6313064452</v>
       </c>
     </row>
     <row r="45">
@@ -6102,7 +6361,7 @@
         <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>91034.6766249387</v>
+        <v>60827.3565348979</v>
       </c>
     </row>
     <row r="46">
@@ -6110,7 +6369,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>90289.0328613219</v>
+        <v>58019.5627076662</v>
       </c>
     </row>
     <row r="47">
@@ -6118,7 +6377,7 @@
         <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>89806.5588398544</v>
+        <v>55933.3718390343</v>
       </c>
     </row>
     <row r="48">
@@ -6126,7 +6385,7 @@
         <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>89587.2545605363</v>
+        <v>54568.783929002</v>
       </c>
     </row>
     <row r="49">
@@ -6134,7 +6393,7 @@
         <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>89631.1200233675</v>
+        <v>53925.7989775694</v>
       </c>
     </row>
     <row r="50">
@@ -6142,7 +6401,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>89938.1552283481</v>
+        <v>54004.4169847365</v>
       </c>
     </row>
     <row r="51">
@@ -6150,7 +6409,7 @@
         <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>90203.696339878</v>
+        <v>54575.6689136063</v>
       </c>
     </row>
     <row r="52">
@@ -6158,7 +6417,7 @@
         <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>90427.7433579571</v>
+        <v>55639.5547641786</v>
       </c>
     </row>
     <row r="53">
@@ -6166,7 +6425,7 @@
         <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>90610.2962825856</v>
+        <v>57196.0745364535</v>
       </c>
     </row>
     <row r="54">
@@ -6174,7 +6433,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>90751.3551137633</v>
+        <v>59245.2282304311</v>
       </c>
     </row>
     <row r="55">
@@ -6182,7 +6441,7 @@
         <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>90238.0371920501</v>
+        <v>58912.0057601347</v>
       </c>
     </row>
     <row r="56">
@@ -6190,7 +6449,7 @@
         <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>89070.342517446</v>
+        <v>56196.4071255644</v>
       </c>
     </row>
     <row r="57">
@@ -6198,7 +6457,7 @@
         <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>87248.2710899509</v>
+        <v>51098.4323267201</v>
       </c>
     </row>
     <row r="58">
@@ -6206,7 +6465,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>84771.822909565</v>
+        <v>43618.0813636019</v>
       </c>
     </row>
     <row r="59">
@@ -6214,7 +6473,7 @@
         <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>83194.7912736182</v>
+        <v>38203.8302780473</v>
       </c>
     </row>
     <row r="60">
@@ -6222,7 +6481,7 @@
         <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>82517.1761821108</v>
+        <v>34855.6790700564</v>
       </c>
     </row>
     <row r="61">
@@ -6230,7 +6489,7 @@
         <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>82738.9776350426</v>
+        <v>33573.6277396291</v>
       </c>
     </row>
     <row r="62">
@@ -6238,7 +6497,7 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>83860.1956324137</v>
+        <v>34357.6762867654</v>
       </c>
     </row>
     <row r="63">
@@ -6246,7 +6505,7 @@
         <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>84741.3525537902</v>
+        <v>35090.8820651024</v>
       </c>
     </row>
     <row r="64">
@@ -6254,7 +6513,7 @@
         <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>85382.4483991721</v>
+        <v>35773.24507464</v>
       </c>
     </row>
     <row r="65">
@@ -6262,7 +6521,7 @@
         <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>85783.4831685595</v>
+        <v>36404.7653153784</v>
       </c>
     </row>
     <row r="66">
@@ -6270,7 +6529,7 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>85944.4568619522</v>
+        <v>36985.4427873174</v>
       </c>
     </row>
     <row r="67">
@@ -6278,7 +6537,7 @@
         <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>87036.1652846053</v>
+        <v>37319.2536068647</v>
       </c>
     </row>
     <row r="68">
@@ -6286,7 +6545,7 @@
         <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>89058.6084365188</v>
+        <v>37406.1977740202</v>
       </c>
     </row>
     <row r="69">
@@ -6294,7 +6553,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>92011.7863176926</v>
+        <v>37246.275288784</v>
       </c>
     </row>
     <row r="70">
@@ -6302,7 +6561,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>95895.6989281267</v>
+        <v>36839.4861511561</v>
       </c>
     </row>
     <row r="71">
@@ -6310,7 +6569,7 @@
         <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>96327.9144165981</v>
+        <v>36923.4043514015</v>
       </c>
     </row>
     <row r="72">
@@ -6318,7 +6577,7 @@
         <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>93308.4327831069</v>
+        <v>37498.0298895202</v>
       </c>
     </row>
     <row r="73">
@@ -6326,7 +6585,7 @@
         <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>86837.2540276528</v>
+        <v>38563.3627655123</v>
       </c>
     </row>
     <row r="74">
@@ -6334,7 +6593,7 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>76914.3781502361</v>
+        <v>40119.4029793776</v>
       </c>
     </row>
     <row r="75">
@@ -6342,7 +6601,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>69998.276539175</v>
+        <v>41193.5578731727</v>
       </c>
     </row>
     <row r="76">
@@ -6350,7 +6609,7 @@
         <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>66088.9491944695</v>
+        <v>41785.8274468975</v>
       </c>
     </row>
     <row r="77">
@@ -6358,7 +6617,7 @@
         <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>65186.3961161196</v>
+        <v>41896.2117005519</v>
       </c>
     </row>
     <row r="78">
@@ -6366,7 +6625,7 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>67290.6173041254</v>
+        <v>41524.7106341361</v>
       </c>
     </row>
     <row r="79">
@@ -6374,7 +6633,7 @@
         <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>69948.1588576775</v>
+        <v>41565.3259539153</v>
       </c>
     </row>
     <row r="80">
@@ -6382,7 +6641,7 @@
         <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>73159.0207767761</v>
+        <v>42018.0576598896</v>
       </c>
     </row>
     <row r="81">
@@ -6390,7 +6649,7 @@
         <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>76923.2030614211</v>
+        <v>42882.9057520589</v>
       </c>
     </row>
     <row r="82">
@@ -6398,7 +6657,7 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>81240.7057116126</v>
+        <v>44159.8702304234</v>
       </c>
     </row>
     <row r="83">
@@ -6406,7 +6665,7 @@
         <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>83469.5549107905</v>
+        <v>44995.848529149</v>
       </c>
     </row>
     <row r="84">
@@ -6414,7 +6673,7 @@
         <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>83609.7506589548</v>
+        <v>45390.8406482358</v>
       </c>
     </row>
     <row r="85">
@@ -6422,7 +6681,7 @@
         <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>81661.2929561057</v>
+        <v>45344.8465876838</v>
       </c>
     </row>
     <row r="86">
@@ -6430,7 +6689,7 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>77624.181802243</v>
+        <v>44857.8663474929</v>
       </c>
     </row>
     <row r="87">
@@ -6438,7 +6697,7 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>75363.9312839926</v>
+        <v>45263.7366228095</v>
       </c>
     </row>
     <row r="88">
@@ -6446,7 +6705,7 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>74880.5414013546</v>
+        <v>46562.4574136337</v>
       </c>
     </row>
     <row r="89">
@@ -6454,7 +6713,7 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>76174.012154329</v>
+        <v>48754.0287199654</v>
       </c>
     </row>
     <row r="90">
@@ -6462,7 +6721,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>79244.3435429157</v>
+        <v>51838.4505418046</v>
       </c>
     </row>
     <row r="91">
@@ -6470,7 +6729,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>81357.8309407953</v>
+        <v>53495.6339657626</v>
       </c>
     </row>
     <row r="92">
@@ -6478,7 +6737,7 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>82514.4743479678</v>
+        <v>53725.5789918394</v>
       </c>
     </row>
     <row r="93">
@@ -6486,7 +6745,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>82714.2737644332</v>
+        <v>52528.2856200349</v>
       </c>
     </row>
     <row r="94">
@@ -6494,7 +6753,7 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>81957.2291901916</v>
+        <v>49903.7538503493</v>
       </c>
     </row>
     <row r="95">
@@ -6502,7 +6761,7 @@
         <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>81389.4457595103</v>
+        <v>47935.355023085</v>
       </c>
     </row>
     <row r="96">
@@ -6510,7 +6769,7 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>81010.9234723895</v>
+        <v>46623.0891382422</v>
       </c>
     </row>
     <row r="97">
@@ -6518,7 +6777,7 @@
         <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>80821.662328829</v>
+        <v>45966.9561958208</v>
       </c>
     </row>
     <row r="98">
@@ -6526,7 +6785,7 @@
         <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>80713.8125477876</v>
+        <v>46101.4885061655</v>
       </c>
     </row>
     <row r="99">
@@ -6534,7 +6793,7 @@
         <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>80973.3485493497</v>
+        <v>46233.7683055243</v>
       </c>
     </row>
     <row r="100">
@@ -6542,7 +6801,7 @@
         <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>81532.5684648005</v>
+        <v>46471.4900433298</v>
       </c>
     </row>
     <row r="101">
@@ -6550,7 +6809,7 @@
         <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>82344.993531538</v>
+        <v>46904.8177181663</v>
       </c>
     </row>
     <row r="102">
@@ -6558,7 +6817,7 @@
         <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>83504.667117714</v>
+        <v>47436.3069697193</v>
       </c>
     </row>
     <row r="103">
@@ -6566,7 +6825,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>83985.8556416673</v>
+        <v>47586.0528654072</v>
       </c>
     </row>
     <row r="104">
@@ -6574,7 +6833,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>83868.3677022675</v>
+        <v>47255.5044622436</v>
       </c>
     </row>
     <row r="105">
@@ -6582,7 +6841,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>83218.4057538818</v>
+        <v>46353.1074922232</v>
       </c>
     </row>
     <row r="106">
@@ -6590,7 +6849,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>82016.8747844662</v>
+        <v>44911.5837625603</v>
       </c>
     </row>
     <row r="107">
@@ -6598,7 +6857,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>81263.8998912108</v>
+        <v>44116.0497360791</v>
       </c>
     </row>
     <row r="108">
@@ -6606,7 +6865,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>80936.3999808225</v>
+        <v>44001.685828423</v>
       </c>
     </row>
     <row r="109">
@@ -6614,7 +6873,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>81012.4346150471</v>
+        <v>44601.9020712238</v>
       </c>
     </row>
     <row r="110">
@@ -6622,7 +6881,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>81477.619403895</v>
+        <v>45927.8756602889</v>
       </c>
     </row>
     <row r="111">
@@ -6630,7 +6889,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>81851.4423254337</v>
+        <v>46820.020592251</v>
       </c>
     </row>
     <row r="112">
@@ -6638,7 +6897,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>82124.8026399312</v>
+        <v>47284.8655798284</v>
       </c>
     </row>
     <row r="113">
@@ -6646,7 +6905,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>82291.4134655213</v>
+        <v>47326.8117282661</v>
       </c>
     </row>
     <row r="114">
@@ -6654,7 +6913,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>82384.4098698798</v>
+        <v>46888.5781696175</v>
       </c>
     </row>
     <row r="115">
@@ -6662,7 +6921,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>82337.3071747549</v>
+        <v>46541.1951061858</v>
       </c>
     </row>
     <row r="116">
@@ -6670,7 +6929,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>82173.6523184357</v>
+        <v>46236.4076187305</v>
       </c>
     </row>
     <row r="117">
@@ -6678,7 +6937,135 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>81911.1196712192</v>
+        <v>45932.7586384832</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="n">
+        <v>45685.52877624</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="n">
+        <v>45622.6299707403</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="n">
+        <v>45796.3738811596</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="n">
+        <v>46254.1049163556</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="n">
+        <v>46968.4508176913</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="n">
+        <v>47360.1161762543</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="n">
+        <v>47401.059224284</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="n">
+        <v>47065.104047785</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" t="n">
+        <v>46349.3049631242</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" t="n">
+        <v>45891.8456566784</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="n">
+        <v>45692.7894229164</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" t="n">
+        <v>45753.2552646808</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" t="n">
+        <v>46099.7057945203</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" t="n">
+        <v>46357.2118481965</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" t="n">
+        <v>46548.101655736</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" t="n">
+        <v>46691.5728060987</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_SYL.xlsx
+++ b/VA_result_SYL.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">ANNEE</t>
   </si>
@@ -98,249 +98,249 @@
     <t xml:space="preserve">2020-01-01</t>
   </si>
   <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021-01-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">2022-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-04-01</t>
   </si>
   <si>
@@ -509,12 +509,6 @@
     <t xml:space="preserve">2020</t>
   </si>
   <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">time</t>
   </si>
   <si>
@@ -539,73 +533,58 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09494701772928e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6843418860808e-13</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.41060513164848e-13</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12114786740858e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.12638803734444e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.9475983006414e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.8421709430404e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.5265128291212e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.13686837721616e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.30739863379858e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.36424205265939e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.3926637620898e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.67688085639384e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.81898940354586e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.87583282240666e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.52953213930596e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.33058017329313e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.61479726759717e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.30215846386272e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.79056769411545e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.98951966012828e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.90425453183707e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.76214598468505e-12</t>
+    <t xml:space="preserve">3.97903932025656e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95807864051312e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70530256582424e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53699316899292e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19371179607697e-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66862137627322e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2632564145606e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24229573481716e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25277607468888e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10844666778576e-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37916411203332e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82121026329696e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.98951966012828e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.5265128291212e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.27373675443232e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6843418860808e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.70530256582424e-13</t>
   </si>
 </sst>
 </file>
@@ -1079,16 +1058,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1105,7 +1074,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -1115,17 +1084,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1135,17 +1104,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1155,17 +1124,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1175,17 +1144,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -1195,17 +1164,17 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -1215,17 +1184,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -1235,17 +1204,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -1255,17 +1224,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -1275,17 +1244,17 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
@@ -1295,17 +1264,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1315,17 +1284,17 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -1335,17 +1304,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50">
@@ -1355,17 +1324,17 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
@@ -1375,17 +1344,17 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58">
@@ -1395,17 +1364,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
@@ -1415,17 +1384,17 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
@@ -1435,17 +1404,17 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
@@ -1455,17 +1424,17 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -1475,17 +1444,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
@@ -1495,17 +1464,17 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
@@ -1515,17 +1484,17 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
@@ -1535,17 +1504,17 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
@@ -1555,17 +1524,17 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
@@ -1575,17 +1544,17 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98">
@@ -1595,42 +1564,42 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
@@ -1932,16 +1901,6 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>164</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1958,7 +1917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -1968,17 +1927,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1988,17 +1947,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -2008,17 +1967,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -2028,17 +1987,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2048,17 +2007,17 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -2068,17 +2027,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -2088,17 +2047,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -2108,17 +2067,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
@@ -2128,17 +2087,17 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
@@ -2148,17 +2107,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">
@@ -2168,17 +2127,17 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
@@ -2188,17 +2147,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
@@ -2208,17 +2167,17 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54">
@@ -2228,17 +2187,17 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
@@ -2248,17 +2207,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
@@ -2268,17 +2227,17 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
@@ -2288,17 +2247,17 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
@@ -2308,17 +2267,17 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74">
@@ -2328,17 +2287,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78">
@@ -2348,17 +2307,17 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
@@ -2368,17 +2327,17 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
@@ -2388,17 +2347,17 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
@@ -2408,17 +2367,17 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
@@ -2428,57 +2387,17 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2497,28 +2416,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -2538,18 +2457,18 @@
         <v>113.236319647548</v>
       </c>
       <c r="F2" t="n">
-        <v>443.27567232206</v>
+        <v>443.275672322059</v>
       </c>
       <c r="G2" t="n">
         <v>113.236319647548</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>443.275672322059</v>
@@ -2564,18 +2483,18 @@
         <v>112.269359020735</v>
       </c>
       <c r="F3" t="n">
-        <v>443.27567232206</v>
+        <v>443.275672322059</v>
       </c>
       <c r="G3" t="n">
         <v>112.269359020735</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
         <v>443.275672322059</v>
@@ -2590,18 +2509,18 @@
         <v>110.335437767108</v>
       </c>
       <c r="F4" t="n">
-        <v>443.27567232206</v>
+        <v>443.275672322059</v>
       </c>
       <c r="G4" t="n">
         <v>110.335437767108</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
         <v>443.275672322059</v>
@@ -2616,13 +2535,13 @@
         <v>107.434555886668</v>
       </c>
       <c r="F5" t="n">
-        <v>443.27567232206</v>
+        <v>443.275672322059</v>
       </c>
       <c r="G5" t="n">
         <v>107.434555886668</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
@@ -2642,18 +2561,18 @@
         <v>103.566713379415</v>
       </c>
       <c r="F6" t="n">
-        <v>414.865234819085</v>
+        <v>414.865234819084</v>
       </c>
       <c r="G6" t="n">
         <v>103.566713379415</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
         <v>414.865234819084</v>
@@ -2668,18 +2587,18 @@
         <v>102.079414506656</v>
       </c>
       <c r="F7" t="n">
-        <v>414.865234819085</v>
+        <v>414.865234819084</v>
       </c>
       <c r="G7" t="n">
         <v>102.079414506656</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>414.865234819084</v>
@@ -2694,18 +2613,18 @@
         <v>102.972659268392</v>
       </c>
       <c r="F8" t="n">
-        <v>414.865234819085</v>
+        <v>414.865234819084</v>
       </c>
       <c r="G8" t="n">
         <v>102.972659268392</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>414.865234819084</v>
@@ -2720,13 +2639,13 @@
         <v>106.246447664622</v>
       </c>
       <c r="F9" t="n">
-        <v>414.865234819085</v>
+        <v>414.865234819084</v>
       </c>
       <c r="G9" t="n">
         <v>106.246447664622</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
@@ -2752,12 +2671,12 @@
         <v>111.900779695347</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>457.048888662114</v>
@@ -2766,24 +2685,24 @@
         <v>457.048888662114</v>
       </c>
       <c r="D11" t="n">
-        <v>115.107089495709</v>
+        <v>115.10708949571</v>
       </c>
       <c r="E11" t="n">
-        <v>115.107089495709</v>
+        <v>115.10708949571</v>
       </c>
       <c r="F11" t="n">
         <v>457.048888662115</v>
       </c>
       <c r="G11" t="n">
-        <v>115.107089495709</v>
+        <v>115.10708949571</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n">
         <v>457.048888662114</v>
@@ -2804,12 +2723,12 @@
         <v>115.86537706571</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
         <v>457.048888662114</v>
@@ -2830,7 +2749,7 @@
         <v>114.175642405349</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
@@ -2844,24 +2763,24 @@
         <v>370.102559957837</v>
       </c>
       <c r="D14" t="n">
-        <v>110.037885514626</v>
+        <v>110.037885514625</v>
       </c>
       <c r="E14" t="n">
-        <v>110.037885514626</v>
+        <v>110.037885514625</v>
       </c>
       <c r="F14" t="n">
         <v>370.102559957838</v>
       </c>
       <c r="G14" t="n">
-        <v>110.037885514626</v>
+        <v>110.037885514625</v>
       </c>
       <c r="H14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
         <v>370.102559957837</v>
@@ -2882,12 +2801,12 @@
         <v>101.37788454827</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="n">
         <v>370.102559957837</v>
@@ -2908,12 +2827,12 @@
         <v>88.1956395062815</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="n">
         <v>370.102559957837</v>
@@ -2922,19 +2841,19 @@
         <v>370.102559957837</v>
       </c>
       <c r="D17" t="n">
-        <v>70.4911503886598</v>
+        <v>70.4911503886612</v>
       </c>
       <c r="E17" t="n">
-        <v>70.4911503886598</v>
+        <v>70.4911503886612</v>
       </c>
       <c r="F17" t="n">
         <v>370.102559957838</v>
       </c>
       <c r="G17" t="n">
-        <v>70.4911503886598</v>
+        <v>70.4911503886612</v>
       </c>
       <c r="H17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
@@ -2948,24 +2867,24 @@
         <v>122.74108702398</v>
       </c>
       <c r="D18" t="n">
-        <v>48.2644171954051</v>
+        <v>48.2644171954086</v>
       </c>
       <c r="E18" t="n">
-        <v>48.2644171954051</v>
+        <v>48.2644171954086</v>
       </c>
       <c r="F18" t="n">
         <v>122.74108702398</v>
       </c>
       <c r="G18" t="n">
-        <v>48.2644171954051</v>
+        <v>48.2644171954086</v>
       </c>
       <c r="H18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
         <v>122.74108702398</v>
@@ -2974,24 +2893,24 @@
         <v>122.74108702398</v>
       </c>
       <c r="D19" t="n">
-        <v>32.3420657423392</v>
+        <v>32.3420657423422</v>
       </c>
       <c r="E19" t="n">
-        <v>32.3420657423392</v>
+        <v>32.3420657423422</v>
       </c>
       <c r="F19" t="n">
         <v>122.74108702398</v>
       </c>
       <c r="G19" t="n">
-        <v>32.3420657423392</v>
+        <v>32.3420657423422</v>
       </c>
       <c r="H19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
         <v>122.74108702398</v>
@@ -3000,24 +2919,24 @@
         <v>122.74108702398</v>
       </c>
       <c r="D20" t="n">
-        <v>22.724096029462</v>
+        <v>22.7240960294618</v>
       </c>
       <c r="E20" t="n">
-        <v>22.724096029462</v>
+        <v>22.7240960294618</v>
       </c>
       <c r="F20" t="n">
         <v>122.74108702398</v>
       </c>
       <c r="G20" t="n">
-        <v>22.724096029462</v>
+        <v>22.7240960294618</v>
       </c>
       <c r="H20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
         <v>122.74108702398</v>
@@ -3026,19 +2945,19 @@
         <v>122.74108702398</v>
       </c>
       <c r="D21" t="n">
-        <v>19.4105080567737</v>
+        <v>19.4105080567677</v>
       </c>
       <c r="E21" t="n">
-        <v>19.4105080567737</v>
+        <v>19.4105080567677</v>
       </c>
       <c r="F21" t="n">
         <v>122.74108702398</v>
       </c>
       <c r="G21" t="n">
-        <v>19.4105080567737</v>
+        <v>19.4105080567677</v>
       </c>
       <c r="H21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
@@ -3052,24 +2971,24 @@
         <v>98.2399478315001</v>
       </c>
       <c r="D22" t="n">
-        <v>22.401301824274</v>
+        <v>22.4013018242597</v>
       </c>
       <c r="E22" t="n">
-        <v>22.401301824274</v>
+        <v>22.4013018242597</v>
       </c>
       <c r="F22" t="n">
-        <v>98.2399478314998</v>
+        <v>98.2399478315013</v>
       </c>
       <c r="G22" t="n">
-        <v>22.401301824274</v>
+        <v>22.4013018242597</v>
       </c>
       <c r="H22" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="n">
         <v>98.2399478315001</v>
@@ -3078,24 +2997,24 @@
         <v>98.2399478315001</v>
       </c>
       <c r="D23" t="n">
-        <v>24.4610933847145</v>
+        <v>24.4610933847027</v>
       </c>
       <c r="E23" t="n">
-        <v>24.4610933847145</v>
+        <v>24.4610933847027</v>
       </c>
       <c r="F23" t="n">
-        <v>98.2399478314998</v>
+        <v>98.2399478315013</v>
       </c>
       <c r="G23" t="n">
-        <v>24.4610933847145</v>
+        <v>24.4610933847027</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
         <v>98.2399478315001</v>
@@ -3104,24 +3023,24 @@
         <v>98.2399478315001</v>
       </c>
       <c r="D24" t="n">
-        <v>25.5898827380952</v>
+        <v>25.5898827380968</v>
       </c>
       <c r="E24" t="n">
-        <v>25.5898827380952</v>
+        <v>25.5898827380968</v>
       </c>
       <c r="F24" t="n">
-        <v>98.2399478314998</v>
+        <v>98.2399478315013</v>
       </c>
       <c r="G24" t="n">
-        <v>25.5898827380952</v>
+        <v>25.5898827380968</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
         <v>98.2399478315001</v>
@@ -3130,19 +3049,19 @@
         <v>98.2399478315001</v>
       </c>
       <c r="D25" t="n">
-        <v>25.787669884416</v>
+        <v>25.787669884442</v>
       </c>
       <c r="E25" t="n">
-        <v>25.787669884416</v>
+        <v>25.787669884442</v>
       </c>
       <c r="F25" t="n">
-        <v>98.2399478314998</v>
+        <v>98.2399478315013</v>
       </c>
       <c r="G25" t="n">
-        <v>25.787669884416</v>
+        <v>25.787669884442</v>
       </c>
       <c r="H25" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
@@ -3156,24 +3075,24 @@
         <v>109.452441659335</v>
       </c>
       <c r="D26" t="n">
-        <v>25.054454823677</v>
+        <v>25.0544548237383</v>
       </c>
       <c r="E26" t="n">
-        <v>25.054454823677</v>
+        <v>25.0544548237383</v>
       </c>
       <c r="F26" t="n">
-        <v>109.452441659334</v>
+        <v>109.452441659335</v>
       </c>
       <c r="G26" t="n">
-        <v>25.054454823677</v>
+        <v>25.0544548237383</v>
       </c>
       <c r="H26" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
         <v>109.452441659335</v>
@@ -3182,24 +3101,24 @@
         <v>109.452441659335</v>
       </c>
       <c r="D27" t="n">
-        <v>25.684631035844</v>
+        <v>25.684631035895</v>
       </c>
       <c r="E27" t="n">
-        <v>25.684631035844</v>
+        <v>25.684631035895</v>
       </c>
       <c r="F27" t="n">
-        <v>109.452441659334</v>
+        <v>109.452441659335</v>
       </c>
       <c r="G27" t="n">
-        <v>25.684631035844</v>
+        <v>25.684631035895</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
         <v>109.452441659335</v>
@@ -3208,16 +3127,16 @@
         <v>109.452441659335</v>
       </c>
       <c r="D28" t="n">
-        <v>27.6781985209171</v>
+        <v>27.6781985209122</v>
       </c>
       <c r="E28" t="n">
-        <v>27.6781985209171</v>
+        <v>27.6781985209122</v>
       </c>
       <c r="F28" t="n">
-        <v>109.452441659334</v>
+        <v>109.452441659335</v>
       </c>
       <c r="G28" t="n">
-        <v>27.6781985209171</v>
+        <v>27.6781985209122</v>
       </c>
       <c r="H28" t="s">
         <v>173</v>
@@ -3225,7 +3144,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="n">
         <v>109.452441659335</v>
@@ -3234,19 +3153,19 @@
         <v>109.452441659335</v>
       </c>
       <c r="D29" t="n">
-        <v>31.0351572788963</v>
+        <v>31.0351572787899</v>
       </c>
       <c r="E29" t="n">
-        <v>31.0351572788963</v>
+        <v>31.0351572787899</v>
       </c>
       <c r="F29" t="n">
-        <v>109.452441659334</v>
+        <v>109.452441659335</v>
       </c>
       <c r="G29" t="n">
-        <v>31.0351572788963</v>
+        <v>31.0351572787899</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30">
@@ -3260,24 +3179,24 @@
         <v>163.159009077076</v>
       </c>
       <c r="D30" t="n">
-        <v>35.7555073097816</v>
+        <v>35.755507309528</v>
       </c>
       <c r="E30" t="n">
-        <v>35.7555073097816</v>
+        <v>35.755507309528</v>
       </c>
       <c r="F30" t="n">
-        <v>163.159009077076</v>
+        <v>163.159009077077</v>
       </c>
       <c r="G30" t="n">
-        <v>35.7555073097816</v>
+        <v>35.755507309528</v>
       </c>
       <c r="H30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n">
         <v>163.159009077076</v>
@@ -3286,24 +3205,24 @@
         <v>163.159009077076</v>
       </c>
       <c r="D31" t="n">
-        <v>39.6573453059307</v>
+        <v>39.6573453057198</v>
       </c>
       <c r="E31" t="n">
-        <v>39.6573453059307</v>
+        <v>39.6573453057198</v>
       </c>
       <c r="F31" t="n">
-        <v>163.159009077076</v>
+        <v>163.159009077077</v>
       </c>
       <c r="G31" t="n">
-        <v>39.6573453059307</v>
+        <v>39.6573453057198</v>
       </c>
       <c r="H31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="n">
         <v>163.159009077076</v>
@@ -3312,24 +3231,24 @@
         <v>163.159009077076</v>
       </c>
       <c r="D32" t="n">
-        <v>42.7406712673435</v>
+        <v>42.740671267365</v>
       </c>
       <c r="E32" t="n">
-        <v>42.7406712673435</v>
+        <v>42.740671267365</v>
       </c>
       <c r="F32" t="n">
-        <v>163.159009077076</v>
+        <v>163.159009077077</v>
       </c>
       <c r="G32" t="n">
-        <v>42.7406712673435</v>
+        <v>42.740671267365</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
         <v>163.159009077076</v>
@@ -3338,19 +3257,19 @@
         <v>163.159009077076</v>
       </c>
       <c r="D33" t="n">
-        <v>45.0054851940201</v>
+        <v>45.0054851944638</v>
       </c>
       <c r="E33" t="n">
-        <v>45.0054851940201</v>
+        <v>45.0054851944638</v>
       </c>
       <c r="F33" t="n">
-        <v>163.159009077076</v>
+        <v>163.159009077077</v>
       </c>
       <c r="G33" t="n">
-        <v>45.0054851940201</v>
+        <v>45.0054851944638</v>
       </c>
       <c r="H33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34">
@@ -3364,24 +3283,24 @@
         <v>195.524521338654</v>
       </c>
       <c r="D34" t="n">
-        <v>46.4517870859605</v>
+        <v>46.4517870870162</v>
       </c>
       <c r="E34" t="n">
-        <v>46.4517870859605</v>
+        <v>46.4517870870162</v>
       </c>
       <c r="F34" t="n">
-        <v>195.524521338653</v>
+        <v>195.524521338655</v>
       </c>
       <c r="G34" t="n">
-        <v>46.4517870859605</v>
+        <v>46.4517870870162</v>
       </c>
       <c r="H34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
         <v>195.524521338654</v>
@@ -3390,24 +3309,24 @@
         <v>195.524521338654</v>
       </c>
       <c r="D35" t="n">
-        <v>48.0020451422178</v>
+        <v>48.0020451430961</v>
       </c>
       <c r="E35" t="n">
-        <v>48.0020451422178</v>
+        <v>48.0020451430961</v>
       </c>
       <c r="F35" t="n">
-        <v>195.524521338653</v>
+        <v>195.524521338655</v>
       </c>
       <c r="G35" t="n">
-        <v>48.0020451422178</v>
+        <v>48.0020451430961</v>
       </c>
       <c r="H35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
         <v>195.524521338654</v>
@@ -3416,24 +3335,24 @@
         <v>195.524521338654</v>
       </c>
       <c r="D36" t="n">
-        <v>49.656259362792</v>
+        <v>49.6562593627038</v>
       </c>
       <c r="E36" t="n">
-        <v>49.656259362792</v>
+        <v>49.6562593627038</v>
       </c>
       <c r="F36" t="n">
-        <v>195.524521338653</v>
+        <v>195.524521338655</v>
       </c>
       <c r="G36" t="n">
-        <v>49.656259362792</v>
+        <v>49.6562593627038</v>
       </c>
       <c r="H36" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="n">
         <v>195.524521338654</v>
@@ -3442,19 +3361,19 @@
         <v>195.524521338654</v>
       </c>
       <c r="D37" t="n">
-        <v>51.4144297476832</v>
+        <v>51.4144297458391</v>
       </c>
       <c r="E37" t="n">
-        <v>51.4144297476832</v>
+        <v>51.4144297458391</v>
       </c>
       <c r="F37" t="n">
-        <v>195.524521338653</v>
+        <v>195.524521338655</v>
       </c>
       <c r="G37" t="n">
-        <v>51.4144297476832</v>
+        <v>51.4144297458391</v>
       </c>
       <c r="H37" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38">
@@ -3468,24 +3387,24 @@
         <v>274.940033528497</v>
       </c>
       <c r="D38" t="n">
-        <v>53.2765562968913</v>
+        <v>53.276556292502</v>
       </c>
       <c r="E38" t="n">
-        <v>53.2765562968913</v>
+        <v>53.276556292502</v>
       </c>
       <c r="F38" t="n">
-        <v>274.940033528496</v>
+        <v>274.940033528498</v>
       </c>
       <c r="G38" t="n">
-        <v>53.2765562968913</v>
+        <v>53.276556292502</v>
       </c>
       <c r="H38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
         <v>274.940033528497</v>
@@ -3494,24 +3413,24 @@
         <v>274.940033528497</v>
       </c>
       <c r="D39" t="n">
-        <v>60.2047877506676</v>
+        <v>60.2047877470161</v>
       </c>
       <c r="E39" t="n">
-        <v>60.2047877506676</v>
+        <v>60.2047877470161</v>
       </c>
       <c r="F39" t="n">
-        <v>274.940033528496</v>
+        <v>274.940033528498</v>
       </c>
       <c r="G39" t="n">
-        <v>60.2047877506676</v>
+        <v>60.2047877470161</v>
       </c>
       <c r="H39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
         <v>274.940033528497</v>
@@ -3520,24 +3439,24 @@
         <v>274.940033528497</v>
       </c>
       <c r="D40" t="n">
-        <v>72.1991241090121</v>
+        <v>72.1991241093815</v>
       </c>
       <c r="E40" t="n">
-        <v>72.1991241090121</v>
+        <v>72.1991241093815</v>
       </c>
       <c r="F40" t="n">
-        <v>274.940033528496</v>
+        <v>274.940033528498</v>
       </c>
       <c r="G40" t="n">
-        <v>72.1991241090121</v>
+        <v>72.1991241093815</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
         <v>274.940033528497</v>
@@ -3546,19 +3465,19 @@
         <v>274.940033528497</v>
       </c>
       <c r="D41" t="n">
-        <v>89.2595653719248</v>
+        <v>89.259565379598</v>
       </c>
       <c r="E41" t="n">
-        <v>89.2595653719248</v>
+        <v>89.259565379598</v>
       </c>
       <c r="F41" t="n">
-        <v>274.940033528496</v>
+        <v>274.940033528498</v>
       </c>
       <c r="G41" t="n">
-        <v>89.2595653719248</v>
+        <v>89.259565379598</v>
       </c>
       <c r="H41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42">
@@ -3572,24 +3491,24 @@
         <v>481.36323042025</v>
       </c>
       <c r="D42" t="n">
-        <v>111.386111539406</v>
+        <v>111.386111557666</v>
       </c>
       <c r="E42" t="n">
-        <v>111.386111539406</v>
+        <v>111.386111557666</v>
       </c>
       <c r="F42" t="n">
-        <v>481.363230420249</v>
+        <v>481.363230420251</v>
       </c>
       <c r="G42" t="n">
-        <v>111.386111539406</v>
+        <v>111.386111557666</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="n">
         <v>481.36323042025</v>
@@ -3598,24 +3517,24 @@
         <v>481.36323042025</v>
       </c>
       <c r="D43" t="n">
-        <v>123.818608432661</v>
+        <v>123.818608447852</v>
       </c>
       <c r="E43" t="n">
-        <v>123.818608432661</v>
+        <v>123.818608447852</v>
       </c>
       <c r="F43" t="n">
-        <v>481.363230420249</v>
+        <v>481.363230420251</v>
       </c>
       <c r="G43" t="n">
-        <v>123.818608432661</v>
+        <v>123.818608447852</v>
       </c>
       <c r="H43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
         <v>481.36323042025</v>
@@ -3624,24 +3543,24 @@
         <v>481.36323042025</v>
       </c>
       <c r="D44" t="n">
-        <v>126.55705605169</v>
+        <v>126.557056050156</v>
       </c>
       <c r="E44" t="n">
-        <v>126.55705605169</v>
+        <v>126.557056050156</v>
       </c>
       <c r="F44" t="n">
-        <v>481.363230420249</v>
+        <v>481.363230420251</v>
       </c>
       <c r="G44" t="n">
-        <v>126.55705605169</v>
+        <v>126.557056050156</v>
       </c>
       <c r="H44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="n">
         <v>481.36323042025</v>
@@ -3650,19 +3569,19 @@
         <v>481.36323042025</v>
       </c>
       <c r="D45" t="n">
-        <v>119.601454396493</v>
+        <v>119.601454364578</v>
       </c>
       <c r="E45" t="n">
-        <v>119.601454396493</v>
+        <v>119.601454364578</v>
       </c>
       <c r="F45" t="n">
-        <v>481.363230420249</v>
+        <v>481.363230420251</v>
       </c>
       <c r="G45" t="n">
-        <v>119.601454396493</v>
+        <v>119.601454364578</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46">
@@ -3676,24 +3595,24 @@
         <v>329.618769060083</v>
       </c>
       <c r="D46" t="n">
-        <v>102.95180346707</v>
+        <v>102.951803391118</v>
       </c>
       <c r="E46" t="n">
-        <v>102.95180346707</v>
+        <v>102.951803391118</v>
       </c>
       <c r="F46" t="n">
-        <v>329.618769060082</v>
+        <v>329.618769060085</v>
       </c>
       <c r="G46" t="n">
-        <v>102.95180346707</v>
+        <v>102.951803391118</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="n">
         <v>329.618769060083</v>
@@ -3702,24 +3621,24 @@
         <v>329.618769060083</v>
       </c>
       <c r="D47" t="n">
-        <v>88.0730986144808</v>
+        <v>88.0730985512954</v>
       </c>
       <c r="E47" t="n">
-        <v>88.0730986144808</v>
+        <v>88.0730985512954</v>
       </c>
       <c r="F47" t="n">
-        <v>329.618769060082</v>
+        <v>329.618769060085</v>
       </c>
       <c r="G47" t="n">
-        <v>88.0730986144808</v>
+        <v>88.0730985512954</v>
       </c>
       <c r="H47" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="n">
         <v>329.618769060083</v>
@@ -3728,24 +3647,24 @@
         <v>329.618769060083</v>
       </c>
       <c r="D48" t="n">
-        <v>74.965339838726</v>
+        <v>74.9653398451098</v>
       </c>
       <c r="E48" t="n">
-        <v>74.965339838726</v>
+        <v>74.9653398451098</v>
       </c>
       <c r="F48" t="n">
-        <v>329.618769060082</v>
+        <v>329.618769060085</v>
       </c>
       <c r="G48" t="n">
-        <v>74.965339838726</v>
+        <v>74.9653398451098</v>
       </c>
       <c r="H48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
         <v>329.618769060083</v>
@@ -3754,19 +3673,19 @@
         <v>329.618769060083</v>
       </c>
       <c r="D49" t="n">
-        <v>63.6285271398053</v>
+        <v>63.6285272725612</v>
       </c>
       <c r="E49" t="n">
-        <v>63.6285271398053</v>
+        <v>63.6285272725612</v>
       </c>
       <c r="F49" t="n">
-        <v>329.618769060082</v>
+        <v>329.618769060085</v>
       </c>
       <c r="G49" t="n">
-        <v>63.6285271398053</v>
+        <v>63.6285272725612</v>
       </c>
       <c r="H49" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50">
@@ -3780,24 +3699,24 @@
         <v>181.353779142691</v>
       </c>
       <c r="D50" t="n">
-        <v>54.0626605177186</v>
+        <v>54.0626608336496</v>
       </c>
       <c r="E50" t="n">
-        <v>54.0626605177186</v>
+        <v>54.0626608336496</v>
       </c>
       <c r="F50" t="n">
-        <v>181.35377914269</v>
+        <v>181.353779142692</v>
       </c>
       <c r="G50" t="n">
-        <v>54.0626605177186</v>
+        <v>54.0626608336496</v>
       </c>
       <c r="H50" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" t="n">
         <v>181.353779142691</v>
@@ -3806,24 +3725,24 @@
         <v>181.353779142691</v>
       </c>
       <c r="D51" t="n">
-        <v>46.7466275760655</v>
+        <v>46.7466278388943</v>
       </c>
       <c r="E51" t="n">
-        <v>46.7466275760655</v>
+        <v>46.7466278388943</v>
       </c>
       <c r="F51" t="n">
-        <v>181.35377914269</v>
+        <v>181.353779142692</v>
       </c>
       <c r="G51" t="n">
-        <v>46.7466275760655</v>
+        <v>46.7466278388943</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" t="n">
         <v>181.353779142691</v>
@@ -3832,24 +3751,24 @@
         <v>181.353779142691</v>
       </c>
       <c r="D52" t="n">
-        <v>41.6804283148458</v>
+        <v>41.6804282882954</v>
       </c>
       <c r="E52" t="n">
-        <v>41.6804283148458</v>
+        <v>41.6804282882954</v>
       </c>
       <c r="F52" t="n">
-        <v>181.35377914269</v>
+        <v>181.353779142692</v>
       </c>
       <c r="G52" t="n">
-        <v>41.6804283148458</v>
+        <v>41.6804282882954</v>
       </c>
       <c r="H52" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
         <v>181.353779142691</v>
@@ -3858,19 +3777,19 @@
         <v>181.353779142691</v>
       </c>
       <c r="D53" t="n">
-        <v>38.8640627340597</v>
+        <v>38.8640621818529</v>
       </c>
       <c r="E53" t="n">
-        <v>38.8640627340597</v>
+        <v>38.8640621818529</v>
       </c>
       <c r="F53" t="n">
-        <v>181.35377914269</v>
+        <v>181.353779142692</v>
       </c>
       <c r="G53" t="n">
-        <v>38.8640627340597</v>
+        <v>38.8640621818529</v>
       </c>
       <c r="H53" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54">
@@ -3884,24 +3803,24 @@
         <v>140.694646823613</v>
       </c>
       <c r="D54" t="n">
-        <v>38.2975308337071</v>
+        <v>38.2975295195667</v>
       </c>
       <c r="E54" t="n">
-        <v>38.2975308337071</v>
+        <v>38.2975295195667</v>
       </c>
       <c r="F54" t="n">
-        <v>140.694646823612</v>
+        <v>140.694646823614</v>
       </c>
       <c r="G54" t="n">
-        <v>38.2975308337071</v>
+        <v>38.2975295195667</v>
       </c>
       <c r="H54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
         <v>140.694646823613</v>
@@ -3910,24 +3829,24 @@
         <v>140.694646823613</v>
       </c>
       <c r="D55" t="n">
-        <v>36.8213704224444</v>
+        <v>36.821369329187</v>
       </c>
       <c r="E55" t="n">
-        <v>36.8213704224444</v>
+        <v>36.821369329187</v>
       </c>
       <c r="F55" t="n">
-        <v>140.694646823612</v>
+        <v>140.694646823614</v>
       </c>
       <c r="G55" t="n">
-        <v>36.8213704224444</v>
+        <v>36.821369329187</v>
       </c>
       <c r="H55" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="n">
         <v>140.694646823613</v>
@@ -3936,24 +3855,24 @@
         <v>140.694646823613</v>
       </c>
       <c r="D56" t="n">
-        <v>34.4355815002715</v>
+        <v>34.4355816107137</v>
       </c>
       <c r="E56" t="n">
-        <v>34.4355815002715</v>
+        <v>34.4355816107137</v>
       </c>
       <c r="F56" t="n">
-        <v>140.694646823612</v>
+        <v>140.694646823614</v>
       </c>
       <c r="G56" t="n">
-        <v>34.4355815002715</v>
+        <v>34.4355816107137</v>
       </c>
       <c r="H56" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="n">
         <v>140.694646823613</v>
@@ -3962,19 +3881,19 @@
         <v>140.694646823613</v>
       </c>
       <c r="D57" t="n">
-        <v>31.1401640671886</v>
+        <v>31.1401663641469</v>
       </c>
       <c r="E57" t="n">
-        <v>31.1401640671886</v>
+        <v>31.1401663641469</v>
       </c>
       <c r="F57" t="n">
-        <v>140.694646823612</v>
+        <v>140.694646823614</v>
       </c>
       <c r="G57" t="n">
-        <v>31.1401640671886</v>
+        <v>31.1401663641469</v>
       </c>
       <c r="H57" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58">
@@ -3988,24 +3907,24 @@
         <v>92.1567087196574</v>
       </c>
       <c r="D58" t="n">
-        <v>26.9351181231956</v>
+        <v>26.9351235894866</v>
       </c>
       <c r="E58" t="n">
-        <v>26.9351181231956</v>
+        <v>26.9351235894866</v>
       </c>
       <c r="F58" t="n">
-        <v>92.1567087196556</v>
+        <v>92.1567087196583</v>
       </c>
       <c r="G58" t="n">
-        <v>26.9351181231956</v>
+        <v>26.9351235894866</v>
       </c>
       <c r="H58" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" t="n">
         <v>92.1567087196574</v>
@@ -4014,24 +3933,24 @@
         <v>92.1567087196574</v>
       </c>
       <c r="D59" t="n">
-        <v>23.6947233682857</v>
+        <v>23.6947279157937</v>
       </c>
       <c r="E59" t="n">
-        <v>23.6947233682857</v>
+        <v>23.6947279157937</v>
       </c>
       <c r="F59" t="n">
-        <v>92.1567087196556</v>
+        <v>92.1567087196583</v>
       </c>
       <c r="G59" t="n">
-        <v>23.6947233682857</v>
+        <v>23.6947279157937</v>
       </c>
       <c r="H59" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" t="n">
         <v>92.1567087196574</v>
@@ -4040,24 +3959,24 @@
         <v>92.1567087196574</v>
       </c>
       <c r="D60" t="n">
-        <v>21.418979802459</v>
+        <v>21.4189793430681</v>
       </c>
       <c r="E60" t="n">
-        <v>21.418979802459</v>
+        <v>21.4189793430681</v>
       </c>
       <c r="F60" t="n">
-        <v>92.1567087196556</v>
+        <v>92.1567087196583</v>
       </c>
       <c r="G60" t="n">
-        <v>21.418979802459</v>
+        <v>21.4189793430681</v>
       </c>
       <c r="H60" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" t="n">
         <v>92.1567087196574</v>
@@ -4066,19 +3985,19 @@
         <v>92.1567087196574</v>
       </c>
       <c r="D61" t="n">
-        <v>20.1078874257154</v>
+        <v>20.1078778713099</v>
       </c>
       <c r="E61" t="n">
-        <v>20.1078874257154</v>
+        <v>20.1078778713099</v>
       </c>
       <c r="F61" t="n">
-        <v>92.1567087196556</v>
+        <v>92.1567087196583</v>
       </c>
       <c r="G61" t="n">
-        <v>20.1078874257154</v>
+        <v>20.1078778713099</v>
       </c>
       <c r="H61" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62">
@@ -4092,24 +4011,24 @@
         <v>91.7408251937622</v>
       </c>
       <c r="D62" t="n">
-        <v>19.7614462380551</v>
+        <v>19.761423500519</v>
       </c>
       <c r="E62" t="n">
-        <v>19.7614462380551</v>
+        <v>19.761423500519</v>
       </c>
       <c r="F62" t="n">
-        <v>91.7408251937604</v>
+        <v>91.7408251937629</v>
       </c>
       <c r="G62" t="n">
-        <v>19.7614462380551</v>
+        <v>19.761423500519</v>
       </c>
       <c r="H62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" t="n">
         <v>91.7408251937622</v>
@@ -4118,24 +4037,24 @@
         <v>91.7408251937622</v>
       </c>
       <c r="D63" t="n">
-        <v>20.8923737871449</v>
+        <v>20.8923548713714</v>
       </c>
       <c r="E63" t="n">
-        <v>20.8923737871449</v>
+        <v>20.8923548713714</v>
       </c>
       <c r="F63" t="n">
-        <v>91.7408251937604</v>
+        <v>91.7408251937629</v>
       </c>
       <c r="G63" t="n">
-        <v>20.8923737871449</v>
+        <v>20.8923548713714</v>
       </c>
       <c r="H63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
         <v>91.7408251937622</v>
@@ -4144,24 +4063,24 @@
         <v>91.7408251937622</v>
       </c>
       <c r="D64" t="n">
-        <v>23.500670072985</v>
+        <v>23.5006719838669</v>
       </c>
       <c r="E64" t="n">
-        <v>23.500670072985</v>
+        <v>23.5006719838669</v>
       </c>
       <c r="F64" t="n">
-        <v>91.7408251937604</v>
+        <v>91.7408251937629</v>
       </c>
       <c r="G64" t="n">
-        <v>23.500670072985</v>
+        <v>23.5006719838669</v>
       </c>
       <c r="H64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" t="n">
         <v>91.7408251937622</v>
@@ -4170,16 +4089,16 @@
         <v>91.7408251937622</v>
       </c>
       <c r="D65" t="n">
-        <v>27.5863350955754</v>
+        <v>27.5863748380056</v>
       </c>
       <c r="E65" t="n">
-        <v>27.5863350955754</v>
+        <v>27.5863748380056</v>
       </c>
       <c r="F65" t="n">
-        <v>91.7408251937604</v>
+        <v>91.7408251937629</v>
       </c>
       <c r="G65" t="n">
-        <v>27.5863350955754</v>
+        <v>27.5863748380056</v>
       </c>
       <c r="H65" t="s">
         <v>183</v>
@@ -4196,16 +4115,16 @@
         <v>146.426375235049</v>
       </c>
       <c r="D66" t="n">
-        <v>33.1493688549159</v>
+        <v>33.1494634337876</v>
       </c>
       <c r="E66" t="n">
-        <v>33.1493688549159</v>
+        <v>33.1494634337876</v>
       </c>
       <c r="F66" t="n">
-        <v>146.426375235046</v>
+        <v>146.426375235048</v>
       </c>
       <c r="G66" t="n">
-        <v>33.1493688549159</v>
+        <v>33.1494634337876</v>
       </c>
       <c r="H66" t="s">
         <v>184</v>
@@ -4213,7 +4132,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" t="n">
         <v>146.426375235049</v>
@@ -4222,16 +4141,16 @@
         <v>146.426375235049</v>
       </c>
       <c r="D67" t="n">
-        <v>36.7574723401904</v>
+        <v>36.7575510220902</v>
       </c>
       <c r="E67" t="n">
-        <v>36.7574723401904</v>
+        <v>36.7575510220902</v>
       </c>
       <c r="F67" t="n">
-        <v>146.426375235046</v>
+        <v>146.426375235048</v>
       </c>
       <c r="G67" t="n">
-        <v>36.7574723401904</v>
+        <v>36.7575510220902</v>
       </c>
       <c r="H67" t="s">
         <v>185</v>
@@ -4239,7 +4158,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68" t="n">
         <v>146.426375235049</v>
@@ -4248,24 +4167,24 @@
         <v>146.426375235049</v>
       </c>
       <c r="D68" t="n">
-        <v>38.4106455513988</v>
+        <v>38.4106376029134</v>
       </c>
       <c r="E68" t="n">
-        <v>38.4106455513988</v>
+        <v>38.4106376029134</v>
       </c>
       <c r="F68" t="n">
-        <v>146.426375235046</v>
+        <v>146.426375235048</v>
       </c>
       <c r="G68" t="n">
-        <v>38.4106455513988</v>
+        <v>38.4106376029134</v>
       </c>
       <c r="H68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" t="n">
         <v>146.426375235049</v>
@@ -4274,19 +4193,19 @@
         <v>146.426375235049</v>
       </c>
       <c r="D69" t="n">
-        <v>38.1088884885411</v>
+        <v>38.1087231762573</v>
       </c>
       <c r="E69" t="n">
-        <v>38.1088884885411</v>
+        <v>38.1087231762573</v>
       </c>
       <c r="F69" t="n">
-        <v>146.426375235046</v>
+        <v>146.426375235048</v>
       </c>
       <c r="G69" t="n">
-        <v>38.1088884885411</v>
+        <v>38.1087231762573</v>
       </c>
       <c r="H69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70">
@@ -4300,24 +4219,24 @@
         <v>142.371733555816</v>
       </c>
       <c r="D70" t="n">
-        <v>35.8522011516173</v>
+        <v>35.8518077421218</v>
       </c>
       <c r="E70" t="n">
-        <v>35.8522011516173</v>
+        <v>35.8518077421218</v>
       </c>
       <c r="F70" t="n">
-        <v>142.371733555813</v>
+        <v>142.371733555816</v>
       </c>
       <c r="G70" t="n">
-        <v>35.8522011516173</v>
+        <v>35.8518077421218</v>
       </c>
       <c r="H70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
         <v>142.371733555816</v>
@@ -4326,24 +4245,24 @@
         <v>142.371733555816</v>
       </c>
       <c r="D71" t="n">
-        <v>34.8458191117822</v>
+        <v>34.8454918272005</v>
       </c>
       <c r="E71" t="n">
-        <v>34.8458191117822</v>
+        <v>34.8454918272005</v>
       </c>
       <c r="F71" t="n">
-        <v>142.371733555813</v>
+        <v>142.371733555816</v>
       </c>
       <c r="G71" t="n">
-        <v>34.8458191117822</v>
+        <v>34.8454918272005</v>
       </c>
       <c r="H71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
         <v>142.371733555816</v>
@@ -4352,24 +4271,24 @@
         <v>142.371733555816</v>
       </c>
       <c r="D72" t="n">
-        <v>35.0897423690358</v>
+        <v>35.0897754314932</v>
       </c>
       <c r="E72" t="n">
-        <v>35.0897423690358</v>
+        <v>35.0897754314932</v>
       </c>
       <c r="F72" t="n">
-        <v>142.371733555813</v>
+        <v>142.371733555816</v>
       </c>
       <c r="G72" t="n">
-        <v>35.0897423690358</v>
+        <v>35.0897754314932</v>
       </c>
       <c r="H72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" t="n">
         <v>142.371733555816</v>
@@ -4378,19 +4297,19 @@
         <v>142.371733555816</v>
       </c>
       <c r="D73" t="n">
-        <v>36.583970923378</v>
+        <v>36.5846585550001</v>
       </c>
       <c r="E73" t="n">
-        <v>36.583970923378</v>
+        <v>36.5846585550001</v>
       </c>
       <c r="F73" t="n">
-        <v>142.371733555813</v>
+        <v>142.371733555816</v>
       </c>
       <c r="G73" t="n">
-        <v>36.583970923378</v>
+        <v>36.5846585550001</v>
       </c>
       <c r="H73" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74">
@@ -4404,24 +4323,24 @@
         <v>164.995</v>
       </c>
       <c r="D74" t="n">
-        <v>39.3285047748088</v>
+        <v>39.3301411977211</v>
       </c>
       <c r="E74" t="n">
-        <v>39.3285047748088</v>
+        <v>39.3301411977211</v>
       </c>
       <c r="F74" t="n">
-        <v>164.994999999997</v>
+        <v>164.995</v>
       </c>
       <c r="G74" t="n">
-        <v>39.3285047748088</v>
+        <v>39.3301411977211</v>
       </c>
       <c r="H74" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" t="n">
         <v>164.995</v>
@@ -4430,24 +4349,24 @@
         <v>164.995</v>
       </c>
       <c r="D75" t="n">
-        <v>41.1944164054574</v>
+        <v>41.195777775721</v>
       </c>
       <c r="E75" t="n">
-        <v>41.1944164054574</v>
+        <v>41.195777775721</v>
       </c>
       <c r="F75" t="n">
-        <v>164.994999999997</v>
+        <v>164.995</v>
       </c>
       <c r="G75" t="n">
-        <v>41.1944164054574</v>
+        <v>41.195777775721</v>
       </c>
       <c r="H75" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" t="n">
         <v>164.995</v>
@@ -4456,24 +4375,24 @@
         <v>164.995</v>
       </c>
       <c r="D76" t="n">
-        <v>42.1817058153236</v>
+        <v>42.1815682889999</v>
       </c>
       <c r="E76" t="n">
-        <v>42.1817058153236</v>
+        <v>42.1815682889999</v>
       </c>
       <c r="F76" t="n">
-        <v>164.994999999997</v>
+        <v>164.995</v>
       </c>
       <c r="G76" t="n">
-        <v>42.1817058153236</v>
+        <v>42.1815682889999</v>
       </c>
       <c r="H76" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" t="n">
         <v>164.995</v>
@@ -4482,19 +4401,19 @@
         <v>164.995</v>
       </c>
       <c r="D77" t="n">
-        <v>42.2903730044075</v>
+        <v>42.2875127375578</v>
       </c>
       <c r="E77" t="n">
-        <v>42.2903730044075</v>
+        <v>42.2875127375578</v>
       </c>
       <c r="F77" t="n">
-        <v>164.994999999997</v>
+        <v>164.995</v>
       </c>
       <c r="G77" t="n">
-        <v>42.2903730044075</v>
+        <v>42.2875127375578</v>
       </c>
       <c r="H77" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78">
@@ -4508,24 +4427,24 @@
         <v>162.799</v>
       </c>
       <c r="D78" t="n">
-        <v>41.5204179727091</v>
+        <v>41.5136111213946</v>
       </c>
       <c r="E78" t="n">
-        <v>41.5204179727091</v>
+        <v>41.5136111213946</v>
       </c>
       <c r="F78" t="n">
-        <v>162.798999999998</v>
+        <v>162.799</v>
       </c>
       <c r="G78" t="n">
-        <v>41.5204179727091</v>
+        <v>41.5136111213946</v>
       </c>
       <c r="H78" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" t="n">
         <v>162.799</v>
@@ -4534,24 +4453,24 @@
         <v>162.799</v>
       </c>
       <c r="D79" t="n">
-        <v>40.8841687709458</v>
+        <v>40.8785060263715</v>
       </c>
       <c r="E79" t="n">
-        <v>40.8841687709458</v>
+        <v>40.8785060263715</v>
       </c>
       <c r="F79" t="n">
-        <v>162.798999999998</v>
+        <v>162.799</v>
       </c>
       <c r="G79" t="n">
-        <v>40.8841687709458</v>
+        <v>40.8785060263715</v>
       </c>
       <c r="H79" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" t="n">
         <v>162.799</v>
@@ -4560,24 +4479,24 @@
         <v>162.799</v>
       </c>
       <c r="D80" t="n">
-        <v>40.3816253991178</v>
+        <v>40.3821974524884</v>
       </c>
       <c r="E80" t="n">
-        <v>40.3816253991178</v>
+        <v>40.3821974524884</v>
       </c>
       <c r="F80" t="n">
-        <v>162.798999999998</v>
+        <v>162.799</v>
       </c>
       <c r="G80" t="n">
-        <v>40.3816253991178</v>
+        <v>40.3821974524884</v>
       </c>
       <c r="H80" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" t="n">
         <v>162.799</v>
@@ -4586,19 +4505,19 @@
         <v>162.799</v>
       </c>
       <c r="D81" t="n">
-        <v>40.012787857225</v>
+        <v>40.0246853997453</v>
       </c>
       <c r="E81" t="n">
-        <v>40.012787857225</v>
+        <v>40.0246853997453</v>
       </c>
       <c r="F81" t="n">
-        <v>162.798999999998</v>
+        <v>162.799</v>
       </c>
       <c r="G81" t="n">
-        <v>40.012787857225</v>
+        <v>40.0246853997453</v>
       </c>
       <c r="H81" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82">
@@ -4612,24 +4531,24 @@
         <v>159.219853886059</v>
       </c>
       <c r="D82" t="n">
-        <v>39.7776561452673</v>
+        <v>39.8059698681424</v>
       </c>
       <c r="E82" t="n">
-        <v>39.7776561452673</v>
+        <v>39.8059698681424</v>
       </c>
       <c r="F82" t="n">
-        <v>159.219853886057</v>
+        <v>159.219853886059</v>
       </c>
       <c r="G82" t="n">
-        <v>39.7776561452673</v>
+        <v>39.8059698681424</v>
       </c>
       <c r="H82" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" t="n">
         <v>159.219853886059</v>
@@ -4638,24 +4557,24 @@
         <v>159.219853886059</v>
       </c>
       <c r="D83" t="n">
-        <v>39.6945263909831</v>
+        <v>39.7180810968501</v>
       </c>
       <c r="E83" t="n">
-        <v>39.6945263909831</v>
+        <v>39.7180810968501</v>
       </c>
       <c r="F83" t="n">
-        <v>159.219853886057</v>
+        <v>159.219853886059</v>
       </c>
       <c r="G83" t="n">
-        <v>39.6945263909831</v>
+        <v>39.7180810968501</v>
       </c>
       <c r="H83" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" t="n">
         <v>159.219853886059</v>
@@ -4664,24 +4583,24 @@
         <v>159.219853886059</v>
       </c>
       <c r="D84" t="n">
-        <v>39.7633985943722</v>
+        <v>39.7610190858686</v>
       </c>
       <c r="E84" t="n">
-        <v>39.7633985943722</v>
+        <v>39.7610190858686</v>
       </c>
       <c r="F84" t="n">
-        <v>159.219853886057</v>
+        <v>159.219853886059</v>
       </c>
       <c r="G84" t="n">
-        <v>39.7633985943722</v>
+        <v>39.7610190858686</v>
       </c>
       <c r="H84" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" t="n">
         <v>159.219853886059</v>
@@ -4690,19 +4609,19 @@
         <v>159.219853886059</v>
       </c>
       <c r="D85" t="n">
-        <v>39.9842727554346</v>
+        <v>39.9347838351979</v>
       </c>
       <c r="E85" t="n">
-        <v>39.9842727554346</v>
+        <v>39.9347838351979</v>
       </c>
       <c r="F85" t="n">
-        <v>159.219853886057</v>
+        <v>159.219853886059</v>
       </c>
       <c r="G85" t="n">
-        <v>39.9842727554346</v>
+        <v>39.9347838351979</v>
       </c>
       <c r="H85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86">
@@ -4716,24 +4635,24 @@
         <v>164.288852474932</v>
       </c>
       <c r="D86" t="n">
-        <v>40.3571488741705</v>
+        <v>40.2393753448379</v>
       </c>
       <c r="E86" t="n">
-        <v>40.3571488741705</v>
+        <v>40.2393753448379</v>
       </c>
       <c r="F86" t="n">
-        <v>164.28885247493</v>
+        <v>164.288852474932</v>
       </c>
       <c r="G86" t="n">
-        <v>40.3571488741705</v>
+        <v>40.2393753448379</v>
       </c>
       <c r="H86" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" t="n">
         <v>164.288852474932</v>
@@ -4742,24 +4661,24 @@
         <v>164.288852474932</v>
       </c>
       <c r="D87" t="n">
-        <v>40.7923250194896</v>
+        <v>40.6943470582519</v>
       </c>
       <c r="E87" t="n">
-        <v>40.7923250194896</v>
+        <v>40.6943470582519</v>
       </c>
       <c r="F87" t="n">
-        <v>164.28885247493</v>
+        <v>164.288852474932</v>
       </c>
       <c r="G87" t="n">
-        <v>40.7923250194896</v>
+        <v>40.6943470582519</v>
       </c>
       <c r="H87" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" t="n">
         <v>164.288852474932</v>
@@ -4768,24 +4687,24 @@
         <v>164.288852474932</v>
       </c>
       <c r="D88" t="n">
-        <v>41.289801191392</v>
+        <v>41.2996989754399</v>
       </c>
       <c r="E88" t="n">
-        <v>41.289801191392</v>
+        <v>41.2996989754399</v>
       </c>
       <c r="F88" t="n">
-        <v>164.28885247493</v>
+        <v>164.288852474932</v>
       </c>
       <c r="G88" t="n">
-        <v>41.289801191392</v>
+        <v>41.2996989754399</v>
       </c>
       <c r="H88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" t="n">
         <v>164.288852474932</v>
@@ -4794,19 +4713,19 @@
         <v>164.288852474932</v>
       </c>
       <c r="D89" t="n">
-        <v>41.8495773898776</v>
+        <v>42.0554310964019</v>
       </c>
       <c r="E89" t="n">
-        <v>41.8495773898776</v>
+        <v>42.0554310964019</v>
       </c>
       <c r="F89" t="n">
-        <v>164.28885247493</v>
+        <v>164.288852474932</v>
       </c>
       <c r="G89" t="n">
-        <v>41.8495773898776</v>
+        <v>42.0554310964019</v>
       </c>
       <c r="H89" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90">
@@ -4820,24 +4739,24 @@
         <v>180.363325053266</v>
       </c>
       <c r="D90" t="n">
-        <v>42.4716536149465</v>
+        <v>42.9615434211379</v>
       </c>
       <c r="E90" t="n">
-        <v>42.4716536149465</v>
+        <v>42.9615434211379</v>
       </c>
       <c r="F90" t="n">
-        <v>180.363325053264</v>
+        <v>180.363325053266</v>
       </c>
       <c r="G90" t="n">
-        <v>42.4716536149465</v>
+        <v>42.9615434211379</v>
       </c>
       <c r="H90" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" t="n">
         <v>180.363325053266</v>
@@ -4846,24 +4765,24 @@
         <v>180.363325053266</v>
       </c>
       <c r="D91" t="n">
-        <v>43.7681551643218</v>
+        <v>44.1757034879037</v>
       </c>
       <c r="E91" t="n">
-        <v>43.7681551643218</v>
+        <v>44.1757034879037</v>
       </c>
       <c r="F91" t="n">
-        <v>180.363325053264</v>
+        <v>180.363325053266</v>
       </c>
       <c r="G91" t="n">
-        <v>43.7681551643218</v>
+        <v>44.1757034879037</v>
       </c>
       <c r="H91" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" t="n">
         <v>180.363325053266</v>
@@ -4872,16 +4791,16 @@
         <v>180.363325053266</v>
       </c>
       <c r="D92" t="n">
-        <v>45.7390820380038</v>
+        <v>45.6979112966995</v>
       </c>
       <c r="E92" t="n">
-        <v>45.7390820380038</v>
+        <v>45.6979112966995</v>
       </c>
       <c r="F92" t="n">
-        <v>180.363325053264</v>
+        <v>180.363325053266</v>
       </c>
       <c r="G92" t="n">
-        <v>45.7390820380038</v>
+        <v>45.6979112966995</v>
       </c>
       <c r="H92" t="s">
         <v>184</v>
@@ -4889,7 +4808,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" t="n">
         <v>180.363325053266</v>
@@ -4898,19 +4817,19 @@
         <v>180.363325053266</v>
       </c>
       <c r="D93" t="n">
-        <v>48.3844342359922</v>
+        <v>47.528166847525</v>
       </c>
       <c r="E93" t="n">
-        <v>48.3844342359922</v>
+        <v>47.528166847525</v>
       </c>
       <c r="F93" t="n">
-        <v>180.363325053264</v>
+        <v>180.363325053266</v>
       </c>
       <c r="G93" t="n">
-        <v>48.3844342359922</v>
+        <v>47.528166847525</v>
       </c>
       <c r="H93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94">
@@ -4924,24 +4843,24 @@
         <v>206.149942086516</v>
       </c>
       <c r="D94" t="n">
-        <v>51.7042117582872</v>
+        <v>49.6664701403805</v>
       </c>
       <c r="E94" t="n">
-        <v>51.7042117582872</v>
+        <v>49.6664701403805</v>
       </c>
       <c r="F94" t="n">
-        <v>206.149942086514</v>
+        <v>206.149942086516</v>
       </c>
       <c r="G94" t="n">
-        <v>51.7042117582872</v>
+        <v>49.6664701403805</v>
       </c>
       <c r="H94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
         <v>206.149942086516</v>
@@ -4950,24 +4869,24 @@
         <v>206.149942086516</v>
       </c>
       <c r="D95" t="n">
-        <v>52.9654322725418</v>
+        <v>51.270197610022</v>
       </c>
       <c r="E95" t="n">
-        <v>52.9654322725418</v>
+        <v>51.270197610022</v>
       </c>
       <c r="F95" t="n">
-        <v>206.149942086514</v>
+        <v>206.149942086516</v>
       </c>
       <c r="G95" t="n">
-        <v>52.9654322725418</v>
+        <v>51.270197610022</v>
       </c>
       <c r="H95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
         <v>206.149942086516</v>
@@ -4976,16 +4895,16 @@
         <v>206.149942086516</v>
       </c>
       <c r="D96" t="n">
-        <v>52.1680957787558</v>
+        <v>52.3393492564498</v>
       </c>
       <c r="E96" t="n">
-        <v>52.1680957787558</v>
+        <v>52.3393492564498</v>
       </c>
       <c r="F96" t="n">
-        <v>206.149942086514</v>
+        <v>206.149942086516</v>
       </c>
       <c r="G96" t="n">
-        <v>52.1680957787558</v>
+        <v>52.3393492564498</v>
       </c>
       <c r="H96" t="s">
         <v>188</v>
@@ -4993,7 +4912,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
         <v>206.149942086516</v>
@@ -5002,227 +4921,19 @@
         <v>206.149942086516</v>
       </c>
       <c r="D97" t="n">
-        <v>49.3122022769293</v>
+        <v>52.8739250796636</v>
       </c>
       <c r="E97" t="n">
-        <v>49.3122022769293</v>
+        <v>52.8739250796636</v>
       </c>
       <c r="F97" t="n">
-        <v>206.149942086514</v>
+        <v>206.149942086516</v>
       </c>
       <c r="G97" t="n">
-        <v>49.3122022769293</v>
+        <v>52.8739250796636</v>
       </c>
       <c r="H97" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>26</v>
-      </c>
-      <c r="B98" t="n">
-        <v>157.317267605468</v>
-      </c>
-      <c r="C98" t="n">
-        <v>157.317267605468</v>
-      </c>
-      <c r="D98" t="n">
-        <v>44.3977517670624</v>
-      </c>
-      <c r="E98" t="n">
-        <v>44.3977517670624</v>
-      </c>
-      <c r="F98" t="n">
-        <v>157.317267605467</v>
-      </c>
-      <c r="G98" t="n">
-        <v>44.3977517670624</v>
-      </c>
-      <c r="H98" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" t="n">
-        <v>157.317267605468</v>
-      </c>
-      <c r="C99" t="n">
-        <v>157.317267605468</v>
-      </c>
-      <c r="D99" t="n">
-        <v>40.4045976168374</v>
-      </c>
-      <c r="E99" t="n">
-        <v>40.4045976168374</v>
-      </c>
-      <c r="F99" t="n">
-        <v>157.317267605467</v>
-      </c>
-      <c r="G99" t="n">
-        <v>40.4045976168374</v>
-      </c>
-      <c r="H99" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" t="n">
-        <v>157.317267605468</v>
-      </c>
-      <c r="C100" t="n">
-        <v>157.317267605468</v>
-      </c>
-      <c r="D100" t="n">
-        <v>37.3327398262541</v>
-      </c>
-      <c r="E100" t="n">
-        <v>37.3327398262541</v>
-      </c>
-      <c r="F100" t="n">
-        <v>157.317267605467</v>
-      </c>
-      <c r="G100" t="n">
-        <v>37.3327398262541</v>
-      </c>
-      <c r="H100" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" t="n">
-        <v>157.317267605468</v>
-      </c>
-      <c r="C101" t="n">
-        <v>157.317267605468</v>
-      </c>
-      <c r="D101" t="n">
-        <v>35.1821783953128</v>
-      </c>
-      <c r="E101" t="n">
-        <v>35.1821783953128</v>
-      </c>
-      <c r="F101" t="n">
-        <v>157.317267605467</v>
-      </c>
-      <c r="G101" t="n">
-        <v>35.1821783953128</v>
-      </c>
-      <c r="H101" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" t="n">
-        <v>131.509225546507</v>
-      </c>
-      <c r="C102" t="n">
-        <v>131.509225546507</v>
-      </c>
-      <c r="D102" t="n">
-        <v>33.9529133240133</v>
-      </c>
-      <c r="E102" t="n">
-        <v>33.9529133240133</v>
-      </c>
-      <c r="F102" t="n">
-        <v>131.509225546505</v>
-      </c>
-      <c r="G102" t="n">
-        <v>33.9529133240133</v>
-      </c>
-      <c r="H102" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" t="n">
-        <v>131.509225546507</v>
-      </c>
-      <c r="C103" t="n">
-        <v>131.509225546507</v>
-      </c>
-      <c r="D103" t="n">
-        <v>33.0309645205387</v>
-      </c>
-      <c r="E103" t="n">
-        <v>33.0309645205387</v>
-      </c>
-      <c r="F103" t="n">
-        <v>131.509225546505</v>
-      </c>
-      <c r="G103" t="n">
-        <v>33.0309645205387</v>
-      </c>
-      <c r="H103" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" t="n">
-        <v>131.509225546507</v>
-      </c>
-      <c r="C104" t="n">
-        <v>131.509225546507</v>
-      </c>
-      <c r="D104" t="n">
-        <v>32.4163319848889</v>
-      </c>
-      <c r="E104" t="n">
-        <v>32.4163319848889</v>
-      </c>
-      <c r="F104" t="n">
-        <v>131.509225546505</v>
-      </c>
-      <c r="G104" t="n">
-        <v>32.4163319848889</v>
-      </c>
-      <c r="H104" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" t="n">
-        <v>131.509225546507</v>
-      </c>
-      <c r="C105" t="n">
-        <v>131.509225546507</v>
-      </c>
-      <c r="D105" t="n">
-        <v>32.1090157170641</v>
-      </c>
-      <c r="E105" t="n">
-        <v>32.1090157170641</v>
-      </c>
-      <c r="F105" t="n">
-        <v>131.509225546505</v>
-      </c>
-      <c r="G105" t="n">
-        <v>32.1090157170641</v>
-      </c>
-      <c r="H105" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5241,10 +4952,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -5257,7 +4968,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>112.269359020735</v>
@@ -5265,7 +4976,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
         <v>110.335437767108</v>
@@ -5273,7 +4984,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
         <v>107.434555886668</v>
@@ -5289,7 +5000,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
         <v>102.079414506656</v>
@@ -5297,7 +5008,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>102.972659268392</v>
@@ -5305,7 +5016,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>106.246447664622</v>
@@ -5321,15 +5032,15 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>115.107089495709</v>
+        <v>115.10708949571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n">
         <v>115.86537706571</v>
@@ -5337,7 +5048,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
         <v>114.175642405349</v>
@@ -5348,12 +5059,12 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>110.037885514626</v>
+        <v>110.037885514625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
         <v>101.37788454827</v>
@@ -5361,7 +5072,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="n">
         <v>88.1956395062815</v>
@@ -5369,10 +5080,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>70.4911503886598</v>
+        <v>70.4911503886612</v>
       </c>
     </row>
     <row r="18">
@@ -5380,31 +5091,31 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>48.2644171954051</v>
+        <v>48.2644171954086</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>32.3420657423392</v>
+        <v>32.3420657423422</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>22.724096029462</v>
+        <v>22.7240960294618</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>19.4105080567737</v>
+        <v>19.4105080567677</v>
       </c>
     </row>
     <row r="22">
@@ -5412,31 +5123,31 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>22.401301824274</v>
+        <v>22.4013018242597</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>24.4610933847145</v>
+        <v>24.4610933847027</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>25.5898827380952</v>
+        <v>25.5898827380968</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>25.787669884416</v>
+        <v>25.787669884442</v>
       </c>
     </row>
     <row r="26">
@@ -5444,31 +5155,31 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>25.054454823677</v>
+        <v>25.0544548237383</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>25.684631035844</v>
+        <v>25.684631035895</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>27.6781985209171</v>
+        <v>27.6781985209122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>31.0351572788963</v>
+        <v>31.0351572787899</v>
       </c>
     </row>
     <row r="30">
@@ -5476,31 +5187,31 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>35.7555073097816</v>
+        <v>35.755507309528</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>39.6573453059307</v>
+        <v>39.6573453057198</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>42.7406712673435</v>
+        <v>42.740671267365</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>45.0054851940201</v>
+        <v>45.0054851944638</v>
       </c>
     </row>
     <row r="34">
@@ -5508,31 +5219,31 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>46.4517870859605</v>
+        <v>46.4517870870162</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>48.0020451422178</v>
+        <v>48.0020451430961</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>49.656259362792</v>
+        <v>49.6562593627038</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>51.4144297476832</v>
+        <v>51.4144297458391</v>
       </c>
     </row>
     <row r="38">
@@ -5540,31 +5251,31 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>53.2765562968913</v>
+        <v>53.276556292502</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>60.2047877506676</v>
+        <v>60.2047877470161</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>72.1991241090121</v>
+        <v>72.1991241093815</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>89.2595653719248</v>
+        <v>89.259565379598</v>
       </c>
     </row>
     <row r="42">
@@ -5572,31 +5283,31 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>111.386111539406</v>
+        <v>111.386111557666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>123.818608432661</v>
+        <v>123.818608447852</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>126.55705605169</v>
+        <v>126.557056050156</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>119.601454396493</v>
+        <v>119.601454364578</v>
       </c>
     </row>
     <row r="46">
@@ -5604,31 +5315,31 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>102.95180346707</v>
+        <v>102.951803391118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>88.0730986144808</v>
+        <v>88.0730985512954</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>74.965339838726</v>
+        <v>74.9653398451098</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>63.6285271398053</v>
+        <v>63.6285272725612</v>
       </c>
     </row>
     <row r="50">
@@ -5636,31 +5347,31 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>54.0626605177186</v>
+        <v>54.0626608336496</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>46.7466275760655</v>
+        <v>46.7466278388943</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>41.6804283148458</v>
+        <v>41.6804282882954</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>38.8640627340597</v>
+        <v>38.8640621818529</v>
       </c>
     </row>
     <row r="54">
@@ -5668,31 +5379,31 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>38.2975308337071</v>
+        <v>38.2975295195667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>36.8213704224444</v>
+        <v>36.821369329187</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>34.4355815002715</v>
+        <v>34.4355816107137</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>31.1401640671886</v>
+        <v>31.1401663641469</v>
       </c>
     </row>
     <row r="58">
@@ -5700,31 +5411,31 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>26.9351181231956</v>
+        <v>26.9351235894866</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>23.6947233682857</v>
+        <v>23.6947279157937</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>21.418979802459</v>
+        <v>21.4189793430681</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>20.1078874257154</v>
+        <v>20.1078778713099</v>
       </c>
     </row>
     <row r="62">
@@ -5732,31 +5443,31 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>19.7614462380551</v>
+        <v>19.761423500519</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>20.8923737871449</v>
+        <v>20.8923548713714</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>23.500670072985</v>
+        <v>23.5006719838669</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>27.5863350955754</v>
+        <v>27.5863748380056</v>
       </c>
     </row>
     <row r="66">
@@ -5764,31 +5475,31 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>33.1493688549159</v>
+        <v>33.1494634337876</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>36.7574723401904</v>
+        <v>36.7575510220902</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>38.4106455513988</v>
+        <v>38.4106376029134</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>38.1088884885411</v>
+        <v>38.1087231762573</v>
       </c>
     </row>
     <row r="70">
@@ -5796,31 +5507,31 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>35.8522011516173</v>
+        <v>35.8518077421218</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>34.8458191117822</v>
+        <v>34.8454918272005</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>35.0897423690358</v>
+        <v>35.0897754314932</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>36.583970923378</v>
+        <v>36.5846585550001</v>
       </c>
     </row>
     <row r="74">
@@ -5828,31 +5539,31 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>39.3285047748088</v>
+        <v>39.3301411977211</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>41.1944164054574</v>
+        <v>41.195777775721</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>42.1817058153236</v>
+        <v>42.1815682889999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>42.2903730044075</v>
+        <v>42.2875127375578</v>
       </c>
     </row>
     <row r="78">
@@ -5860,31 +5571,31 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>41.5204179727091</v>
+        <v>41.5136111213946</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>40.8841687709458</v>
+        <v>40.8785060263715</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>40.3816253991178</v>
+        <v>40.3821974524884</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>40.012787857225</v>
+        <v>40.0246853997453</v>
       </c>
     </row>
     <row r="82">
@@ -5892,31 +5603,31 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>39.7776561452673</v>
+        <v>39.8059698681424</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>39.6945263909831</v>
+        <v>39.7180810968501</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>39.7633985943722</v>
+        <v>39.7610190858686</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>39.9842727554346</v>
+        <v>39.9347838351979</v>
       </c>
     </row>
     <row r="86">
@@ -5924,31 +5635,31 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>40.3571488741705</v>
+        <v>40.2393753448379</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>40.7923250194896</v>
+        <v>40.6943470582519</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>41.289801191392</v>
+        <v>41.2996989754399</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>41.8495773898776</v>
+        <v>42.0554310964019</v>
       </c>
     </row>
     <row r="90">
@@ -5956,31 +5667,31 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>42.4716536149465</v>
+        <v>42.9615434211379</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>43.7681551643218</v>
+        <v>44.1757034879037</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>45.7390820380038</v>
+        <v>45.6979112966995</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>48.3844342359922</v>
+        <v>47.528166847525</v>
       </c>
     </row>
     <row r="94">
@@ -5988,71 +5699,71 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>51.7042117582872</v>
+        <v>49.6664701403805</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>52.9654322725418</v>
+        <v>51.270197610022</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>52.1680957787558</v>
+        <v>52.3393492564498</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>49.3122022769293</v>
+        <v>52.8739250796636</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>44.3977517670624</v>
+        <v>52.7496714016292</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>40.4045976168374</v>
+        <v>52.6037630948436</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>37.3327398262541</v>
+        <v>52.3884272388168</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>35.1821783953128</v>
+        <v>52.0880838517017</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>33.9529133240133</v>
+        <v>51.8338003086919</v>
       </c>
     </row>
     <row r="103">
@@ -6060,7 +5771,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>33.0309645205387</v>
+        <v>51.5312635330419</v>
       </c>
     </row>
     <row r="104">
@@ -6068,7 +5779,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>32.4163319848889</v>
+        <v>51.2736098136866</v>
       </c>
     </row>
     <row r="105">
@@ -6076,7 +5787,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>32.1090157170641</v>
+        <v>51.1323192137787</v>
       </c>
     </row>
     <row r="106">
@@ -6084,7 +5795,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>32.3389563525456</v>
+        <v>51.1137915565712</v>
       </c>
     </row>
     <row r="107">
@@ -6092,7 +5803,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>32.1296546405022</v>
+        <v>51.0006338199228</v>
       </c>
     </row>
     <row r="108">
@@ -6100,7 +5811,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>31.5975611820484</v>
+        <v>50.7883031788864</v>
       </c>
     </row>
     <row r="109">
@@ -6108,7 +5819,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>30.8074450103844</v>
+        <v>50.468583016069</v>
       </c>
     </row>
     <row r="110">
@@ -6116,7 +5827,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>29.555465592745</v>
+        <v>50.0033924641291</v>
       </c>
     </row>
     <row r="111">
@@ -6124,7 +5835,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>29.1315742572479</v>
+        <v>49.6926129886922</v>
       </c>
     </row>
     <row r="112">
@@ -6132,7 +5843,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>29.3753413324791</v>
+        <v>49.5131617617527</v>
       </c>
     </row>
     <row r="113">
@@ -6140,7 +5851,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>30.155642093061</v>
+        <v>49.4493927792168</v>
       </c>
     </row>
     <row r="114">
@@ -6148,7 +5859,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>31.4545793086303</v>
+        <v>49.5442364422081</v>
       </c>
     </row>
     <row r="115">
@@ -6156,7 +5867,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>32.5041338018619</v>
+        <v>49.6372889761818</v>
       </c>
     </row>
     <row r="116">
@@ -6164,7 +5875,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>33.3049999236959</v>
+        <v>49.7506348262763</v>
       </c>
     </row>
     <row r="117">
@@ -6172,7 +5883,7 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>33.8647113818604</v>
+        <v>49.8968411652137</v>
       </c>
     </row>
     <row r="118">
@@ -6180,7 +5891,7 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>34.2468206734026</v>
+        <v>50.046080956147</v>
       </c>
     </row>
     <row r="119">
@@ -6188,7 +5899,7 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>34.3796336378098</v>
+        <v>50.166845075463</v>
       </c>
     </row>
     <row r="120">
@@ -6196,7 +5907,7 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>34.3067732895712</v>
+        <v>50.2378679524829</v>
       </c>
     </row>
     <row r="121">
@@ -6204,7 +5915,7 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>34.0608801056673</v>
+        <v>50.2427920327825</v>
       </c>
     </row>
     <row r="122">
@@ -6212,7 +5923,7 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>33.5662748643055</v>
+        <v>50.1729861174858</v>
       </c>
     </row>
     <row r="123">
@@ -6220,7 +5931,7 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>33.3293513158751</v>
+        <v>50.140636294419</v>
       </c>
     </row>
     <row r="124">
@@ -6228,7 +5939,7 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>33.3041621716872</v>
+        <v>50.1439549865789</v>
       </c>
     </row>
     <row r="125">
@@ -6236,7 +5947,7 @@
         <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>33.4595701374646</v>
+        <v>50.1838314979707</v>
       </c>
     </row>
     <row r="126">
@@ -6244,7 +5955,7 @@
         <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>33.8431171577715</v>
+        <v>50.2802258462995</v>
       </c>
     </row>
     <row r="127">
@@ -6252,7 +5963,7 @@
         <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>34.0206467772418</v>
+        <v>50.3393813223392</v>
       </c>
     </row>
     <row r="128">
@@ -6260,7 +5971,7 @@
         <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>34.0296056472333</v>
+        <v>50.3733053404986</v>
       </c>
     </row>
     <row r="129">
@@ -6268,7 +5979,7 @@
         <v>133</v>
       </c>
       <c r="B129" t="n">
-        <v>33.9006141015331</v>
+        <v>50.3900810091602</v>
       </c>
     </row>
     <row r="130">
@@ -6276,7 +5987,7 @@
         <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>33.6511258796093</v>
+        <v>50.3761502972777</v>
       </c>
     </row>
     <row r="131">
@@ -6284,7 +5995,7 @@
         <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>33.4242839111687</v>
+        <v>50.3586035005919</v>
       </c>
     </row>
     <row r="132">
@@ -6292,7 +6003,7 @@
         <v>136</v>
       </c>
       <c r="B132" t="n">
-        <v>33.2266726120106</v>
+        <v>50.329222379501</v>
       </c>
     </row>
     <row r="133">
@@ -6300,7 +6011,7 @@
         <v>137</v>
       </c>
       <c r="B133" t="n">
-        <v>33.0603026190305</v>
+        <v>50.2824364463705</v>
       </c>
     </row>
   </sheetData>
@@ -6319,10 +6030,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -6335,7 +6046,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>112.269359020735</v>
@@ -6343,7 +6054,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
         <v>110.335437767108</v>
@@ -6351,7 +6062,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
         <v>107.434555886668</v>
@@ -6367,7 +6078,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
         <v>102.079414506656</v>
@@ -6375,7 +6086,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>102.972659268392</v>
@@ -6383,7 +6094,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>106.246447664622</v>
@@ -6399,15 +6110,15 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>115.107089495709</v>
+        <v>115.10708949571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n">
         <v>115.86537706571</v>
@@ -6415,7 +6126,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
         <v>114.175642405349</v>
@@ -6426,12 +6137,12 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>110.037885514626</v>
+        <v>110.037885514625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
         <v>101.37788454827</v>
@@ -6439,7 +6150,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="n">
         <v>88.1956395062815</v>
@@ -6447,10 +6158,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>70.4911503886598</v>
+        <v>70.4911503886612</v>
       </c>
     </row>
     <row r="18">
@@ -6458,31 +6169,31 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>48.2644171954051</v>
+        <v>48.2644171954086</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>32.3420657423392</v>
+        <v>32.3420657423422</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>22.724096029462</v>
+        <v>22.7240960294618</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>19.4105080567737</v>
+        <v>19.4105080567677</v>
       </c>
     </row>
     <row r="22">
@@ -6490,31 +6201,31 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>22.401301824274</v>
+        <v>22.4013018242597</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>24.4610933847145</v>
+        <v>24.4610933847027</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>25.5898827380952</v>
+        <v>25.5898827380968</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>25.787669884416</v>
+        <v>25.787669884442</v>
       </c>
     </row>
     <row r="26">
@@ -6522,31 +6233,31 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>25.054454823677</v>
+        <v>25.0544548237383</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>25.684631035844</v>
+        <v>25.684631035895</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>27.6781985209171</v>
+        <v>27.6781985209122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>31.0351572788963</v>
+        <v>31.0351572787899</v>
       </c>
     </row>
     <row r="30">
@@ -6554,31 +6265,31 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>35.7555073097816</v>
+        <v>35.755507309528</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>39.6573453059307</v>
+        <v>39.6573453057198</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>42.7406712673435</v>
+        <v>42.740671267365</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>45.0054851940201</v>
+        <v>45.0054851944638</v>
       </c>
     </row>
     <row r="34">
@@ -6586,31 +6297,31 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>46.4517870859605</v>
+        <v>46.4517870870162</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>48.0020451422178</v>
+        <v>48.0020451430961</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>49.656259362792</v>
+        <v>49.6562593627038</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>51.4144297476832</v>
+        <v>51.4144297458391</v>
       </c>
     </row>
     <row r="38">
@@ -6618,31 +6329,31 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>53.2765562968913</v>
+        <v>53.276556292502</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>60.2047877506676</v>
+        <v>60.2047877470161</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>72.1991241090121</v>
+        <v>72.1991241093815</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>89.2595653719248</v>
+        <v>89.259565379598</v>
       </c>
     </row>
     <row r="42">
@@ -6650,31 +6361,31 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>111.386111539406</v>
+        <v>111.386111557666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>123.818608432661</v>
+        <v>123.818608447852</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>126.55705605169</v>
+        <v>126.557056050156</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>119.601454396493</v>
+        <v>119.601454364578</v>
       </c>
     </row>
     <row r="46">
@@ -6682,31 +6393,31 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>102.95180346707</v>
+        <v>102.951803391118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>88.0730986144808</v>
+        <v>88.0730985512954</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>74.965339838726</v>
+        <v>74.9653398451098</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>63.6285271398053</v>
+        <v>63.6285272725612</v>
       </c>
     </row>
     <row r="50">
@@ -6714,31 +6425,31 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>54.0626605177186</v>
+        <v>54.0626608336496</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>46.7466275760655</v>
+        <v>46.7466278388943</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>41.6804283148458</v>
+        <v>41.6804282882954</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>38.8640627340597</v>
+        <v>38.8640621818529</v>
       </c>
     </row>
     <row r="54">
@@ -6746,31 +6457,31 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>38.2975308337071</v>
+        <v>38.2975295195667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>36.8213704224444</v>
+        <v>36.821369329187</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>34.4355815002715</v>
+        <v>34.4355816107137</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>31.1401640671886</v>
+        <v>31.1401663641469</v>
       </c>
     </row>
     <row r="58">
@@ -6778,31 +6489,31 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>26.9351181231956</v>
+        <v>26.9351235894866</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>23.6947233682857</v>
+        <v>23.6947279157937</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>21.418979802459</v>
+        <v>21.4189793430681</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>20.1078874257154</v>
+        <v>20.1078778713099</v>
       </c>
     </row>
     <row r="62">
@@ -6810,31 +6521,31 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>19.7614462380551</v>
+        <v>19.761423500519</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>20.8923737871449</v>
+        <v>20.8923548713714</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>23.500670072985</v>
+        <v>23.5006719838669</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>27.5863350955754</v>
+        <v>27.5863748380056</v>
       </c>
     </row>
     <row r="66">
@@ -6842,31 +6553,31 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>33.1493688549159</v>
+        <v>33.1494634337876</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>36.7574723401904</v>
+        <v>36.7575510220902</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>38.4106455513988</v>
+        <v>38.4106376029134</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>38.1088884885411</v>
+        <v>38.1087231762573</v>
       </c>
     </row>
     <row r="70">
@@ -6874,31 +6585,31 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>35.8522011516173</v>
+        <v>35.8518077421218</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>34.8458191117822</v>
+        <v>34.8454918272005</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>35.0897423690358</v>
+        <v>35.0897754314932</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>36.583970923378</v>
+        <v>36.5846585550001</v>
       </c>
     </row>
     <row r="74">
@@ -6906,31 +6617,31 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>39.3285047748088</v>
+        <v>39.3301411977211</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>41.1944164054574</v>
+        <v>41.195777775721</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>42.1817058153236</v>
+        <v>42.1815682889999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>42.2903730044075</v>
+        <v>42.2875127375578</v>
       </c>
     </row>
     <row r="78">
@@ -6938,31 +6649,31 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>41.5204179727091</v>
+        <v>41.5136111213946</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>40.8841687709458</v>
+        <v>40.8785060263715</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>40.3816253991178</v>
+        <v>40.3821974524884</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>40.012787857225</v>
+        <v>40.0246853997453</v>
       </c>
     </row>
     <row r="82">
@@ -6970,31 +6681,31 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>39.7776561452673</v>
+        <v>39.8059698681424</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>39.6945263909831</v>
+        <v>39.7180810968501</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>39.7633985943722</v>
+        <v>39.7610190858686</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>39.9842727554346</v>
+        <v>39.9347838351979</v>
       </c>
     </row>
     <row r="86">
@@ -7002,31 +6713,31 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>40.3571488741705</v>
+        <v>40.2393753448379</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>40.7923250194896</v>
+        <v>40.6943470582519</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>41.289801191392</v>
+        <v>41.2996989754399</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>41.8495773898776</v>
+        <v>42.0554310964019</v>
       </c>
     </row>
     <row r="90">
@@ -7034,31 +6745,31 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>42.4716536149465</v>
+        <v>42.9615434211379</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>43.7681551643218</v>
+        <v>44.1757034879037</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>45.7390820380038</v>
+        <v>45.6979112966995</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>48.3844342359922</v>
+        <v>47.528166847525</v>
       </c>
     </row>
     <row r="94">
@@ -7066,71 +6777,71 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>51.7042117582872</v>
+        <v>49.6664701403805</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>52.9654322725418</v>
+        <v>51.270197610022</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>52.1680957787558</v>
+        <v>52.3393492564498</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>49.3122022769293</v>
+        <v>52.8739250796636</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>44.3977517670624</v>
+        <v>52.7496714016292</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>40.4045976168374</v>
+        <v>52.6037630948436</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>37.3327398262541</v>
+        <v>52.3884272388168</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>35.1821783953128</v>
+        <v>52.0880838517017</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>33.9529133240133</v>
+        <v>51.8338003086919</v>
       </c>
     </row>
     <row r="103">
@@ -7138,7 +6849,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>33.0309645205387</v>
+        <v>51.5312635330419</v>
       </c>
     </row>
     <row r="104">
@@ -7146,7 +6857,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>32.4163319848889</v>
+        <v>51.2736098136866</v>
       </c>
     </row>
     <row r="105">
@@ -7154,7 +6865,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>32.1090157170641</v>
+        <v>51.1323192137787</v>
       </c>
     </row>
     <row r="106">
@@ -7162,7 +6873,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>32.3389563525456</v>
+        <v>51.1137915565712</v>
       </c>
     </row>
     <row r="107">
@@ -7170,7 +6881,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>32.1296546405022</v>
+        <v>51.0006338199228</v>
       </c>
     </row>
     <row r="108">
@@ -7178,7 +6889,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>31.5975611820484</v>
+        <v>50.7883031788864</v>
       </c>
     </row>
     <row r="109">
@@ -7186,7 +6897,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>30.8074450103844</v>
+        <v>50.468583016069</v>
       </c>
     </row>
     <row r="110">
@@ -7194,7 +6905,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>29.555465592745</v>
+        <v>50.0033924641291</v>
       </c>
     </row>
     <row r="111">
@@ -7202,7 +6913,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>29.1315742572479</v>
+        <v>49.6926129886922</v>
       </c>
     </row>
     <row r="112">
@@ -7210,7 +6921,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>29.3753413324791</v>
+        <v>49.5131617617527</v>
       </c>
     </row>
     <row r="113">
@@ -7218,7 +6929,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>30.155642093061</v>
+        <v>49.4493927792168</v>
       </c>
     </row>
     <row r="114">
@@ -7226,7 +6937,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>31.4545793086303</v>
+        <v>49.5442364422081</v>
       </c>
     </row>
     <row r="115">
@@ -7234,7 +6945,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>32.5041338018619</v>
+        <v>49.6372889761818</v>
       </c>
     </row>
     <row r="116">
@@ -7242,7 +6953,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>33.3049999236959</v>
+        <v>49.7506348262763</v>
       </c>
     </row>
     <row r="117">
@@ -7250,7 +6961,7 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>33.8647113818604</v>
+        <v>49.8968411652137</v>
       </c>
     </row>
     <row r="118">
@@ -7258,7 +6969,7 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>34.2468206734026</v>
+        <v>50.046080956147</v>
       </c>
     </row>
     <row r="119">
@@ -7266,7 +6977,7 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>34.3796336378098</v>
+        <v>50.166845075463</v>
       </c>
     </row>
     <row r="120">
@@ -7274,7 +6985,7 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>34.3067732895712</v>
+        <v>50.2378679524829</v>
       </c>
     </row>
     <row r="121">
@@ -7282,7 +6993,7 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>34.0608801056673</v>
+        <v>50.2427920327825</v>
       </c>
     </row>
     <row r="122">
@@ -7290,7 +7001,7 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>33.5662748643055</v>
+        <v>50.1729861174858</v>
       </c>
     </row>
     <row r="123">
@@ -7298,7 +7009,7 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>33.3293513158751</v>
+        <v>50.140636294419</v>
       </c>
     </row>
     <row r="124">
@@ -7306,7 +7017,7 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>33.3041621716872</v>
+        <v>50.1439549865789</v>
       </c>
     </row>
     <row r="125">
@@ -7314,7 +7025,7 @@
         <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>33.4595701374646</v>
+        <v>50.1838314979707</v>
       </c>
     </row>
     <row r="126">
@@ -7322,7 +7033,7 @@
         <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>33.8431171577715</v>
+        <v>50.2802258462995</v>
       </c>
     </row>
     <row r="127">
@@ -7330,7 +7041,7 @@
         <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>34.0206467772418</v>
+        <v>50.3393813223392</v>
       </c>
     </row>
     <row r="128">
@@ -7338,7 +7049,7 @@
         <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>34.0296056472333</v>
+        <v>50.3733053404986</v>
       </c>
     </row>
     <row r="129">
@@ -7346,7 +7057,7 @@
         <v>133</v>
       </c>
       <c r="B129" t="n">
-        <v>33.9006141015331</v>
+        <v>50.3900810091602</v>
       </c>
     </row>
     <row r="130">
@@ -7354,7 +7065,7 @@
         <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>33.6511258796093</v>
+        <v>50.3761502972777</v>
       </c>
     </row>
     <row r="131">
@@ -7362,7 +7073,7 @@
         <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>33.4242839111687</v>
+        <v>50.3586035005919</v>
       </c>
     </row>
     <row r="132">
@@ -7370,7 +7081,7 @@
         <v>136</v>
       </c>
       <c r="B132" t="n">
-        <v>33.2266726120106</v>
+        <v>50.329222379501</v>
       </c>
     </row>
     <row r="133">
@@ -7378,7 +7089,7 @@
         <v>137</v>
       </c>
       <c r="B133" t="n">
-        <v>33.0603026190305</v>
+        <v>50.2824364463705</v>
       </c>
     </row>
   </sheetData>
